--- a/LULU.xlsx
+++ b/LULU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F14E4B-E0D4-4736-B8B6-714D86FDE2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A47B49-92BA-46C3-BC32-369A2F14A19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{307BA413-EEF9-4958-8DCC-E913E47A6543}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{307BA413-EEF9-4958-8DCC-E913E47A6543}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t>Lulu Lemon</t>
   </si>
@@ -215,6 +215,18 @@
   <si>
     <t>ARPS</t>
   </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
 </sst>
 </file>
 
@@ -278,7 +290,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -291,6 +303,10 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -631,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0763D264-7AA2-4A43-9561-8F9D88497622}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +670,7 @@
         <v>3</v>
       </c>
       <c r="I2">
-        <v>304.16000000000003</v>
+        <v>259.77</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -662,10 +678,10 @@
         <v>28</v>
       </c>
       <c r="I3" s="5">
-        <v>121.68300000000001</v>
+        <v>114.72942999999999</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -685,7 +701,7 @@
       </c>
       <c r="I4" s="1">
         <f>I3*I2</f>
-        <v>37011.101280000003</v>
+        <v>29803.264031099996</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -704,10 +720,10 @@
         <v>5</v>
       </c>
       <c r="I5" s="1">
-        <v>1984.336</v>
+        <v>1325.2719999999999</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -715,10 +731,10 @@
         <v>6</v>
       </c>
       <c r="I6" s="1">
-        <v>308.35199999999998</v>
+        <v>271.07600000000002</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -727,7 +743,7 @@
       </c>
       <c r="I7" s="1">
         <f>I4+I6-I5</f>
-        <v>35335.117279999999</v>
+        <v>28749.068031099996</v>
       </c>
     </row>
   </sheetData>
@@ -741,13 +757,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10BA731A-EDB9-4887-9C65-CEC0B0F7DA3D}">
-  <dimension ref="A1:AS324"/>
+  <dimension ref="A1:AW324"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="H12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="K28" sqref="H28:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,12 +772,12 @@
     <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>40</v>
       </c>
@@ -786,29 +802,41 @@
       <c r="J2" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="K2" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="L2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>52</v>
       </c>
@@ -836,33 +864,39 @@
       <c r="J3" s="3">
         <v>462</v>
       </c>
-      <c r="L3" s="3">
+      <c r="K3" s="3">
+        <v>462</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="P3" s="3">
         <f>285+64</f>
         <v>349</v>
       </c>
-      <c r="M3" s="3">
+      <c r="Q3" s="3">
         <f>306+63</f>
         <v>369</v>
       </c>
-      <c r="N3" s="3">
+      <c r="R3" s="3">
         <f>315+62</f>
         <v>377</v>
       </c>
-      <c r="O3" s="3">
+      <c r="S3" s="3">
         <f>324+63</f>
         <v>387</v>
       </c>
-      <c r="P3" s="3">
+      <c r="T3" s="3">
         <v>419</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="U3" s="3">
         <v>438</v>
       </c>
-      <c r="R3" s="3">
+      <c r="V3" s="3">
         <v>462</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>53</v>
       </c>
@@ -890,29 +924,35 @@
       <c r="J4" s="3">
         <v>151</v>
       </c>
-      <c r="L4" s="3">
+      <c r="K4" s="3">
+        <v>154</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="P4" s="3">
         <v>22</v>
       </c>
-      <c r="M4" s="3">
+      <c r="Q4" s="3">
         <v>38</v>
       </c>
-      <c r="N4" s="3">
+      <c r="R4" s="3">
         <v>55</v>
       </c>
-      <c r="O4" s="3">
+      <c r="S4" s="3">
         <v>86</v>
       </c>
-      <c r="P4" s="3">
+      <c r="T4" s="3">
         <v>99</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="U4" s="3">
         <v>127</v>
       </c>
-      <c r="R4" s="3">
+      <c r="V4" s="3">
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>55</v>
       </c>
@@ -940,33 +980,39 @@
       <c r="J5" s="3">
         <v>107</v>
       </c>
-      <c r="L5" s="3">
+      <c r="K5" s="3">
+        <v>107</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="P5" s="3">
         <f>29+5+7+4+3</f>
         <v>48</v>
       </c>
-      <c r="M5" s="3">
+      <c r="Q5" s="3">
         <f>31+7+7+5+4+2</f>
         <v>56</v>
       </c>
-      <c r="N5" s="3">
+      <c r="R5" s="3">
         <f>31+7+7+6+4+2</f>
         <v>57</v>
       </c>
-      <c r="O5" s="3">
+      <c r="S5" s="3">
         <f>31+12+7+6+6+2</f>
         <v>64</v>
       </c>
-      <c r="P5" s="3">
+      <c r="T5" s="3">
         <v>91</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="U5" s="3">
         <v>98</v>
       </c>
-      <c r="R5" s="3">
+      <c r="V5" s="3">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>56</v>
       </c>
@@ -994,98 +1040,112 @@
       <c r="J6" s="3">
         <v>47</v>
       </c>
-      <c r="L6" s="3">
+      <c r="K6" s="3">
+        <v>47</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="P6" s="3">
         <f>12+5+1+1+1+1</f>
         <v>21</v>
       </c>
-      <c r="M6" s="3">
+      <c r="Q6" s="3">
         <f>14+6+3+2+1+1+1</f>
         <v>28</v>
       </c>
-      <c r="N6" s="3">
+      <c r="R6" s="3">
         <f>16+7+3+1+2+1+1+1</f>
         <v>32</v>
       </c>
-      <c r="O6" s="3">
+      <c r="S6" s="3">
         <f>17+9+3+3+2+1+1+1</f>
         <v>37</v>
       </c>
-      <c r="P6" s="3">
+      <c r="T6" s="3">
         <v>46</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="U6" s="3">
         <v>48</v>
       </c>
-      <c r="R6" s="3">
+      <c r="V6" s="3">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="11">
         <f t="shared" ref="C7:H7" si="0">+SUM(C3:C6)</f>
         <v>711</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="11">
         <f t="shared" si="0"/>
         <v>711</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="11">
         <f t="shared" si="0"/>
         <v>711</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="11">
         <f t="shared" si="0"/>
         <v>711</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="11">
         <f t="shared" si="0"/>
         <v>711</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="11">
         <f t="shared" si="0"/>
         <v>721</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="11">
         <f>+SUM(I3:I6)</f>
         <v>749</v>
       </c>
-      <c r="J7" s="3">
-        <f t="shared" ref="J7" si="1">+SUM(J3:J6)</f>
+      <c r="J7" s="11">
+        <f t="shared" ref="J7:K7" si="1">+SUM(J3:J6)</f>
         <v>767</v>
       </c>
-      <c r="L7" s="3">
-        <f>+SUM(L3:L6)</f>
+      <c r="K7" s="11">
+        <f t="shared" si="1"/>
+        <v>770</v>
+      </c>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="11">
+        <f>+SUM(P3:P6)</f>
         <v>440</v>
       </c>
-      <c r="M7" s="3">
-        <f t="shared" ref="M7" si="2">+SUM(M3:M6)</f>
+      <c r="Q7" s="11">
+        <f t="shared" ref="Q7" si="2">+SUM(Q3:Q6)</f>
         <v>491</v>
       </c>
-      <c r="N7" s="3">
-        <f t="shared" ref="N7" si="3">+SUM(N3:N6)</f>
+      <c r="R7" s="11">
+        <f t="shared" ref="R7" si="3">+SUM(R3:R6)</f>
         <v>521</v>
       </c>
-      <c r="O7" s="3">
-        <f t="shared" ref="O7" si="4">+SUM(O3:O6)</f>
+      <c r="S7" s="11">
+        <f t="shared" ref="S7" si="4">+SUM(S3:S6)</f>
         <v>574</v>
       </c>
-      <c r="P7" s="3">
-        <f t="shared" ref="P7" si="5">+SUM(P3:P6)</f>
+      <c r="T7" s="11">
+        <f t="shared" ref="T7" si="5">+SUM(T3:T6)</f>
         <v>655</v>
       </c>
-      <c r="Q7" s="3">
-        <f t="shared" ref="Q7" si="6">+SUM(Q3:Q6)</f>
+      <c r="U7" s="11">
+        <f t="shared" ref="U7" si="6">+SUM(U3:U6)</f>
         <v>711</v>
       </c>
-      <c r="R7" s="3">
-        <f t="shared" ref="R7" si="7">+SUM(R3:R6)</f>
+      <c r="V7" s="11">
+        <f t="shared" ref="V7" si="7">+SUM(V3:V6)</f>
         <v>767</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>58</v>
       </c>
@@ -1102,7 +1162,7 @@
         <v>1.277253164556962</v>
       </c>
       <c r="F8" s="9">
-        <f t="shared" ref="F8:J8" si="9">+F17/F7</f>
+        <f t="shared" ref="F8:K8" si="9">+F17/F7</f>
         <v>2.3549479606188459</v>
       </c>
       <c r="G8" s="9">
@@ -1121,36 +1181,43 @@
         <f t="shared" si="9"/>
         <v>2.3588591916558017</v>
       </c>
-      <c r="L8" s="9">
-        <f>+L16/L7</f>
+      <c r="K8" s="9">
+        <f t="shared" si="9"/>
+        <v>1.2479090909090909</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="P8" s="9">
+        <f>+P16/P7</f>
         <v>4.8326431818181819</v>
       </c>
-      <c r="M8" s="9">
-        <f t="shared" ref="M8:R8" si="10">+M16/M7</f>
+      <c r="Q8" s="9">
+        <f t="shared" ref="Q8:V8" si="10">+Q16/Q7</f>
         <v>2.3173564154786148</v>
       </c>
-      <c r="N8" s="9">
+      <c r="R8" s="9">
         <f t="shared" si="10"/>
         <v>3.1831228406909786</v>
       </c>
-      <c r="O8" s="9">
+      <c r="S8" s="9">
         <f t="shared" si="10"/>
         <v>4.9154999999999998</v>
       </c>
-      <c r="P8" s="9">
+      <c r="T8" s="9">
         <f t="shared" si="10"/>
         <v>5.5696595419847323</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="U8" s="9">
         <f t="shared" si="10"/>
         <v>6.2038762306610407</v>
       </c>
-      <c r="R8" s="9">
+      <c r="V8" s="9">
         <f t="shared" si="10"/>
         <v>6.5291681877444594</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1159,15 +1226,19 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+    </row>
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>44</v>
       </c>
@@ -1181,7 +1252,7 @@
         <v>1732.3979999999999</v>
       </c>
       <c r="F10" s="5">
-        <f>+Q10-SUM(C10:E10)</f>
+        <f>+U10-SUM(C10:E10)</f>
         <v>2611.7380000000003</v>
       </c>
       <c r="G10" s="5">
@@ -1194,39 +1265,41 @@
         <v>1770.3820000000001</v>
       </c>
       <c r="J10" s="5">
-        <f>+R10-SUM(G10:I10)</f>
+        <f t="shared" ref="J10:J18" si="11">+V10-SUM(G10:I10)</f>
         <v>2794.0770000000002</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5">
+      <c r="K10" s="5">
+        <v>1674.558</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5">
         <f>2363.374+565.105</f>
         <v>2928.4789999999998</v>
       </c>
-      <c r="M10" s="5">
+      <c r="Q10" s="5">
         <f>2854.364+649.114</f>
         <v>3503.4780000000001</v>
       </c>
-      <c r="N10" s="5">
+      <c r="R10" s="5">
         <f>3015.133+672.607</f>
         <v>3687.74</v>
       </c>
-      <c r="O10" s="5">
+      <c r="S10" s="5">
         <f>4345.687+954.219</f>
         <v>5299.9059999999999</v>
       </c>
-      <c r="P10" s="5">
+      <c r="T10" s="5">
         <v>6817.4539999999997</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="U10" s="5">
         <v>7631.6469999999999</v>
       </c>
-      <c r="R10" s="5">
+      <c r="V10" s="5">
         <v>7928.1559999999999</v>
       </c>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
@@ -1250,8 +1323,12 @@
       <c r="AQ10" s="5"/>
       <c r="AR10" s="5"/>
       <c r="AS10" s="5"/>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT10" s="5"/>
+      <c r="AU10" s="5"/>
+      <c r="AV10" s="5"/>
+      <c r="AW10" s="5"/>
+    </row>
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>54</v>
       </c>
@@ -1265,7 +1342,7 @@
         <v>228.595</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" ref="F11:F18" si="11">+Q11-SUM(C11:E11)</f>
+        <f t="shared" ref="F11:F18" si="12">+U11-SUM(C11:E11)</f>
         <v>290.65199999999993</v>
       </c>
       <c r="G11" s="5">
@@ -1278,35 +1355,37 @@
         <v>318.33800000000002</v>
       </c>
       <c r="J11" s="5">
-        <f>+R11-SUM(G11:I11)</f>
+        <f t="shared" si="11"/>
         <v>425.02399999999989</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5">
+      <c r="K11" s="5">
+        <v>412.20499999999998</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5">
         <v>0</v>
       </c>
-      <c r="M11" s="5">
+      <c r="Q11" s="5">
         <v>0</v>
       </c>
-      <c r="N11" s="5">
+      <c r="R11" s="5">
         <v>0</v>
       </c>
-      <c r="O11" s="5">
+      <c r="S11" s="5">
         <v>0</v>
       </c>
-      <c r="P11" s="5">
+      <c r="T11" s="5">
         <v>576.50300000000004</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="U11" s="5">
         <v>963.76</v>
       </c>
-      <c r="R11" s="5">
+      <c r="V11" s="5">
         <v>1361.337</v>
       </c>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
@@ -1330,8 +1409,12 @@
       <c r="AQ11" s="5"/>
       <c r="AR11" s="5"/>
       <c r="AS11" s="5"/>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT11" s="5"/>
+      <c r="AU11" s="5"/>
+      <c r="AV11" s="5"/>
+      <c r="AW11" s="5"/>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>45</v>
       </c>
@@ -1345,7 +1428,7 @@
         <v>243.22499999999999</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>302.71299999999997</v>
       </c>
       <c r="G12" s="5">
@@ -1358,35 +1441,37 @@
         <v>307.94</v>
       </c>
       <c r="J12" s="5">
-        <f>+R12-SUM(G12:I12)</f>
+        <f t="shared" si="11"/>
         <v>392.39599999999996</v>
       </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5">
+      <c r="K12" s="5">
+        <v>283.89699999999999</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5">
         <v>359.84</v>
       </c>
-      <c r="M12" s="5">
+      <c r="Q12" s="5">
         <v>475.81799999999998</v>
       </c>
-      <c r="N12" s="5">
+      <c r="R12" s="5">
         <v>624.13900000000001</v>
       </c>
-      <c r="O12" s="5">
+      <c r="S12" s="5">
         <v>956.71100000000001</v>
       </c>
-      <c r="P12" s="5">
+      <c r="T12" s="5">
         <v>716.56100000000004</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="U12" s="5">
         <v>1023.871</v>
       </c>
-      <c r="R12" s="5">
+      <c r="V12" s="5">
         <v>1298.633</v>
       </c>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
@@ -1410,8 +1495,12 @@
       <c r="AQ12" s="5"/>
       <c r="AR12" s="5"/>
       <c r="AS12" s="5"/>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT12" s="5"/>
+      <c r="AU12" s="5"/>
+      <c r="AV12" s="5"/>
+      <c r="AW12" s="5"/>
+    </row>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>46</v>
       </c>
@@ -1425,7 +1514,7 @@
         <v>1433.9269999999999</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2008.2900000000009</v>
       </c>
       <c r="G13" s="5">
@@ -1438,35 +1527,37 @@
         <v>1555.6859999999999</v>
       </c>
       <c r="J13" s="5">
-        <f>+R13-SUM(G13:I13)</f>
+        <f t="shared" si="11"/>
         <v>2225.5820000000003</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5">
+      <c r="K13" s="5">
+        <v>1535.172</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5">
         <v>2352.788</v>
       </c>
-      <c r="M13" s="5">
+      <c r="Q13" s="5">
         <v>2790.9969999999998</v>
       </c>
-      <c r="N13" s="5">
+      <c r="R13" s="5">
         <v>3049.9059999999999</v>
       </c>
-      <c r="O13" s="5">
+      <c r="S13" s="5">
         <v>4171.7619999999997</v>
       </c>
-      <c r="P13" s="5">
+      <c r="T13" s="5">
         <v>5259.8029999999999</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="U13" s="5">
         <v>6147.3720000000003</v>
       </c>
-      <c r="R13" s="5">
+      <c r="V13" s="5">
         <v>6692.63</v>
       </c>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
@@ -1490,8 +1581,12 @@
       <c r="AQ13" s="5"/>
       <c r="AR13" s="5"/>
       <c r="AS13" s="5"/>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT13" s="5"/>
+      <c r="AU13" s="5"/>
+      <c r="AV13" s="5"/>
+      <c r="AW13" s="5"/>
+    </row>
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>47</v>
       </c>
@@ -1505,7 +1600,7 @@
         <v>504.82799999999997</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>779.03700000000026</v>
       </c>
       <c r="G14" s="5">
@@ -1518,35 +1613,37 @@
         <v>551.42999999999995</v>
       </c>
       <c r="J14" s="5">
-        <f>+R14-SUM(G14:I14)</f>
+        <f t="shared" si="11"/>
         <v>913.72700000000032</v>
       </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5">
+      <c r="K14" s="5">
+        <v>544.78800000000001</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5">
         <v>694.92100000000005</v>
       </c>
-      <c r="M14" s="5">
+      <c r="Q14" s="5">
         <v>933.76700000000005</v>
       </c>
-      <c r="N14" s="5">
+      <c r="R14" s="5">
         <v>953.18299999999999</v>
       </c>
-      <c r="O14" s="5">
+      <c r="S14" s="5">
         <v>1535.85</v>
       </c>
-      <c r="P14" s="5">
+      <c r="T14" s="5">
         <v>1956.6020000000001</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="U14" s="5">
         <v>2252.7530000000002</v>
       </c>
-      <c r="R14" s="5">
+      <c r="V14" s="5">
         <v>2558.38</v>
       </c>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
@@ -1570,8 +1667,12 @@
       <c r="AQ14" s="5"/>
       <c r="AR14" s="5"/>
       <c r="AS14" s="5"/>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT14" s="5"/>
+      <c r="AU14" s="5"/>
+      <c r="AV14" s="5"/>
+      <c r="AW14" s="5"/>
+    </row>
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>48</v>
       </c>
@@ -1585,7 +1686,7 @@
         <v>265.46300000000002</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>417.77600000000007</v>
       </c>
       <c r="G15" s="5">
@@ -1598,35 +1699,37 @@
         <v>289.54399999999998</v>
       </c>
       <c r="J15" s="5">
-        <f>+R15-SUM(G15:I15)</f>
+        <f t="shared" si="11"/>
         <v>472.18799999999999</v>
       </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5">
+      <c r="K15" s="5">
+        <v>290.7</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5">
         <v>240.61</v>
       </c>
-      <c r="M15" s="5">
+      <c r="Q15" s="5">
         <v>254.53200000000001</v>
       </c>
-      <c r="N15" s="5">
+      <c r="R15" s="5">
         <v>398.79</v>
       </c>
-      <c r="O15" s="5">
+      <c r="S15" s="5">
         <v>549.005</v>
       </c>
-      <c r="P15" s="5">
+      <c r="T15" s="5">
         <v>894.11300000000006</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="U15" s="5">
         <v>1219.153</v>
       </c>
-      <c r="R15" s="5">
+      <c r="V15" s="5">
         <v>1337.116</v>
       </c>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
@@ -1650,8 +1753,12 @@
       <c r="AQ15" s="5"/>
       <c r="AR15" s="5"/>
       <c r="AS15" s="5"/>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT15" s="5"/>
+      <c r="AU15" s="5"/>
+      <c r="AV15" s="5"/>
+      <c r="AW15" s="5"/>
+    </row>
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>49</v>
       </c>
@@ -1665,7 +1772,7 @@
         <v>1073.973</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1281.9570000000003</v>
       </c>
       <c r="G16" s="5">
@@ -1678,35 +1785,37 @@
         <v>1210.5229999999999</v>
       </c>
       <c r="J16" s="5">
-        <f>+R16-SUM(G16:I16)</f>
+        <f t="shared" si="11"/>
         <v>1411.2110000000002</v>
       </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5">
+      <c r="K16" s="5">
+        <v>1153.107</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5">
         <v>2126.3629999999998</v>
       </c>
-      <c r="M16" s="5">
+      <c r="Q16" s="5">
         <v>1137.8219999999999</v>
       </c>
-      <c r="N16" s="5">
+      <c r="R16" s="5">
         <v>1658.4069999999999</v>
       </c>
-      <c r="O16" s="5">
+      <c r="S16" s="5">
         <v>2821.4969999999998</v>
       </c>
-      <c r="P16" s="5">
+      <c r="T16" s="5">
         <v>3648.127</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="U16" s="5">
         <v>4410.9560000000001</v>
       </c>
-      <c r="R16" s="5">
+      <c r="V16" s="5">
         <v>5007.8720000000003</v>
       </c>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
@@ -1730,8 +1839,12 @@
       <c r="AQ16" s="5"/>
       <c r="AR16" s="5"/>
       <c r="AS16" s="5"/>
-    </row>
-    <row r="17" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="AT16" s="5"/>
+      <c r="AU16" s="5"/>
+      <c r="AV16" s="5"/>
+      <c r="AW16" s="5"/>
+    </row>
+    <row r="17" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>50</v>
       </c>
@@ -1745,7 +1858,7 @@
         <v>908.12699999999995</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1674.3679999999995</v>
       </c>
       <c r="G17" s="5">
@@ -1758,35 +1871,37 @@
         <v>944.77700000000004</v>
       </c>
       <c r="J17" s="5">
-        <f>+R17-SUM(G17:I17)</f>
+        <f t="shared" si="11"/>
         <v>1809.2449999999999</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5">
+      <c r="K17" s="5">
+        <v>960.89</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5">
         <v>858.85599999999999</v>
       </c>
-      <c r="M17" s="5">
+      <c r="Q17" s="5">
         <v>2501.067</v>
       </c>
-      <c r="N17" s="5">
+      <c r="R17" s="5">
         <v>2284.0680000000002</v>
       </c>
-      <c r="O17" s="5">
+      <c r="S17" s="5">
         <v>2777.944</v>
       </c>
-      <c r="P17" s="5">
+      <c r="T17" s="5">
         <v>3699.7910000000002</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="U17" s="5">
         <v>4311.1099999999997</v>
       </c>
-      <c r="R17" s="5">
+      <c r="V17" s="5">
         <v>4570.4459999999999</v>
       </c>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
@@ -1810,8 +1925,12 @@
       <c r="AQ17" s="5"/>
       <c r="AR17" s="5"/>
       <c r="AS17" s="5"/>
-    </row>
-    <row r="18" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="AT17" s="5"/>
+      <c r="AU17" s="5"/>
+      <c r="AV17" s="5"/>
+      <c r="AW17" s="5"/>
+    </row>
+    <row r="18" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>51</v>
       </c>
@@ -1825,7 +1944,7 @@
         <v>222.11799999999999</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>248.77800000000002</v>
       </c>
       <c r="G18" s="5">
@@ -1838,35 +1957,37 @@
         <v>241.36</v>
       </c>
       <c r="J18" s="5">
-        <f>+R18-SUM(G18:I18)</f>
+        <f t="shared" si="11"/>
         <v>291.04099999999994</v>
       </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5">
+      <c r="K18" s="5">
+        <v>256.66300000000001</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5">
         <v>303.10000000000002</v>
       </c>
-      <c r="M18" s="5">
+      <c r="Q18" s="5">
         <v>340.40699999999998</v>
       </c>
-      <c r="N18" s="5">
+      <c r="R18" s="5">
         <v>459.00400000000002</v>
       </c>
-      <c r="O18" s="5">
+      <c r="S18" s="5">
         <v>657.17600000000004</v>
       </c>
-      <c r="P18" s="5">
+      <c r="T18" s="5">
         <v>762.6</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="U18" s="5">
         <v>897.21199999999999</v>
       </c>
-      <c r="R18" s="5">
+      <c r="V18" s="5">
         <v>1009.808</v>
       </c>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
@@ -1890,8 +2011,12 @@
       <c r="AQ18" s="5"/>
       <c r="AR18" s="5"/>
       <c r="AS18" s="5"/>
-    </row>
-    <row r="19" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="AT18" s="5"/>
+      <c r="AU18" s="5"/>
+      <c r="AV18" s="5"/>
+      <c r="AW18" s="5"/>
+    </row>
+    <row r="19" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>13</v>
       </c>
@@ -1919,30 +2044,36 @@
       <c r="J19" s="6">
         <v>3611.4969999999998</v>
       </c>
-      <c r="K19" s="5"/>
-      <c r="L19" s="6">
+      <c r="K19" s="6">
+        <v>2370.66</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="6">
         <v>3288.319</v>
       </c>
-      <c r="M19" s="6">
+      <c r="Q19" s="6">
         <v>3979.2959999999998</v>
       </c>
-      <c r="N19" s="6">
+      <c r="R19" s="6">
         <v>4401.8789999999999</v>
       </c>
-      <c r="O19" s="6">
+      <c r="S19" s="6">
         <v>6256.6170000000002</v>
       </c>
-      <c r="P19" s="6">
+      <c r="T19" s="6">
         <v>8110.518</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="U19" s="6">
         <v>9619.2780000000002</v>
       </c>
-      <c r="R19" s="6">
+      <c r="V19" s="6">
         <v>10588.126</v>
       </c>
     </row>
-    <row r="20" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>20</v>
       </c>
@@ -1970,30 +2101,36 @@
       <c r="J20" s="5">
         <v>1429.5450000000001</v>
       </c>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5">
+      <c r="K20" s="5">
+        <v>987.53399999999999</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5">
         <v>1472.0309999999999</v>
       </c>
-      <c r="M20" s="5">
+      <c r="Q20" s="5">
         <v>1755.91</v>
       </c>
-      <c r="N20" s="5">
+      <c r="R20" s="5">
         <v>1937.8879999999999</v>
       </c>
-      <c r="O20" s="5">
+      <c r="S20" s="5">
         <v>2648.0520000000001</v>
       </c>
-      <c r="P20" s="5">
+      <c r="T20" s="5">
         <v>3618.1779999999999</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="U20" s="5">
         <v>4009.873</v>
       </c>
-      <c r="R20" s="5">
+      <c r="V20" s="5">
         <v>4317.3149999999996</v>
       </c>
     </row>
-    <row r="21" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>21</v>
       </c>
@@ -2002,15 +2139,15 @@
         <v>1150.8049999999998</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" ref="D21:F21" si="12">D19-D20</f>
+        <f t="shared" ref="D21:F21" si="13">D19-D20</f>
         <v>1298.511</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1256.6639999999998</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1903.425</v>
       </c>
       <c r="G21" s="5">
@@ -2018,48 +2155,55 @@
         <v>1275.0680000000002</v>
       </c>
       <c r="H21" s="5">
-        <f t="shared" ref="H21:J21" si="13">H19-H20</f>
+        <f t="shared" ref="H21:K21" si="14">H19-H20</f>
         <v>1412.1849999999999</v>
       </c>
       <c r="I21" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1401.6059999999998</v>
       </c>
       <c r="J21" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2181.9519999999998</v>
       </c>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5">
-        <f t="shared" ref="L21" si="14">L19-L20</f>
+      <c r="K21" s="5">
+        <f t="shared" si="14"/>
+        <v>1383.1259999999997</v>
+      </c>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5">
+        <f t="shared" ref="P21" si="15">P19-P20</f>
         <v>1816.288</v>
       </c>
-      <c r="M21" s="5">
-        <f t="shared" ref="M21" si="15">M19-M20</f>
+      <c r="Q21" s="5">
+        <f t="shared" ref="Q21" si="16">Q19-Q20</f>
         <v>2223.3859999999995</v>
       </c>
-      <c r="N21" s="5">
-        <f t="shared" ref="N21" si="16">N19-N20</f>
+      <c r="R21" s="5">
+        <f t="shared" ref="R21" si="17">R19-R20</f>
         <v>2463.991</v>
       </c>
-      <c r="O21" s="5">
-        <f t="shared" ref="O21" si="17">O19-O20</f>
+      <c r="S21" s="5">
+        <f t="shared" ref="S21" si="18">S19-S20</f>
         <v>3608.5650000000001</v>
       </c>
-      <c r="P21" s="5">
-        <f t="shared" ref="P21" si="18">P19-P20</f>
+      <c r="T21" s="5">
+        <f t="shared" ref="T21" si="19">T19-T20</f>
         <v>4492.34</v>
       </c>
-      <c r="Q21" s="5">
-        <f t="shared" ref="Q21" si="19">Q19-Q20</f>
+      <c r="U21" s="5">
+        <f t="shared" ref="U21" si="20">U19-U20</f>
         <v>5609.4050000000007</v>
       </c>
-      <c r="R21" s="5">
-        <f t="shared" ref="R21" si="20">R19-R20</f>
+      <c r="V21" s="5">
+        <f t="shared" ref="V21" si="21">V19-V20</f>
         <v>6270.8110000000006</v>
       </c>
     </row>
-    <row r="22" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>22</v>
       </c>
@@ -2087,30 +2231,36 @@
       <c r="J22" s="5">
         <v>1138.1669999999999</v>
       </c>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5">
+      <c r="K22" s="5">
+        <v>942.87099999999998</v>
+      </c>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5">
         <v>1100.3789999999999</v>
       </c>
-      <c r="M22" s="5">
+      <c r="Q22" s="5">
         <v>1334.2470000000001</v>
       </c>
-      <c r="N22" s="5">
+      <c r="R22" s="5">
         <v>1609.0029999999999</v>
       </c>
-      <c r="O22" s="5">
+      <c r="S22" s="5">
         <v>2225.0340000000001</v>
       </c>
-      <c r="P22" s="5">
+      <c r="T22" s="5">
         <v>2757.4470000000001</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="U22" s="5">
         <v>3397.2179999999998</v>
       </c>
-      <c r="R22" s="5">
+      <c r="V22" s="5">
         <v>3762.3789999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>30</v>
       </c>
@@ -2139,47 +2289,53 @@
       <c r="J23" s="5">
         <v>1.617</v>
       </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5">
+      <c r="K23" s="5">
+        <v>1.63</v>
+      </c>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="M23" s="5">
+      <c r="Q23" s="5">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="N23" s="5">
+      <c r="R23" s="5">
         <f>5.16+29.842</f>
         <v>35.001999999999995</v>
       </c>
-      <c r="O23" s="5">
+      <c r="S23" s="5">
         <f>8.782+41.394</f>
         <v>50.176000000000002</v>
       </c>
-      <c r="P23" s="5">
+      <c r="T23" s="5">
         <f>407.913+8.752-10.18</f>
         <v>406.48500000000001</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="U23" s="5">
         <f>74.501+5.01</f>
         <v>79.51100000000001</v>
       </c>
-      <c r="R23" s="5">
+      <c r="V23" s="5">
         <v>2.7349999999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="5">
-        <f t="shared" ref="C24:E24" si="21">C21-SUM(C22:C23)</f>
+        <f t="shared" ref="C24:E24" si="22">C21-SUM(C22:C23)</f>
         <v>401.41399999999976</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>479.25699999999995</v>
       </c>
       <c r="E24" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>338.11499999999978</v>
       </c>
       <c r="F24" s="5">
@@ -2191,50 +2347,53 @@
         <v>432.64200000000017</v>
       </c>
       <c r="H24" s="5">
-        <f t="shared" ref="H24:J24" si="22">H21-SUM(H22:H23)</f>
+        <f t="shared" ref="H24:K24" si="23">H21-SUM(H22:H23)</f>
         <v>540.226</v>
       </c>
       <c r="I24" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>490.66099999999972</v>
       </c>
       <c r="J24" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1042.1679999999999</v>
       </c>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5">
-        <f t="shared" ref="L24" si="23">L21-SUM(L22:L23)</f>
+      <c r="K24" s="5">
+        <f t="shared" si="23"/>
+        <v>438.62499999999977</v>
+      </c>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5">
+        <f t="shared" ref="P24" si="24">P21-SUM(P22:P23)</f>
         <v>715.83700000000022</v>
       </c>
-      <c r="M24" s="5">
-        <f t="shared" ref="M24" si="24">M21-SUM(M22:M23)</f>
+      <c r="Q24" s="5">
+        <f t="shared" ref="Q24" si="25">Q21-SUM(Q22:Q23)</f>
         <v>889.10999999999945</v>
       </c>
-      <c r="N24" s="5">
-        <f t="shared" ref="N24" si="25">N21-SUM(N22:N23)</f>
+      <c r="R24" s="5">
+        <f t="shared" ref="R24" si="26">R21-SUM(R22:R23)</f>
         <v>819.9860000000001</v>
       </c>
-      <c r="O24" s="5">
-        <f>O21-SUM(O22:O23)</f>
+      <c r="S24" s="5">
+        <f>S21-SUM(S22:S23)</f>
         <v>1333.355</v>
       </c>
-      <c r="P24" s="5">
-        <f t="shared" ref="P24" si="26">P21-SUM(P22:P23)</f>
+      <c r="T24" s="5">
+        <f t="shared" ref="T24" si="27">T21-SUM(T22:T23)</f>
         <v>1328.4079999999999</v>
       </c>
-      <c r="Q24" s="5">
-        <f t="shared" ref="Q24" si="27">Q21-SUM(Q22:Q23)</f>
+      <c r="U24" s="5">
+        <f t="shared" ref="U24" si="28">U21-SUM(U22:U23)</f>
         <v>2132.6760000000008</v>
       </c>
-      <c r="R24" s="5">
-        <f t="shared" ref="R24" si="28">R21-SUM(R22:R23)</f>
+      <c r="V24" s="5">
+        <f t="shared" ref="V24" si="29">V21-SUM(V22:V23)</f>
         <v>2505.6970000000006</v>
       </c>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
@@ -2243,8 +2402,12 @@
       <c r="AF24" s="4"/>
       <c r="AG24" s="4"/>
       <c r="AH24" s="4"/>
-    </row>
-    <row r="25" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
+      <c r="AK24" s="4"/>
+      <c r="AL24" s="4"/>
+    </row>
+    <row r="25" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>24</v>
       </c>
@@ -2272,30 +2435,36 @@
       <c r="J25" s="5">
         <v>15.36</v>
       </c>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5">
+      <c r="K25" s="5">
+        <v>11.786</v>
+      </c>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5">
         <v>9.4139999999999997</v>
       </c>
-      <c r="M25" s="5">
+      <c r="Q25" s="5">
         <v>8.2829999999999995</v>
       </c>
-      <c r="N25" s="5">
+      <c r="R25" s="5">
         <v>-0.63600000000000001</v>
       </c>
-      <c r="O25" s="5">
+      <c r="S25" s="5">
         <v>0.51400000000000001</v>
       </c>
-      <c r="P25" s="5">
+      <c r="T25" s="5">
         <v>4.1630000000000003</v>
       </c>
-      <c r="Q25" s="5">
+      <c r="U25" s="5">
         <v>43.058999999999997</v>
       </c>
-      <c r="R25" s="5">
+      <c r="V25" s="5">
         <v>70.38</v>
       </c>
     </row>
-    <row r="26" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>25</v>
       </c>
@@ -2304,15 +2473,15 @@
         <v>409.43899999999974</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" ref="D26:F26" si="29">D24+D25</f>
+        <f t="shared" ref="D26:F26" si="30">D24+D25</f>
         <v>486.61899999999997</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>347.95699999999977</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>931.72</v>
       </c>
       <c r="G26" s="5">
@@ -2320,48 +2489,55 @@
         <v>455.92500000000018</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" ref="H26:J26" si="30">H24+H25</f>
+        <f t="shared" ref="H26:K26" si="31">H24+H25</f>
         <v>558.22</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>504.40399999999971</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1057.5279999999998</v>
       </c>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5">
-        <f t="shared" ref="L26" si="31">L24+L25</f>
+      <c r="K26" s="5">
+        <f t="shared" si="31"/>
+        <v>450.41099999999977</v>
+      </c>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5">
+        <f t="shared" ref="P26" si="32">P24+P25</f>
         <v>725.2510000000002</v>
       </c>
-      <c r="M26" s="5">
-        <f t="shared" ref="M26" si="32">M24+M25</f>
+      <c r="Q26" s="5">
+        <f t="shared" ref="Q26" si="33">Q24+Q25</f>
         <v>897.39299999999946</v>
       </c>
-      <c r="N26" s="5">
-        <f t="shared" ref="N26" si="33">N24+N25</f>
+      <c r="R26" s="5">
+        <f t="shared" ref="R26" si="34">R24+R25</f>
         <v>819.35000000000014</v>
       </c>
-      <c r="O26" s="5">
-        <f t="shared" ref="O26" si="34">O24+O25</f>
+      <c r="S26" s="5">
+        <f t="shared" ref="S26" si="35">S24+S25</f>
         <v>1333.8689999999999</v>
       </c>
-      <c r="P26" s="5">
-        <f t="shared" ref="P26" si="35">P24+P25</f>
+      <c r="T26" s="5">
+        <f t="shared" ref="T26" si="36">T24+T25</f>
         <v>1332.5709999999999</v>
       </c>
-      <c r="Q26" s="5">
-        <f t="shared" ref="Q26" si="36">Q24+Q25</f>
+      <c r="U26" s="5">
+        <f t="shared" ref="U26" si="37">U24+U25</f>
         <v>2175.735000000001</v>
       </c>
-      <c r="R26" s="5">
-        <f t="shared" ref="R26" si="37">R24+R25</f>
+      <c r="V26" s="5">
+        <f t="shared" ref="V26" si="38">V24+V25</f>
         <v>2576.0770000000007</v>
       </c>
     </row>
-    <row r="27" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>26</v>
       </c>
@@ -2389,30 +2565,36 @@
       <c r="J27" s="5">
         <v>309.125</v>
       </c>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5">
+      <c r="K27" s="5">
+        <v>135.839</v>
+      </c>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5">
         <v>231.44900000000001</v>
       </c>
-      <c r="M27" s="5">
+      <c r="Q27" s="5">
         <v>251.797</v>
       </c>
-      <c r="N27" s="5">
+      <c r="R27" s="5">
         <v>230.43700000000001</v>
       </c>
-      <c r="O27" s="5">
+      <c r="S27" s="5">
         <v>358.54700000000003</v>
       </c>
-      <c r="P27" s="5">
+      <c r="T27" s="5">
         <v>477.77100000000002</v>
       </c>
-      <c r="Q27" s="5">
+      <c r="U27" s="5">
         <v>625.54499999999996</v>
       </c>
-      <c r="R27" s="5">
+      <c r="V27" s="5">
         <v>761.46100000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>27</v>
       </c>
@@ -2421,15 +2603,15 @@
         <v>290.40499999999975</v>
       </c>
       <c r="D28" s="5">
-        <f t="shared" ref="D28:F28" si="38">D26-D27</f>
+        <f t="shared" ref="D28:F28" si="39">D26-D27</f>
         <v>341.60299999999995</v>
       </c>
       <c r="E28" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>248.71399999999977</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>669.46800000000007</v>
       </c>
       <c r="G28" s="5">
@@ -2437,48 +2619,55 @@
         <v>321.42100000000016</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" ref="H28:J28" si="39">H26-H27</f>
+        <f t="shared" ref="H28:K28" si="40">H26-H27</f>
         <v>392.92200000000003</v>
       </c>
       <c r="I28" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>351.86999999999972</v>
       </c>
       <c r="J28" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>748.40299999999979</v>
       </c>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5">
-        <f t="shared" ref="L28:R28" si="40">L26-L27</f>
+      <c r="K28" s="5">
+        <f t="shared" si="40"/>
+        <v>314.57199999999978</v>
+      </c>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5">
+        <f t="shared" ref="P28:V28" si="41">P26-P27</f>
         <v>493.80200000000019</v>
       </c>
-      <c r="M28" s="5">
-        <f t="shared" si="40"/>
+      <c r="Q28" s="5">
+        <f t="shared" si="41"/>
         <v>645.59599999999944</v>
       </c>
-      <c r="N28" s="5">
-        <f t="shared" si="40"/>
+      <c r="R28" s="5">
+        <f t="shared" si="41"/>
         <v>588.91300000000012</v>
       </c>
-      <c r="O28" s="5">
-        <f t="shared" si="40"/>
+      <c r="S28" s="5">
+        <f t="shared" si="41"/>
         <v>975.32199999999989</v>
       </c>
-      <c r="P28" s="5">
-        <f t="shared" si="40"/>
+      <c r="T28" s="5">
+        <f t="shared" si="41"/>
         <v>854.8</v>
       </c>
-      <c r="Q28" s="5">
-        <f t="shared" si="40"/>
+      <c r="U28" s="5">
+        <f t="shared" si="41"/>
         <v>1550.190000000001</v>
       </c>
-      <c r="R28" s="5">
-        <f t="shared" si="40"/>
+      <c r="V28" s="5">
+        <f t="shared" si="41"/>
         <v>1814.6160000000007</v>
       </c>
     </row>
-    <row r="29" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:49" x14ac:dyDescent="0.25">
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -2495,74 +2684,85 @@
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
-    </row>
-    <row r="30" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+    </row>
+    <row r="30" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="5">
-        <f t="shared" ref="C30:J30" si="41">C28/C31</f>
+        <f t="shared" ref="C30:K30" si="42">C28/C31</f>
         <v>2.2822328403250376</v>
       </c>
       <c r="D30" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>2.69044412415629</v>
       </c>
       <c r="E30" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>1.9667404712952694</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>5.3036410305162098</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>2.5530270536466042</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>3.1504077100087398</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>2.8677962786376172</v>
       </c>
       <c r="J30" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>6.1504318598325138</v>
       </c>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5">
-        <f>+L28/L31</f>
+      <c r="K30" s="5">
+        <f t="shared" si="42"/>
+        <v>2.6076994495656192</v>
+      </c>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5">
+        <f>+P28/P31</f>
         <v>3.7013034711759736</v>
       </c>
-      <c r="M30" s="5">
-        <f t="shared" ref="M30:R30" si="42">+M28/M31</f>
+      <c r="Q30" s="5">
+        <f t="shared" ref="Q30:V30" si="43">+Q28/Q31</f>
         <v>4.9511553534315444</v>
       </c>
-      <c r="N30" s="5">
-        <f t="shared" si="42"/>
+      <c r="R30" s="5">
+        <f t="shared" si="43"/>
         <v>4.5200515776466181</v>
       </c>
-      <c r="O30" s="5">
-        <f t="shared" si="42"/>
+      <c r="S30" s="5">
+        <f t="shared" si="43"/>
         <v>7.515889895814067</v>
       </c>
-      <c r="P30" s="5">
-        <f t="shared" si="42"/>
+      <c r="T30" s="5">
+        <f t="shared" si="43"/>
         <v>6.6955963216518102</v>
       </c>
-      <c r="Q30" s="5">
-        <f t="shared" si="42"/>
+      <c r="U30" s="5">
+        <f t="shared" si="43"/>
         <v>12.23261209223049</v>
       </c>
-      <c r="R30" s="5">
-        <f t="shared" si="42"/>
+      <c r="V30" s="5">
+        <f t="shared" si="43"/>
         <v>14.665341253485277</v>
       </c>
     </row>
-    <row r="31" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -2590,30 +2790,36 @@
       <c r="J31" s="5">
         <v>121.68300000000001</v>
       </c>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5">
+      <c r="K31" s="5">
+        <v>120.63200000000001</v>
+      </c>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5">
         <v>133.41300000000001</v>
       </c>
-      <c r="M31" s="5">
+      <c r="Q31" s="5">
         <v>130.393</v>
       </c>
-      <c r="N31" s="5">
+      <c r="R31" s="5">
         <v>130.28899999999999</v>
       </c>
-      <c r="O31" s="5">
+      <c r="S31" s="5">
         <v>129.768</v>
       </c>
-      <c r="P31" s="5">
+      <c r="T31" s="5">
         <v>127.666</v>
       </c>
-      <c r="Q31" s="5">
+      <c r="U31" s="5">
         <v>126.726</v>
       </c>
-      <c r="R31" s="5">
+      <c r="V31" s="5">
         <v>123.735</v>
       </c>
     </row>
-    <row r="32" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:49" x14ac:dyDescent="0.25">
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2623,323 +2829,362 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="8">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="10">
         <f>G19/C19-1</f>
         <v>0.10400831270816768</v>
       </c>
-      <c r="H33" s="8">
-        <f t="shared" ref="H33:J33" si="43">H19/D19-1</f>
+      <c r="H33" s="10">
+        <f t="shared" ref="H33:K33" si="44">H19/D19-1</f>
         <v>7.3291492486980303E-2</v>
       </c>
-      <c r="I33" s="8">
-        <f t="shared" si="43"/>
+      <c r="I33" s="10">
+        <f t="shared" si="44"/>
         <v>8.7306246478342953E-2</v>
       </c>
-      <c r="J33" s="8">
-        <f t="shared" si="43"/>
+      <c r="J33" s="10">
+        <f t="shared" si="44"/>
         <v>0.12679592512315518</v>
       </c>
-      <c r="K33" s="5"/>
+      <c r="K33" s="10">
+        <f t="shared" si="44"/>
+        <v>7.3235392783075115E-2</v>
+      </c>
       <c r="L33" s="8"/>
-      <c r="M33" s="8">
-        <f t="shared" ref="M33:P33" si="44">M19/L19-1</f>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="10">
+        <f t="shared" ref="Q33:T33" si="45">Q19/P19-1</f>
         <v>0.21013076894303739</v>
       </c>
-      <c r="N33" s="8">
-        <f t="shared" si="44"/>
+      <c r="R33" s="10">
+        <f t="shared" si="45"/>
         <v>0.10619541748088102</v>
       </c>
-      <c r="O33" s="8">
-        <f t="shared" si="44"/>
+      <c r="S33" s="10">
+        <f t="shared" si="45"/>
         <v>0.42135142742451581</v>
       </c>
-      <c r="P33" s="8">
-        <f t="shared" si="44"/>
+      <c r="T33" s="10">
+        <f t="shared" si="45"/>
         <v>0.29631045020016411</v>
       </c>
-      <c r="Q33" s="8">
-        <f>Q19/P19-1</f>
+      <c r="U33" s="10">
+        <f>U19/T19-1</f>
         <v>0.18602510961691965</v>
       </c>
-      <c r="R33" s="8">
-        <f>R19/Q19-1</f>
+      <c r="V33" s="10">
+        <f>V19/U19-1</f>
         <v>0.1007194095024595</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="8">
-        <f t="shared" ref="C34:J34" si="45">C21/C19</f>
+        <f t="shared" ref="C34:J34" si="46">C21/C19</f>
         <v>0.57517473080660053</v>
       </c>
       <c r="D34" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.58778361960288161</v>
       </c>
       <c r="E34" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.57011783770933722</v>
       </c>
       <c r="F34" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.59387327021939695</v>
       </c>
       <c r="G34" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.57724351269483198</v>
       </c>
       <c r="H34" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.59558774532090464</v>
       </c>
       <c r="I34" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.58481636944748105</v>
       </c>
       <c r="J34" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.60416829918452097</v>
       </c>
-      <c r="K34" s="5"/>
-      <c r="L34" s="8">
-        <f t="shared" ref="L34:P34" si="46">L21/L19</f>
+      <c r="K34" s="8">
+        <f t="shared" ref="K34" si="47">K21/K19</f>
+        <v>0.58343499278681876</v>
+      </c>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="8">
+        <f t="shared" ref="P34:T34" si="48">P21/P19</f>
         <v>0.5523454385052059</v>
       </c>
-      <c r="M34" s="8">
-        <f t="shared" si="46"/>
+      <c r="Q34" s="8">
+        <f t="shared" si="48"/>
         <v>0.55873853063456436</v>
       </c>
-      <c r="N34" s="8">
-        <f t="shared" si="46"/>
+      <c r="R34" s="8">
+        <f t="shared" si="48"/>
         <v>0.55975891204642381</v>
       </c>
-      <c r="O34" s="8">
-        <f t="shared" si="46"/>
+      <c r="S34" s="8">
+        <f t="shared" si="48"/>
         <v>0.57675977289324243</v>
       </c>
-      <c r="P34" s="8">
-        <f t="shared" si="46"/>
+      <c r="T34" s="8">
+        <f t="shared" si="48"/>
         <v>0.55389063929085669</v>
       </c>
-      <c r="Q34" s="8">
-        <f>Q21/Q19</f>
+      <c r="U34" s="8">
+        <f>U21/U19</f>
         <v>0.58314199880697914</v>
       </c>
-      <c r="R34" s="8">
-        <f>R21/R19</f>
+      <c r="V34" s="8">
+        <f>V21/V19</f>
         <v>0.59224937444076509</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="8">
-        <f t="shared" ref="C35:J35" si="47">C24/C19</f>
+        <f t="shared" ref="C35:J35" si="49">C24/C19</f>
         <v>0.20062755148961001</v>
       </c>
       <c r="D35" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0.21694033718622191</v>
       </c>
       <c r="E35" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0.15339453720094828</v>
       </c>
       <c r="F35" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0.28513592230889301</v>
       </c>
       <c r="G35" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0.19586389731317669</v>
       </c>
       <c r="H35" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0.22783982644181255</v>
       </c>
       <c r="I35" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0.20472699506813638</v>
       </c>
       <c r="J35" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0.2885695322466002</v>
       </c>
-      <c r="K35" s="5"/>
-      <c r="L35" s="8">
-        <f t="shared" ref="L35:P35" si="48">L24/L19</f>
+      <c r="K35" s="8">
+        <f t="shared" ref="K35" si="50">K24/K19</f>
+        <v>0.18502231446095171</v>
+      </c>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="8">
+        <f t="shared" ref="P35:T35" si="51">P24/P19</f>
         <v>0.21769086271739457</v>
       </c>
-      <c r="M35" s="8">
-        <f t="shared" si="48"/>
+      <c r="Q35" s="8">
+        <f t="shared" si="51"/>
         <v>0.2234339943547802</v>
       </c>
-      <c r="N35" s="8">
-        <f t="shared" si="48"/>
+      <c r="R35" s="8">
+        <f t="shared" si="51"/>
         <v>0.18628090413207635</v>
       </c>
-      <c r="O35" s="8">
-        <f t="shared" si="48"/>
+      <c r="S35" s="8">
+        <f t="shared" si="51"/>
         <v>0.21311117493687085</v>
       </c>
-      <c r="P35" s="8">
-        <f t="shared" si="48"/>
+      <c r="T35" s="8">
+        <f t="shared" si="51"/>
         <v>0.163788305506504</v>
       </c>
-      <c r="Q35" s="8">
-        <f>Q24/Q19</f>
+      <c r="U35" s="8">
+        <f>U24/U19</f>
         <v>0.22170853155507106</v>
       </c>
-      <c r="R35" s="8">
-        <f>R24/R19</f>
+      <c r="V35" s="8">
+        <f>V24/V19</f>
         <v>0.23665160388155568</v>
       </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="8">
-        <f t="shared" ref="C36:J36" si="49">C28/C19</f>
+        <f t="shared" ref="C36:J36" si="52">C28/C19</f>
         <v>0.14514502257106174</v>
       </c>
       <c r="D36" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>0.15462991673324536</v>
       </c>
       <c r="E36" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>0.11283548178991361</v>
       </c>
       <c r="F36" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>0.20887565859817925</v>
       </c>
       <c r="G36" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>0.14551238607971156</v>
       </c>
       <c r="H36" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>0.16571449779383049</v>
       </c>
       <c r="I36" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>0.14681682007460373</v>
       </c>
       <c r="J36" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>0.20722791684445532</v>
       </c>
-      <c r="K36" s="5"/>
-      <c r="L36" s="8">
-        <f t="shared" ref="L36:P36" si="50">L28/L19</f>
+      <c r="K36" s="8">
+        <f t="shared" ref="K36" si="53">K28/K19</f>
+        <v>0.13269384897032885</v>
+      </c>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="8">
+        <f t="shared" ref="P36:T36" si="54">P28/P19</f>
         <v>0.1501685207548295</v>
       </c>
-      <c r="M36" s="8">
-        <f t="shared" si="50"/>
+      <c r="Q36" s="8">
+        <f t="shared" si="54"/>
         <v>0.16223874775839733</v>
       </c>
-      <c r="N36" s="8">
-        <f t="shared" si="50"/>
+      <c r="R36" s="8">
+        <f t="shared" si="54"/>
         <v>0.13378673062117341</v>
       </c>
-      <c r="O36" s="8">
-        <f t="shared" si="50"/>
+      <c r="S36" s="8">
+        <f t="shared" si="54"/>
         <v>0.15588647986603621</v>
       </c>
-      <c r="P36" s="8">
-        <f t="shared" si="50"/>
+      <c r="T36" s="8">
+        <f t="shared" si="54"/>
         <v>0.10539400812623805</v>
       </c>
-      <c r="Q36" s="8">
-        <f>Q28/Q19</f>
+      <c r="U36" s="8">
+        <f>U28/U19</f>
         <v>0.16115450660642108</v>
       </c>
-      <c r="R36" s="8">
-        <f>R28/R19</f>
+      <c r="V36" s="8">
+        <f>V28/V19</f>
         <v>0.17138216904483386</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="8">
-        <f t="shared" ref="C37:J37" si="51">C27/C26</f>
+        <f t="shared" ref="C37:J37" si="55">C27/C26</f>
         <v>0.29072462564631135</v>
       </c>
       <c r="D37" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.29800727057513166</v>
       </c>
       <c r="E37" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.28521627672384825</v>
       </c>
       <c r="F37" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.28147082814579488</v>
       </c>
       <c r="G37" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.29501343422712056</v>
       </c>
       <c r="H37" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.29611622657733511</v>
       </c>
       <c r="I37" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.30240442185232486</v>
       </c>
       <c r="J37" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.29230904524513779</v>
       </c>
-      <c r="K37" s="5"/>
-      <c r="L37" s="8">
-        <f t="shared" ref="L37:P37" si="52">L27/L26</f>
+      <c r="K37" s="8">
+        <f t="shared" ref="K37" si="56">K27/K26</f>
+        <v>0.30158899316402143</v>
+      </c>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="8">
+        <f t="shared" ref="P37:T37" si="57">P27/P26</f>
         <v>0.319129515160958</v>
       </c>
-      <c r="M37" s="8">
-        <f t="shared" si="52"/>
+      <c r="Q37" s="8">
+        <f t="shared" si="57"/>
         <v>0.28058721206873705</v>
       </c>
-      <c r="N37" s="8">
-        <f t="shared" si="52"/>
+      <c r="R37" s="8">
+        <f t="shared" si="57"/>
         <v>0.28124366876182338</v>
       </c>
-      <c r="O37" s="8">
-        <f t="shared" si="52"/>
+      <c r="S37" s="8">
+        <f t="shared" si="57"/>
         <v>0.2688022586925703</v>
       </c>
-      <c r="P37" s="8">
-        <f t="shared" si="52"/>
+      <c r="T37" s="8">
+        <f t="shared" si="57"/>
         <v>0.35853324138075948</v>
       </c>
-      <c r="Q37" s="8">
-        <f>Q27/Q26</f>
+      <c r="U37" s="8">
+        <f>U27/U26</f>
         <v>0.28750973808850788</v>
       </c>
-      <c r="R37" s="8">
-        <f>R27/R26</f>
+      <c r="V37" s="8">
+        <f>V27/V26</f>
         <v>0.2955893787336325</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -2956,8 +3201,12 @@
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -2974,8 +3223,12 @@
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -2992,8 +3245,12 @@
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -3010,8 +3267,12 @@
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -3028,8 +3289,12 @@
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -3046,8 +3311,12 @@
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -3064,8 +3333,12 @@
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -3082,8 +3355,12 @@
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -3100,8 +3377,12 @@
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -3118,8 +3399,12 @@
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -3136,8 +3421,12 @@
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -3154,8 +3443,12 @@
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -3172,8 +3465,12 @@
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -3190,8 +3487,12 @@
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -3208,8 +3509,12 @@
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -3226,8 +3531,12 @@
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -3244,8 +3553,12 @@
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -3262,8 +3575,12 @@
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -3280,8 +3597,12 @@
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -3298,8 +3619,12 @@
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -3316,8 +3641,12 @@
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -3334,8 +3663,12 @@
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5"/>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -3352,8 +3685,12 @@
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5"/>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -3370,8 +3707,12 @@
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S61" s="5"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="5"/>
+      <c r="V61" s="5"/>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -3388,8 +3729,12 @@
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -3406,8 +3751,12 @@
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5"/>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -3424,8 +3773,12 @@
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
-    </row>
-    <row r="65" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+    </row>
+    <row r="65" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -3442,8 +3795,12 @@
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
-    </row>
-    <row r="66" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5"/>
+    </row>
+    <row r="66" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -3460,8 +3817,12 @@
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
-    </row>
-    <row r="67" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+    </row>
+    <row r="67" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
@@ -3478,8 +3839,12 @@
       <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
       <c r="R67" s="5"/>
-    </row>
-    <row r="68" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5"/>
+      <c r="V67" s="5"/>
+    </row>
+    <row r="68" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -3496,8 +3861,12 @@
       <c r="P68" s="5"/>
       <c r="Q68" s="5"/>
       <c r="R68" s="5"/>
-    </row>
-    <row r="69" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5"/>
+    </row>
+    <row r="69" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -3514,8 +3883,12 @@
       <c r="P69" s="5"/>
       <c r="Q69" s="5"/>
       <c r="R69" s="5"/>
-    </row>
-    <row r="70" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="5"/>
+      <c r="V69" s="5"/>
+    </row>
+    <row r="70" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -3532,8 +3905,12 @@
       <c r="P70" s="5"/>
       <c r="Q70" s="5"/>
       <c r="R70" s="5"/>
-    </row>
-    <row r="71" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="5"/>
+      <c r="V70" s="5"/>
+    </row>
+    <row r="71" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -3550,8 +3927,12 @@
       <c r="P71" s="5"/>
       <c r="Q71" s="5"/>
       <c r="R71" s="5"/>
-    </row>
-    <row r="72" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+    </row>
+    <row r="72" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -3568,8 +3949,12 @@
       <c r="P72" s="5"/>
       <c r="Q72" s="5"/>
       <c r="R72" s="5"/>
-    </row>
-    <row r="73" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S72" s="5"/>
+      <c r="T72" s="5"/>
+      <c r="U72" s="5"/>
+      <c r="V72" s="5"/>
+    </row>
+    <row r="73" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -3586,8 +3971,12 @@
       <c r="P73" s="5"/>
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
-    </row>
-    <row r="74" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S73" s="5"/>
+      <c r="T73" s="5"/>
+      <c r="U73" s="5"/>
+      <c r="V73" s="5"/>
+    </row>
+    <row r="74" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -3604,8 +3993,12 @@
       <c r="P74" s="5"/>
       <c r="Q74" s="5"/>
       <c r="R74" s="5"/>
-    </row>
-    <row r="75" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S74" s="5"/>
+      <c r="T74" s="5"/>
+      <c r="U74" s="5"/>
+      <c r="V74" s="5"/>
+    </row>
+    <row r="75" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -3622,8 +4015,12 @@
       <c r="P75" s="5"/>
       <c r="Q75" s="5"/>
       <c r="R75" s="5"/>
-    </row>
-    <row r="76" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="5"/>
+      <c r="V75" s="5"/>
+    </row>
+    <row r="76" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -3640,8 +4037,12 @@
       <c r="P76" s="5"/>
       <c r="Q76" s="5"/>
       <c r="R76" s="5"/>
-    </row>
-    <row r="77" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S76" s="5"/>
+      <c r="T76" s="5"/>
+      <c r="U76" s="5"/>
+      <c r="V76" s="5"/>
+    </row>
+    <row r="77" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -3658,8 +4059,12 @@
       <c r="P77" s="5"/>
       <c r="Q77" s="5"/>
       <c r="R77" s="5"/>
-    </row>
-    <row r="78" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S77" s="5"/>
+      <c r="T77" s="5"/>
+      <c r="U77" s="5"/>
+      <c r="V77" s="5"/>
+    </row>
+    <row r="78" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -3676,8 +4081,12 @@
       <c r="P78" s="5"/>
       <c r="Q78" s="5"/>
       <c r="R78" s="5"/>
-    </row>
-    <row r="79" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S78" s="5"/>
+      <c r="T78" s="5"/>
+      <c r="U78" s="5"/>
+      <c r="V78" s="5"/>
+    </row>
+    <row r="79" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -3694,8 +4103,12 @@
       <c r="P79" s="5"/>
       <c r="Q79" s="5"/>
       <c r="R79" s="5"/>
-    </row>
-    <row r="80" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S79" s="5"/>
+      <c r="T79" s="5"/>
+      <c r="U79" s="5"/>
+      <c r="V79" s="5"/>
+    </row>
+    <row r="80" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
@@ -3712,8 +4125,12 @@
       <c r="P80" s="5"/>
       <c r="Q80" s="5"/>
       <c r="R80" s="5"/>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S80" s="5"/>
+      <c r="T80" s="5"/>
+      <c r="U80" s="5"/>
+      <c r="V80" s="5"/>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -3730,8 +4147,12 @@
       <c r="P81" s="5"/>
       <c r="Q81" s="5"/>
       <c r="R81" s="5"/>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S81" s="5"/>
+      <c r="T81" s="5"/>
+      <c r="U81" s="5"/>
+      <c r="V81" s="5"/>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -3748,8 +4169,12 @@
       <c r="P82" s="5"/>
       <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S82" s="5"/>
+      <c r="T82" s="5"/>
+      <c r="U82" s="5"/>
+      <c r="V82" s="5"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -3766,8 +4191,12 @@
       <c r="P83" s="5"/>
       <c r="Q83" s="5"/>
       <c r="R83" s="5"/>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S83" s="5"/>
+      <c r="T83" s="5"/>
+      <c r="U83" s="5"/>
+      <c r="V83" s="5"/>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -3784,8 +4213,12 @@
       <c r="P84" s="5"/>
       <c r="Q84" s="5"/>
       <c r="R84" s="5"/>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S84" s="5"/>
+      <c r="T84" s="5"/>
+      <c r="U84" s="5"/>
+      <c r="V84" s="5"/>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -3802,8 +4235,12 @@
       <c r="P85" s="5"/>
       <c r="Q85" s="5"/>
       <c r="R85" s="5"/>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S85" s="5"/>
+      <c r="T85" s="5"/>
+      <c r="U85" s="5"/>
+      <c r="V85" s="5"/>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -3820,8 +4257,12 @@
       <c r="P86" s="5"/>
       <c r="Q86" s="5"/>
       <c r="R86" s="5"/>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S86" s="5"/>
+      <c r="T86" s="5"/>
+      <c r="U86" s="5"/>
+      <c r="V86" s="5"/>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -3838,8 +4279,12 @@
       <c r="P87" s="5"/>
       <c r="Q87" s="5"/>
       <c r="R87" s="5"/>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S87" s="5"/>
+      <c r="T87" s="5"/>
+      <c r="U87" s="5"/>
+      <c r="V87" s="5"/>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -3856,8 +4301,12 @@
       <c r="P88" s="5"/>
       <c r="Q88" s="5"/>
       <c r="R88" s="5"/>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S88" s="5"/>
+      <c r="T88" s="5"/>
+      <c r="U88" s="5"/>
+      <c r="V88" s="5"/>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -3874,8 +4323,12 @@
       <c r="P89" s="5"/>
       <c r="Q89" s="5"/>
       <c r="R89" s="5"/>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S89" s="5"/>
+      <c r="T89" s="5"/>
+      <c r="U89" s="5"/>
+      <c r="V89" s="5"/>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -3892,8 +4345,12 @@
       <c r="P90" s="5"/>
       <c r="Q90" s="5"/>
       <c r="R90" s="5"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S90" s="5"/>
+      <c r="T90" s="5"/>
+      <c r="U90" s="5"/>
+      <c r="V90" s="5"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -3910,8 +4367,12 @@
       <c r="P91" s="5"/>
       <c r="Q91" s="5"/>
       <c r="R91" s="5"/>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S91" s="5"/>
+      <c r="T91" s="5"/>
+      <c r="U91" s="5"/>
+      <c r="V91" s="5"/>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -3928,8 +4389,12 @@
       <c r="P92" s="5"/>
       <c r="Q92" s="5"/>
       <c r="R92" s="5"/>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S92" s="5"/>
+      <c r="T92" s="5"/>
+      <c r="U92" s="5"/>
+      <c r="V92" s="5"/>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -3946,8 +4411,12 @@
       <c r="P93" s="5"/>
       <c r="Q93" s="5"/>
       <c r="R93" s="5"/>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S93" s="5"/>
+      <c r="T93" s="5"/>
+      <c r="U93" s="5"/>
+      <c r="V93" s="5"/>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -3964,8 +4433,12 @@
       <c r="P94" s="5"/>
       <c r="Q94" s="5"/>
       <c r="R94" s="5"/>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S94" s="5"/>
+      <c r="T94" s="5"/>
+      <c r="U94" s="5"/>
+      <c r="V94" s="5"/>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -3982,8 +4455,12 @@
       <c r="P95" s="5"/>
       <c r="Q95" s="5"/>
       <c r="R95" s="5"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S95" s="5"/>
+      <c r="T95" s="5"/>
+      <c r="U95" s="5"/>
+      <c r="V95" s="5"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
@@ -4000,8 +4477,12 @@
       <c r="P96" s="5"/>
       <c r="Q96" s="5"/>
       <c r="R96" s="5"/>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S96" s="5"/>
+      <c r="T96" s="5"/>
+      <c r="U96" s="5"/>
+      <c r="V96" s="5"/>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
@@ -4018,8 +4499,12 @@
       <c r="P97" s="5"/>
       <c r="Q97" s="5"/>
       <c r="R97" s="5"/>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S97" s="5"/>
+      <c r="T97" s="5"/>
+      <c r="U97" s="5"/>
+      <c r="V97" s="5"/>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -4036,8 +4521,12 @@
       <c r="P98" s="5"/>
       <c r="Q98" s="5"/>
       <c r="R98" s="5"/>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S98" s="5"/>
+      <c r="T98" s="5"/>
+      <c r="U98" s="5"/>
+      <c r="V98" s="5"/>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -4054,8 +4543,12 @@
       <c r="P99" s="5"/>
       <c r="Q99" s="5"/>
       <c r="R99" s="5"/>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S99" s="5"/>
+      <c r="T99" s="5"/>
+      <c r="U99" s="5"/>
+      <c r="V99" s="5"/>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -4072,8 +4565,12 @@
       <c r="P100" s="5"/>
       <c r="Q100" s="5"/>
       <c r="R100" s="5"/>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S100" s="5"/>
+      <c r="T100" s="5"/>
+      <c r="U100" s="5"/>
+      <c r="V100" s="5"/>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -4090,8 +4587,12 @@
       <c r="P101" s="5"/>
       <c r="Q101" s="5"/>
       <c r="R101" s="5"/>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S101" s="5"/>
+      <c r="T101" s="5"/>
+      <c r="U101" s="5"/>
+      <c r="V101" s="5"/>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -4108,8 +4609,12 @@
       <c r="P102" s="5"/>
       <c r="Q102" s="5"/>
       <c r="R102" s="5"/>
-    </row>
-    <row r="103" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S102" s="5"/>
+      <c r="T102" s="5"/>
+      <c r="U102" s="5"/>
+      <c r="V102" s="5"/>
+    </row>
+    <row r="103" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -4126,8 +4631,12 @@
       <c r="P103" s="5"/>
       <c r="Q103" s="5"/>
       <c r="R103" s="5"/>
-    </row>
-    <row r="104" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S103" s="5"/>
+      <c r="T103" s="5"/>
+      <c r="U103" s="5"/>
+      <c r="V103" s="5"/>
+    </row>
+    <row r="104" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -4144,8 +4653,12 @@
       <c r="P104" s="5"/>
       <c r="Q104" s="5"/>
       <c r="R104" s="5"/>
-    </row>
-    <row r="105" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S104" s="5"/>
+      <c r="T104" s="5"/>
+      <c r="U104" s="5"/>
+      <c r="V104" s="5"/>
+    </row>
+    <row r="105" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -4162,8 +4675,12 @@
       <c r="P105" s="5"/>
       <c r="Q105" s="5"/>
       <c r="R105" s="5"/>
-    </row>
-    <row r="106" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S105" s="5"/>
+      <c r="T105" s="5"/>
+      <c r="U105" s="5"/>
+      <c r="V105" s="5"/>
+    </row>
+    <row r="106" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -4180,8 +4697,12 @@
       <c r="P106" s="5"/>
       <c r="Q106" s="5"/>
       <c r="R106" s="5"/>
-    </row>
-    <row r="107" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S106" s="5"/>
+      <c r="T106" s="5"/>
+      <c r="U106" s="5"/>
+      <c r="V106" s="5"/>
+    </row>
+    <row r="107" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
@@ -4198,8 +4719,12 @@
       <c r="P107" s="5"/>
       <c r="Q107" s="5"/>
       <c r="R107" s="5"/>
-    </row>
-    <row r="108" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S107" s="5"/>
+      <c r="T107" s="5"/>
+      <c r="U107" s="5"/>
+      <c r="V107" s="5"/>
+    </row>
+    <row r="108" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
@@ -4216,8 +4741,12 @@
       <c r="P108" s="5"/>
       <c r="Q108" s="5"/>
       <c r="R108" s="5"/>
-    </row>
-    <row r="109" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S108" s="5"/>
+      <c r="T108" s="5"/>
+      <c r="U108" s="5"/>
+      <c r="V108" s="5"/>
+    </row>
+    <row r="109" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -4234,8 +4763,12 @@
       <c r="P109" s="5"/>
       <c r="Q109" s="5"/>
       <c r="R109" s="5"/>
-    </row>
-    <row r="110" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S109" s="5"/>
+      <c r="T109" s="5"/>
+      <c r="U109" s="5"/>
+      <c r="V109" s="5"/>
+    </row>
+    <row r="110" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -4252,8 +4785,12 @@
       <c r="P110" s="5"/>
       <c r="Q110" s="5"/>
       <c r="R110" s="5"/>
-    </row>
-    <row r="111" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S110" s="5"/>
+      <c r="T110" s="5"/>
+      <c r="U110" s="5"/>
+      <c r="V110" s="5"/>
+    </row>
+    <row r="111" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -4270,8 +4807,12 @@
       <c r="P111" s="5"/>
       <c r="Q111" s="5"/>
       <c r="R111" s="5"/>
-    </row>
-    <row r="112" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S111" s="5"/>
+      <c r="T111" s="5"/>
+      <c r="U111" s="5"/>
+      <c r="V111" s="5"/>
+    </row>
+    <row r="112" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -4288,8 +4829,12 @@
       <c r="P112" s="5"/>
       <c r="Q112" s="5"/>
       <c r="R112" s="5"/>
-    </row>
-    <row r="113" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S112" s="5"/>
+      <c r="T112" s="5"/>
+      <c r="U112" s="5"/>
+      <c r="V112" s="5"/>
+    </row>
+    <row r="113" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -4306,8 +4851,12 @@
       <c r="P113" s="5"/>
       <c r="Q113" s="5"/>
       <c r="R113" s="5"/>
-    </row>
-    <row r="114" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S113" s="5"/>
+      <c r="T113" s="5"/>
+      <c r="U113" s="5"/>
+      <c r="V113" s="5"/>
+    </row>
+    <row r="114" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -4324,8 +4873,12 @@
       <c r="P114" s="5"/>
       <c r="Q114" s="5"/>
       <c r="R114" s="5"/>
-    </row>
-    <row r="115" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S114" s="5"/>
+      <c r="T114" s="5"/>
+      <c r="U114" s="5"/>
+      <c r="V114" s="5"/>
+    </row>
+    <row r="115" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -4342,8 +4895,12 @@
       <c r="P115" s="5"/>
       <c r="Q115" s="5"/>
       <c r="R115" s="5"/>
-    </row>
-    <row r="116" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S115" s="5"/>
+      <c r="T115" s="5"/>
+      <c r="U115" s="5"/>
+      <c r="V115" s="5"/>
+    </row>
+    <row r="116" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -4360,8 +4917,12 @@
       <c r="P116" s="5"/>
       <c r="Q116" s="5"/>
       <c r="R116" s="5"/>
-    </row>
-    <row r="117" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S116" s="5"/>
+      <c r="T116" s="5"/>
+      <c r="U116" s="5"/>
+      <c r="V116" s="5"/>
+    </row>
+    <row r="117" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
@@ -4378,8 +4939,12 @@
       <c r="P117" s="5"/>
       <c r="Q117" s="5"/>
       <c r="R117" s="5"/>
-    </row>
-    <row r="118" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S117" s="5"/>
+      <c r="T117" s="5"/>
+      <c r="U117" s="5"/>
+      <c r="V117" s="5"/>
+    </row>
+    <row r="118" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -4396,8 +4961,12 @@
       <c r="P118" s="5"/>
       <c r="Q118" s="5"/>
       <c r="R118" s="5"/>
-    </row>
-    <row r="119" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S118" s="5"/>
+      <c r="T118" s="5"/>
+      <c r="U118" s="5"/>
+      <c r="V118" s="5"/>
+    </row>
+    <row r="119" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
@@ -4414,8 +4983,12 @@
       <c r="P119" s="5"/>
       <c r="Q119" s="5"/>
       <c r="R119" s="5"/>
-    </row>
-    <row r="120" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S119" s="5"/>
+      <c r="T119" s="5"/>
+      <c r="U119" s="5"/>
+      <c r="V119" s="5"/>
+    </row>
+    <row r="120" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -4432,8 +5005,12 @@
       <c r="P120" s="5"/>
       <c r="Q120" s="5"/>
       <c r="R120" s="5"/>
-    </row>
-    <row r="121" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S120" s="5"/>
+      <c r="T120" s="5"/>
+      <c r="U120" s="5"/>
+      <c r="V120" s="5"/>
+    </row>
+    <row r="121" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
@@ -4450,8 +5027,12 @@
       <c r="P121" s="5"/>
       <c r="Q121" s="5"/>
       <c r="R121" s="5"/>
-    </row>
-    <row r="122" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S121" s="5"/>
+      <c r="T121" s="5"/>
+      <c r="U121" s="5"/>
+      <c r="V121" s="5"/>
+    </row>
+    <row r="122" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
@@ -4468,8 +5049,12 @@
       <c r="P122" s="5"/>
       <c r="Q122" s="5"/>
       <c r="R122" s="5"/>
-    </row>
-    <row r="123" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S122" s="5"/>
+      <c r="T122" s="5"/>
+      <c r="U122" s="5"/>
+      <c r="V122" s="5"/>
+    </row>
+    <row r="123" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -4486,8 +5071,12 @@
       <c r="P123" s="5"/>
       <c r="Q123" s="5"/>
       <c r="R123" s="5"/>
-    </row>
-    <row r="124" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S123" s="5"/>
+      <c r="T123" s="5"/>
+      <c r="U123" s="5"/>
+      <c r="V123" s="5"/>
+    </row>
+    <row r="124" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
@@ -4504,8 +5093,12 @@
       <c r="P124" s="5"/>
       <c r="Q124" s="5"/>
       <c r="R124" s="5"/>
-    </row>
-    <row r="125" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S124" s="5"/>
+      <c r="T124" s="5"/>
+      <c r="U124" s="5"/>
+      <c r="V124" s="5"/>
+    </row>
+    <row r="125" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -4522,8 +5115,12 @@
       <c r="P125" s="5"/>
       <c r="Q125" s="5"/>
       <c r="R125" s="5"/>
-    </row>
-    <row r="126" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S125" s="5"/>
+      <c r="T125" s="5"/>
+      <c r="U125" s="5"/>
+      <c r="V125" s="5"/>
+    </row>
+    <row r="126" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -4540,8 +5137,12 @@
       <c r="P126" s="5"/>
       <c r="Q126" s="5"/>
       <c r="R126" s="5"/>
-    </row>
-    <row r="127" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S126" s="5"/>
+      <c r="T126" s="5"/>
+      <c r="U126" s="5"/>
+      <c r="V126" s="5"/>
+    </row>
+    <row r="127" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -4558,8 +5159,12 @@
       <c r="P127" s="5"/>
       <c r="Q127" s="5"/>
       <c r="R127" s="5"/>
-    </row>
-    <row r="128" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S127" s="5"/>
+      <c r="T127" s="5"/>
+      <c r="U127" s="5"/>
+      <c r="V127" s="5"/>
+    </row>
+    <row r="128" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -4576,8 +5181,12 @@
       <c r="P128" s="5"/>
       <c r="Q128" s="5"/>
       <c r="R128" s="5"/>
-    </row>
-    <row r="129" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S128" s="5"/>
+      <c r="T128" s="5"/>
+      <c r="U128" s="5"/>
+      <c r="V128" s="5"/>
+    </row>
+    <row r="129" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -4594,8 +5203,12 @@
       <c r="P129" s="5"/>
       <c r="Q129" s="5"/>
       <c r="R129" s="5"/>
-    </row>
-    <row r="130" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S129" s="5"/>
+      <c r="T129" s="5"/>
+      <c r="U129" s="5"/>
+      <c r="V129" s="5"/>
+    </row>
+    <row r="130" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -4612,8 +5225,12 @@
       <c r="P130" s="5"/>
       <c r="Q130" s="5"/>
       <c r="R130" s="5"/>
-    </row>
-    <row r="131" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S130" s="5"/>
+      <c r="T130" s="5"/>
+      <c r="U130" s="5"/>
+      <c r="V130" s="5"/>
+    </row>
+    <row r="131" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -4630,8 +5247,12 @@
       <c r="P131" s="5"/>
       <c r="Q131" s="5"/>
       <c r="R131" s="5"/>
-    </row>
-    <row r="132" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S131" s="5"/>
+      <c r="T131" s="5"/>
+      <c r="U131" s="5"/>
+      <c r="V131" s="5"/>
+    </row>
+    <row r="132" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -4648,8 +5269,12 @@
       <c r="P132" s="5"/>
       <c r="Q132" s="5"/>
       <c r="R132" s="5"/>
-    </row>
-    <row r="133" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S132" s="5"/>
+      <c r="T132" s="5"/>
+      <c r="U132" s="5"/>
+      <c r="V132" s="5"/>
+    </row>
+    <row r="133" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -4666,8 +5291,12 @@
       <c r="P133" s="5"/>
       <c r="Q133" s="5"/>
       <c r="R133" s="5"/>
-    </row>
-    <row r="134" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S133" s="5"/>
+      <c r="T133" s="5"/>
+      <c r="U133" s="5"/>
+      <c r="V133" s="5"/>
+    </row>
+    <row r="134" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
@@ -4684,8 +5313,12 @@
       <c r="P134" s="5"/>
       <c r="Q134" s="5"/>
       <c r="R134" s="5"/>
-    </row>
-    <row r="135" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S134" s="5"/>
+      <c r="T134" s="5"/>
+      <c r="U134" s="5"/>
+      <c r="V134" s="5"/>
+    </row>
+    <row r="135" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -4702,8 +5335,12 @@
       <c r="P135" s="5"/>
       <c r="Q135" s="5"/>
       <c r="R135" s="5"/>
-    </row>
-    <row r="136" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S135" s="5"/>
+      <c r="T135" s="5"/>
+      <c r="U135" s="5"/>
+      <c r="V135" s="5"/>
+    </row>
+    <row r="136" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -4720,8 +5357,12 @@
       <c r="P136" s="5"/>
       <c r="Q136" s="5"/>
       <c r="R136" s="5"/>
-    </row>
-    <row r="137" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S136" s="5"/>
+      <c r="T136" s="5"/>
+      <c r="U136" s="5"/>
+      <c r="V136" s="5"/>
+    </row>
+    <row r="137" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
@@ -4738,8 +5379,12 @@
       <c r="P137" s="5"/>
       <c r="Q137" s="5"/>
       <c r="R137" s="5"/>
-    </row>
-    <row r="138" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S137" s="5"/>
+      <c r="T137" s="5"/>
+      <c r="U137" s="5"/>
+      <c r="V137" s="5"/>
+    </row>
+    <row r="138" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -4756,8 +5401,12 @@
       <c r="P138" s="5"/>
       <c r="Q138" s="5"/>
       <c r="R138" s="5"/>
-    </row>
-    <row r="139" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S138" s="5"/>
+      <c r="T138" s="5"/>
+      <c r="U138" s="5"/>
+      <c r="V138" s="5"/>
+    </row>
+    <row r="139" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
@@ -4774,8 +5423,12 @@
       <c r="P139" s="5"/>
       <c r="Q139" s="5"/>
       <c r="R139" s="5"/>
-    </row>
-    <row r="140" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S139" s="5"/>
+      <c r="T139" s="5"/>
+      <c r="U139" s="5"/>
+      <c r="V139" s="5"/>
+    </row>
+    <row r="140" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
@@ -4792,8 +5445,12 @@
       <c r="P140" s="5"/>
       <c r="Q140" s="5"/>
       <c r="R140" s="5"/>
-    </row>
-    <row r="141" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S140" s="5"/>
+      <c r="T140" s="5"/>
+      <c r="U140" s="5"/>
+      <c r="V140" s="5"/>
+    </row>
+    <row r="141" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
@@ -4810,8 +5467,12 @@
       <c r="P141" s="5"/>
       <c r="Q141" s="5"/>
       <c r="R141" s="5"/>
-    </row>
-    <row r="142" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S141" s="5"/>
+      <c r="T141" s="5"/>
+      <c r="U141" s="5"/>
+      <c r="V141" s="5"/>
+    </row>
+    <row r="142" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
@@ -4828,8 +5489,12 @@
       <c r="P142" s="5"/>
       <c r="Q142" s="5"/>
       <c r="R142" s="5"/>
-    </row>
-    <row r="143" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S142" s="5"/>
+      <c r="T142" s="5"/>
+      <c r="U142" s="5"/>
+      <c r="V142" s="5"/>
+    </row>
+    <row r="143" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
@@ -4846,8 +5511,12 @@
       <c r="P143" s="5"/>
       <c r="Q143" s="5"/>
       <c r="R143" s="5"/>
-    </row>
-    <row r="144" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S143" s="5"/>
+      <c r="T143" s="5"/>
+      <c r="U143" s="5"/>
+      <c r="V143" s="5"/>
+    </row>
+    <row r="144" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -4864,8 +5533,12 @@
       <c r="P144" s="5"/>
       <c r="Q144" s="5"/>
       <c r="R144" s="5"/>
-    </row>
-    <row r="145" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S144" s="5"/>
+      <c r="T144" s="5"/>
+      <c r="U144" s="5"/>
+      <c r="V144" s="5"/>
+    </row>
+    <row r="145" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -4882,8 +5555,12 @@
       <c r="P145" s="5"/>
       <c r="Q145" s="5"/>
       <c r="R145" s="5"/>
-    </row>
-    <row r="146" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S145" s="5"/>
+      <c r="T145" s="5"/>
+      <c r="U145" s="5"/>
+      <c r="V145" s="5"/>
+    </row>
+    <row r="146" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
@@ -4900,8 +5577,12 @@
       <c r="P146" s="5"/>
       <c r="Q146" s="5"/>
       <c r="R146" s="5"/>
-    </row>
-    <row r="147" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S146" s="5"/>
+      <c r="T146" s="5"/>
+      <c r="U146" s="5"/>
+      <c r="V146" s="5"/>
+    </row>
+    <row r="147" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -4918,8 +5599,12 @@
       <c r="P147" s="5"/>
       <c r="Q147" s="5"/>
       <c r="R147" s="5"/>
-    </row>
-    <row r="148" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S147" s="5"/>
+      <c r="T147" s="5"/>
+      <c r="U147" s="5"/>
+      <c r="V147" s="5"/>
+    </row>
+    <row r="148" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -4936,8 +5621,12 @@
       <c r="P148" s="5"/>
       <c r="Q148" s="5"/>
       <c r="R148" s="5"/>
-    </row>
-    <row r="149" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S148" s="5"/>
+      <c r="T148" s="5"/>
+      <c r="U148" s="5"/>
+      <c r="V148" s="5"/>
+    </row>
+    <row r="149" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -4954,8 +5643,12 @@
       <c r="P149" s="5"/>
       <c r="Q149" s="5"/>
       <c r="R149" s="5"/>
-    </row>
-    <row r="150" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S149" s="5"/>
+      <c r="T149" s="5"/>
+      <c r="U149" s="5"/>
+      <c r="V149" s="5"/>
+    </row>
+    <row r="150" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
@@ -4972,8 +5665,12 @@
       <c r="P150" s="5"/>
       <c r="Q150" s="5"/>
       <c r="R150" s="5"/>
-    </row>
-    <row r="151" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S150" s="5"/>
+      <c r="T150" s="5"/>
+      <c r="U150" s="5"/>
+      <c r="V150" s="5"/>
+    </row>
+    <row r="151" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -4990,8 +5687,12 @@
       <c r="P151" s="5"/>
       <c r="Q151" s="5"/>
       <c r="R151" s="5"/>
-    </row>
-    <row r="152" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S151" s="5"/>
+      <c r="T151" s="5"/>
+      <c r="U151" s="5"/>
+      <c r="V151" s="5"/>
+    </row>
+    <row r="152" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
@@ -5008,8 +5709,12 @@
       <c r="P152" s="5"/>
       <c r="Q152" s="5"/>
       <c r="R152" s="5"/>
-    </row>
-    <row r="153" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S152" s="5"/>
+      <c r="T152" s="5"/>
+      <c r="U152" s="5"/>
+      <c r="V152" s="5"/>
+    </row>
+    <row r="153" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -5026,8 +5731,12 @@
       <c r="P153" s="5"/>
       <c r="Q153" s="5"/>
       <c r="R153" s="5"/>
-    </row>
-    <row r="154" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S153" s="5"/>
+      <c r="T153" s="5"/>
+      <c r="U153" s="5"/>
+      <c r="V153" s="5"/>
+    </row>
+    <row r="154" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
@@ -5044,8 +5753,12 @@
       <c r="P154" s="5"/>
       <c r="Q154" s="5"/>
       <c r="R154" s="5"/>
-    </row>
-    <row r="155" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S154" s="5"/>
+      <c r="T154" s="5"/>
+      <c r="U154" s="5"/>
+      <c r="V154" s="5"/>
+    </row>
+    <row r="155" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
@@ -5062,8 +5775,12 @@
       <c r="P155" s="5"/>
       <c r="Q155" s="5"/>
       <c r="R155" s="5"/>
-    </row>
-    <row r="156" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S155" s="5"/>
+      <c r="T155" s="5"/>
+      <c r="U155" s="5"/>
+      <c r="V155" s="5"/>
+    </row>
+    <row r="156" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
@@ -5080,8 +5797,12 @@
       <c r="P156" s="5"/>
       <c r="Q156" s="5"/>
       <c r="R156" s="5"/>
-    </row>
-    <row r="157" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S156" s="5"/>
+      <c r="T156" s="5"/>
+      <c r="U156" s="5"/>
+      <c r="V156" s="5"/>
+    </row>
+    <row r="157" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
@@ -5098,8 +5819,12 @@
       <c r="P157" s="5"/>
       <c r="Q157" s="5"/>
       <c r="R157" s="5"/>
-    </row>
-    <row r="158" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S157" s="5"/>
+      <c r="T157" s="5"/>
+      <c r="U157" s="5"/>
+      <c r="V157" s="5"/>
+    </row>
+    <row r="158" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
@@ -5116,8 +5841,12 @@
       <c r="P158" s="5"/>
       <c r="Q158" s="5"/>
       <c r="R158" s="5"/>
-    </row>
-    <row r="159" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S158" s="5"/>
+      <c r="T158" s="5"/>
+      <c r="U158" s="5"/>
+      <c r="V158" s="5"/>
+    </row>
+    <row r="159" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
@@ -5134,8 +5863,12 @@
       <c r="P159" s="5"/>
       <c r="Q159" s="5"/>
       <c r="R159" s="5"/>
-    </row>
-    <row r="160" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S159" s="5"/>
+      <c r="T159" s="5"/>
+      <c r="U159" s="5"/>
+      <c r="V159" s="5"/>
+    </row>
+    <row r="160" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
@@ -5152,8 +5885,12 @@
       <c r="P160" s="5"/>
       <c r="Q160" s="5"/>
       <c r="R160" s="5"/>
-    </row>
-    <row r="161" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S160" s="5"/>
+      <c r="T160" s="5"/>
+      <c r="U160" s="5"/>
+      <c r="V160" s="5"/>
+    </row>
+    <row r="161" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -5170,8 +5907,12 @@
       <c r="P161" s="5"/>
       <c r="Q161" s="5"/>
       <c r="R161" s="5"/>
-    </row>
-    <row r="162" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S161" s="5"/>
+      <c r="T161" s="5"/>
+      <c r="U161" s="5"/>
+      <c r="V161" s="5"/>
+    </row>
+    <row r="162" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
@@ -5188,8 +5929,12 @@
       <c r="P162" s="5"/>
       <c r="Q162" s="5"/>
       <c r="R162" s="5"/>
-    </row>
-    <row r="163" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S162" s="5"/>
+      <c r="T162" s="5"/>
+      <c r="U162" s="5"/>
+      <c r="V162" s="5"/>
+    </row>
+    <row r="163" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
@@ -5206,8 +5951,12 @@
       <c r="P163" s="5"/>
       <c r="Q163" s="5"/>
       <c r="R163" s="5"/>
-    </row>
-    <row r="164" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S163" s="5"/>
+      <c r="T163" s="5"/>
+      <c r="U163" s="5"/>
+      <c r="V163" s="5"/>
+    </row>
+    <row r="164" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -5224,8 +5973,12 @@
       <c r="P164" s="5"/>
       <c r="Q164" s="5"/>
       <c r="R164" s="5"/>
-    </row>
-    <row r="165" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S164" s="5"/>
+      <c r="T164" s="5"/>
+      <c r="U164" s="5"/>
+      <c r="V164" s="5"/>
+    </row>
+    <row r="165" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
@@ -5242,8 +5995,12 @@
       <c r="P165" s="5"/>
       <c r="Q165" s="5"/>
       <c r="R165" s="5"/>
-    </row>
-    <row r="166" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S165" s="5"/>
+      <c r="T165" s="5"/>
+      <c r="U165" s="5"/>
+      <c r="V165" s="5"/>
+    </row>
+    <row r="166" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -5260,8 +6017,12 @@
       <c r="P166" s="5"/>
       <c r="Q166" s="5"/>
       <c r="R166" s="5"/>
-    </row>
-    <row r="167" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S166" s="5"/>
+      <c r="T166" s="5"/>
+      <c r="U166" s="5"/>
+      <c r="V166" s="5"/>
+    </row>
+    <row r="167" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
@@ -5278,8 +6039,12 @@
       <c r="P167" s="5"/>
       <c r="Q167" s="5"/>
       <c r="R167" s="5"/>
-    </row>
-    <row r="168" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S167" s="5"/>
+      <c r="T167" s="5"/>
+      <c r="U167" s="5"/>
+      <c r="V167" s="5"/>
+    </row>
+    <row r="168" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -5296,8 +6061,12 @@
       <c r="P168" s="5"/>
       <c r="Q168" s="5"/>
       <c r="R168" s="5"/>
-    </row>
-    <row r="169" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S168" s="5"/>
+      <c r="T168" s="5"/>
+      <c r="U168" s="5"/>
+      <c r="V168" s="5"/>
+    </row>
+    <row r="169" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -5314,8 +6083,12 @@
       <c r="P169" s="5"/>
       <c r="Q169" s="5"/>
       <c r="R169" s="5"/>
-    </row>
-    <row r="170" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S169" s="5"/>
+      <c r="T169" s="5"/>
+      <c r="U169" s="5"/>
+      <c r="V169" s="5"/>
+    </row>
+    <row r="170" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
@@ -5332,8 +6105,12 @@
       <c r="P170" s="5"/>
       <c r="Q170" s="5"/>
       <c r="R170" s="5"/>
-    </row>
-    <row r="171" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S170" s="5"/>
+      <c r="T170" s="5"/>
+      <c r="U170" s="5"/>
+      <c r="V170" s="5"/>
+    </row>
+    <row r="171" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
@@ -5350,8 +6127,12 @@
       <c r="P171" s="5"/>
       <c r="Q171" s="5"/>
       <c r="R171" s="5"/>
-    </row>
-    <row r="172" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S171" s="5"/>
+      <c r="T171" s="5"/>
+      <c r="U171" s="5"/>
+      <c r="V171" s="5"/>
+    </row>
+    <row r="172" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
@@ -5368,8 +6149,12 @@
       <c r="P172" s="5"/>
       <c r="Q172" s="5"/>
       <c r="R172" s="5"/>
-    </row>
-    <row r="173" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S172" s="5"/>
+      <c r="T172" s="5"/>
+      <c r="U172" s="5"/>
+      <c r="V172" s="5"/>
+    </row>
+    <row r="173" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
@@ -5386,8 +6171,12 @@
       <c r="P173" s="5"/>
       <c r="Q173" s="5"/>
       <c r="R173" s="5"/>
-    </row>
-    <row r="174" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S173" s="5"/>
+      <c r="T173" s="5"/>
+      <c r="U173" s="5"/>
+      <c r="V173" s="5"/>
+    </row>
+    <row r="174" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
@@ -5404,8 +6193,12 @@
       <c r="P174" s="5"/>
       <c r="Q174" s="5"/>
       <c r="R174" s="5"/>
-    </row>
-    <row r="175" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S174" s="5"/>
+      <c r="T174" s="5"/>
+      <c r="U174" s="5"/>
+      <c r="V174" s="5"/>
+    </row>
+    <row r="175" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
@@ -5422,8 +6215,12 @@
       <c r="P175" s="5"/>
       <c r="Q175" s="5"/>
       <c r="R175" s="5"/>
-    </row>
-    <row r="176" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S175" s="5"/>
+      <c r="T175" s="5"/>
+      <c r="U175" s="5"/>
+      <c r="V175" s="5"/>
+    </row>
+    <row r="176" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
@@ -5440,8 +6237,12 @@
       <c r="P176" s="5"/>
       <c r="Q176" s="5"/>
       <c r="R176" s="5"/>
-    </row>
-    <row r="177" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S176" s="5"/>
+      <c r="T176" s="5"/>
+      <c r="U176" s="5"/>
+      <c r="V176" s="5"/>
+    </row>
+    <row r="177" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
@@ -5458,8 +6259,12 @@
       <c r="P177" s="5"/>
       <c r="Q177" s="5"/>
       <c r="R177" s="5"/>
-    </row>
-    <row r="178" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S177" s="5"/>
+      <c r="T177" s="5"/>
+      <c r="U177" s="5"/>
+      <c r="V177" s="5"/>
+    </row>
+    <row r="178" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
@@ -5476,8 +6281,12 @@
       <c r="P178" s="5"/>
       <c r="Q178" s="5"/>
       <c r="R178" s="5"/>
-    </row>
-    <row r="179" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S178" s="5"/>
+      <c r="T178" s="5"/>
+      <c r="U178" s="5"/>
+      <c r="V178" s="5"/>
+    </row>
+    <row r="179" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
@@ -5494,8 +6303,12 @@
       <c r="P179" s="5"/>
       <c r="Q179" s="5"/>
       <c r="R179" s="5"/>
-    </row>
-    <row r="180" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S179" s="5"/>
+      <c r="T179" s="5"/>
+      <c r="U179" s="5"/>
+      <c r="V179" s="5"/>
+    </row>
+    <row r="180" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
@@ -5512,8 +6325,12 @@
       <c r="P180" s="5"/>
       <c r="Q180" s="5"/>
       <c r="R180" s="5"/>
-    </row>
-    <row r="181" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S180" s="5"/>
+      <c r="T180" s="5"/>
+      <c r="U180" s="5"/>
+      <c r="V180" s="5"/>
+    </row>
+    <row r="181" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
@@ -5530,8 +6347,12 @@
       <c r="P181" s="5"/>
       <c r="Q181" s="5"/>
       <c r="R181" s="5"/>
-    </row>
-    <row r="182" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S181" s="5"/>
+      <c r="T181" s="5"/>
+      <c r="U181" s="5"/>
+      <c r="V181" s="5"/>
+    </row>
+    <row r="182" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
@@ -5548,8 +6369,12 @@
       <c r="P182" s="5"/>
       <c r="Q182" s="5"/>
       <c r="R182" s="5"/>
-    </row>
-    <row r="183" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S182" s="5"/>
+      <c r="T182" s="5"/>
+      <c r="U182" s="5"/>
+      <c r="V182" s="5"/>
+    </row>
+    <row r="183" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
@@ -5566,8 +6391,12 @@
       <c r="P183" s="5"/>
       <c r="Q183" s="5"/>
       <c r="R183" s="5"/>
-    </row>
-    <row r="184" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S183" s="5"/>
+      <c r="T183" s="5"/>
+      <c r="U183" s="5"/>
+      <c r="V183" s="5"/>
+    </row>
+    <row r="184" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
@@ -5584,8 +6413,12 @@
       <c r="P184" s="5"/>
       <c r="Q184" s="5"/>
       <c r="R184" s="5"/>
-    </row>
-    <row r="185" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S184" s="5"/>
+      <c r="T184" s="5"/>
+      <c r="U184" s="5"/>
+      <c r="V184" s="5"/>
+    </row>
+    <row r="185" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
@@ -5602,8 +6435,12 @@
       <c r="P185" s="5"/>
       <c r="Q185" s="5"/>
       <c r="R185" s="5"/>
-    </row>
-    <row r="186" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S185" s="5"/>
+      <c r="T185" s="5"/>
+      <c r="U185" s="5"/>
+      <c r="V185" s="5"/>
+    </row>
+    <row r="186" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
@@ -5620,8 +6457,12 @@
       <c r="P186" s="5"/>
       <c r="Q186" s="5"/>
       <c r="R186" s="5"/>
-    </row>
-    <row r="187" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S186" s="5"/>
+      <c r="T186" s="5"/>
+      <c r="U186" s="5"/>
+      <c r="V186" s="5"/>
+    </row>
+    <row r="187" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
@@ -5638,8 +6479,12 @@
       <c r="P187" s="5"/>
       <c r="Q187" s="5"/>
       <c r="R187" s="5"/>
-    </row>
-    <row r="188" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S187" s="5"/>
+      <c r="T187" s="5"/>
+      <c r="U187" s="5"/>
+      <c r="V187" s="5"/>
+    </row>
+    <row r="188" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
@@ -5656,8 +6501,12 @@
       <c r="P188" s="5"/>
       <c r="Q188" s="5"/>
       <c r="R188" s="5"/>
-    </row>
-    <row r="189" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S188" s="5"/>
+      <c r="T188" s="5"/>
+      <c r="U188" s="5"/>
+      <c r="V188" s="5"/>
+    </row>
+    <row r="189" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
@@ -5674,8 +6523,12 @@
       <c r="P189" s="5"/>
       <c r="Q189" s="5"/>
       <c r="R189" s="5"/>
-    </row>
-    <row r="190" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S189" s="5"/>
+      <c r="T189" s="5"/>
+      <c r="U189" s="5"/>
+      <c r="V189" s="5"/>
+    </row>
+    <row r="190" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
@@ -5692,8 +6545,12 @@
       <c r="P190" s="5"/>
       <c r="Q190" s="5"/>
       <c r="R190" s="5"/>
-    </row>
-    <row r="191" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S190" s="5"/>
+      <c r="T190" s="5"/>
+      <c r="U190" s="5"/>
+      <c r="V190" s="5"/>
+    </row>
+    <row r="191" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
@@ -5710,8 +6567,12 @@
       <c r="P191" s="5"/>
       <c r="Q191" s="5"/>
       <c r="R191" s="5"/>
-    </row>
-    <row r="192" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S191" s="5"/>
+      <c r="T191" s="5"/>
+      <c r="U191" s="5"/>
+      <c r="V191" s="5"/>
+    </row>
+    <row r="192" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
@@ -5728,8 +6589,12 @@
       <c r="P192" s="5"/>
       <c r="Q192" s="5"/>
       <c r="R192" s="5"/>
-    </row>
-    <row r="193" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S192" s="5"/>
+      <c r="T192" s="5"/>
+      <c r="U192" s="5"/>
+      <c r="V192" s="5"/>
+    </row>
+    <row r="193" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
@@ -5746,8 +6611,12 @@
       <c r="P193" s="5"/>
       <c r="Q193" s="5"/>
       <c r="R193" s="5"/>
-    </row>
-    <row r="194" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S193" s="5"/>
+      <c r="T193" s="5"/>
+      <c r="U193" s="5"/>
+      <c r="V193" s="5"/>
+    </row>
+    <row r="194" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
@@ -5764,8 +6633,12 @@
       <c r="P194" s="5"/>
       <c r="Q194" s="5"/>
       <c r="R194" s="5"/>
-    </row>
-    <row r="195" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S194" s="5"/>
+      <c r="T194" s="5"/>
+      <c r="U194" s="5"/>
+      <c r="V194" s="5"/>
+    </row>
+    <row r="195" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
@@ -5782,8 +6655,12 @@
       <c r="P195" s="5"/>
       <c r="Q195" s="5"/>
       <c r="R195" s="5"/>
-    </row>
-    <row r="196" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S195" s="5"/>
+      <c r="T195" s="5"/>
+      <c r="U195" s="5"/>
+      <c r="V195" s="5"/>
+    </row>
+    <row r="196" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
@@ -5800,8 +6677,12 @@
       <c r="P196" s="5"/>
       <c r="Q196" s="5"/>
       <c r="R196" s="5"/>
-    </row>
-    <row r="197" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S196" s="5"/>
+      <c r="T196" s="5"/>
+      <c r="U196" s="5"/>
+      <c r="V196" s="5"/>
+    </row>
+    <row r="197" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
@@ -5818,8 +6699,12 @@
       <c r="P197" s="5"/>
       <c r="Q197" s="5"/>
       <c r="R197" s="5"/>
-    </row>
-    <row r="198" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S197" s="5"/>
+      <c r="T197" s="5"/>
+      <c r="U197" s="5"/>
+      <c r="V197" s="5"/>
+    </row>
+    <row r="198" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
@@ -5836,8 +6721,12 @@
       <c r="P198" s="5"/>
       <c r="Q198" s="5"/>
       <c r="R198" s="5"/>
-    </row>
-    <row r="199" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S198" s="5"/>
+      <c r="T198" s="5"/>
+      <c r="U198" s="5"/>
+      <c r="V198" s="5"/>
+    </row>
+    <row r="199" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
@@ -5854,8 +6743,12 @@
       <c r="P199" s="5"/>
       <c r="Q199" s="5"/>
       <c r="R199" s="5"/>
-    </row>
-    <row r="200" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S199" s="5"/>
+      <c r="T199" s="5"/>
+      <c r="U199" s="5"/>
+      <c r="V199" s="5"/>
+    </row>
+    <row r="200" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
@@ -5872,8 +6765,12 @@
       <c r="P200" s="5"/>
       <c r="Q200" s="5"/>
       <c r="R200" s="5"/>
-    </row>
-    <row r="201" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S200" s="5"/>
+      <c r="T200" s="5"/>
+      <c r="U200" s="5"/>
+      <c r="V200" s="5"/>
+    </row>
+    <row r="201" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
@@ -5890,8 +6787,12 @@
       <c r="P201" s="5"/>
       <c r="Q201" s="5"/>
       <c r="R201" s="5"/>
-    </row>
-    <row r="202" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S201" s="5"/>
+      <c r="T201" s="5"/>
+      <c r="U201" s="5"/>
+      <c r="V201" s="5"/>
+    </row>
+    <row r="202" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
@@ -5908,8 +6809,12 @@
       <c r="P202" s="5"/>
       <c r="Q202" s="5"/>
       <c r="R202" s="5"/>
-    </row>
-    <row r="203" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S202" s="5"/>
+      <c r="T202" s="5"/>
+      <c r="U202" s="5"/>
+      <c r="V202" s="5"/>
+    </row>
+    <row r="203" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
@@ -5926,8 +6831,12 @@
       <c r="P203" s="5"/>
       <c r="Q203" s="5"/>
       <c r="R203" s="5"/>
-    </row>
-    <row r="204" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S203" s="5"/>
+      <c r="T203" s="5"/>
+      <c r="U203" s="5"/>
+      <c r="V203" s="5"/>
+    </row>
+    <row r="204" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
@@ -5944,8 +6853,12 @@
       <c r="P204" s="5"/>
       <c r="Q204" s="5"/>
       <c r="R204" s="5"/>
-    </row>
-    <row r="205" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S204" s="5"/>
+      <c r="T204" s="5"/>
+      <c r="U204" s="5"/>
+      <c r="V204" s="5"/>
+    </row>
+    <row r="205" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
@@ -5962,8 +6875,12 @@
       <c r="P205" s="5"/>
       <c r="Q205" s="5"/>
       <c r="R205" s="5"/>
-    </row>
-    <row r="206" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S205" s="5"/>
+      <c r="T205" s="5"/>
+      <c r="U205" s="5"/>
+      <c r="V205" s="5"/>
+    </row>
+    <row r="206" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
@@ -5980,8 +6897,12 @@
       <c r="P206" s="5"/>
       <c r="Q206" s="5"/>
       <c r="R206" s="5"/>
-    </row>
-    <row r="207" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S206" s="5"/>
+      <c r="T206" s="5"/>
+      <c r="U206" s="5"/>
+      <c r="V206" s="5"/>
+    </row>
+    <row r="207" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
@@ -5998,8 +6919,12 @@
       <c r="P207" s="5"/>
       <c r="Q207" s="5"/>
       <c r="R207" s="5"/>
-    </row>
-    <row r="208" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S207" s="5"/>
+      <c r="T207" s="5"/>
+      <c r="U207" s="5"/>
+      <c r="V207" s="5"/>
+    </row>
+    <row r="208" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
@@ -6016,8 +6941,12 @@
       <c r="P208" s="5"/>
       <c r="Q208" s="5"/>
       <c r="R208" s="5"/>
-    </row>
-    <row r="209" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S208" s="5"/>
+      <c r="T208" s="5"/>
+      <c r="U208" s="5"/>
+      <c r="V208" s="5"/>
+    </row>
+    <row r="209" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
@@ -6034,8 +6963,12 @@
       <c r="P209" s="5"/>
       <c r="Q209" s="5"/>
       <c r="R209" s="5"/>
-    </row>
-    <row r="210" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S209" s="5"/>
+      <c r="T209" s="5"/>
+      <c r="U209" s="5"/>
+      <c r="V209" s="5"/>
+    </row>
+    <row r="210" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
@@ -6052,8 +6985,12 @@
       <c r="P210" s="5"/>
       <c r="Q210" s="5"/>
       <c r="R210" s="5"/>
-    </row>
-    <row r="211" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S210" s="5"/>
+      <c r="T210" s="5"/>
+      <c r="U210" s="5"/>
+      <c r="V210" s="5"/>
+    </row>
+    <row r="211" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
@@ -6070,8 +7007,12 @@
       <c r="P211" s="5"/>
       <c r="Q211" s="5"/>
       <c r="R211" s="5"/>
-    </row>
-    <row r="212" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S211" s="5"/>
+      <c r="T211" s="5"/>
+      <c r="U211" s="5"/>
+      <c r="V211" s="5"/>
+    </row>
+    <row r="212" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
@@ -6088,8 +7029,12 @@
       <c r="P212" s="5"/>
       <c r="Q212" s="5"/>
       <c r="R212" s="5"/>
-    </row>
-    <row r="213" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S212" s="5"/>
+      <c r="T212" s="5"/>
+      <c r="U212" s="5"/>
+      <c r="V212" s="5"/>
+    </row>
+    <row r="213" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
@@ -6106,8 +7051,12 @@
       <c r="P213" s="5"/>
       <c r="Q213" s="5"/>
       <c r="R213" s="5"/>
-    </row>
-    <row r="214" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S213" s="5"/>
+      <c r="T213" s="5"/>
+      <c r="U213" s="5"/>
+      <c r="V213" s="5"/>
+    </row>
+    <row r="214" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
@@ -6124,8 +7073,12 @@
       <c r="P214" s="5"/>
       <c r="Q214" s="5"/>
       <c r="R214" s="5"/>
-    </row>
-    <row r="215" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S214" s="5"/>
+      <c r="T214" s="5"/>
+      <c r="U214" s="5"/>
+      <c r="V214" s="5"/>
+    </row>
+    <row r="215" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
@@ -6142,8 +7095,12 @@
       <c r="P215" s="5"/>
       <c r="Q215" s="5"/>
       <c r="R215" s="5"/>
-    </row>
-    <row r="216" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S215" s="5"/>
+      <c r="T215" s="5"/>
+      <c r="U215" s="5"/>
+      <c r="V215" s="5"/>
+    </row>
+    <row r="216" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
@@ -6160,8 +7117,12 @@
       <c r="P216" s="5"/>
       <c r="Q216" s="5"/>
       <c r="R216" s="5"/>
-    </row>
-    <row r="217" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S216" s="5"/>
+      <c r="T216" s="5"/>
+      <c r="U216" s="5"/>
+      <c r="V216" s="5"/>
+    </row>
+    <row r="217" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
@@ -6178,8 +7139,12 @@
       <c r="P217" s="5"/>
       <c r="Q217" s="5"/>
       <c r="R217" s="5"/>
-    </row>
-    <row r="218" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S217" s="5"/>
+      <c r="T217" s="5"/>
+      <c r="U217" s="5"/>
+      <c r="V217" s="5"/>
+    </row>
+    <row r="218" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
@@ -6196,8 +7161,12 @@
       <c r="P218" s="5"/>
       <c r="Q218" s="5"/>
       <c r="R218" s="5"/>
-    </row>
-    <row r="219" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S218" s="5"/>
+      <c r="T218" s="5"/>
+      <c r="U218" s="5"/>
+      <c r="V218" s="5"/>
+    </row>
+    <row r="219" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
@@ -6214,8 +7183,12 @@
       <c r="P219" s="5"/>
       <c r="Q219" s="5"/>
       <c r="R219" s="5"/>
-    </row>
-    <row r="220" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S219" s="5"/>
+      <c r="T219" s="5"/>
+      <c r="U219" s="5"/>
+      <c r="V219" s="5"/>
+    </row>
+    <row r="220" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
@@ -6232,8 +7205,12 @@
       <c r="P220" s="5"/>
       <c r="Q220" s="5"/>
       <c r="R220" s="5"/>
-    </row>
-    <row r="221" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S220" s="5"/>
+      <c r="T220" s="5"/>
+      <c r="U220" s="5"/>
+      <c r="V220" s="5"/>
+    </row>
+    <row r="221" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
@@ -6250,8 +7227,12 @@
       <c r="P221" s="5"/>
       <c r="Q221" s="5"/>
       <c r="R221" s="5"/>
-    </row>
-    <row r="222" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S221" s="5"/>
+      <c r="T221" s="5"/>
+      <c r="U221" s="5"/>
+      <c r="V221" s="5"/>
+    </row>
+    <row r="222" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
@@ -6268,8 +7249,12 @@
       <c r="P222" s="5"/>
       <c r="Q222" s="5"/>
       <c r="R222" s="5"/>
-    </row>
-    <row r="223" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S222" s="5"/>
+      <c r="T222" s="5"/>
+      <c r="U222" s="5"/>
+      <c r="V222" s="5"/>
+    </row>
+    <row r="223" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
@@ -6286,8 +7271,12 @@
       <c r="P223" s="5"/>
       <c r="Q223" s="5"/>
       <c r="R223" s="5"/>
-    </row>
-    <row r="224" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S223" s="5"/>
+      <c r="T223" s="5"/>
+      <c r="U223" s="5"/>
+      <c r="V223" s="5"/>
+    </row>
+    <row r="224" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
@@ -6304,8 +7293,12 @@
       <c r="P224" s="5"/>
       <c r="Q224" s="5"/>
       <c r="R224" s="5"/>
-    </row>
-    <row r="225" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S224" s="5"/>
+      <c r="T224" s="5"/>
+      <c r="U224" s="5"/>
+      <c r="V224" s="5"/>
+    </row>
+    <row r="225" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
       <c r="E225" s="5"/>
@@ -6322,8 +7315,12 @@
       <c r="P225" s="5"/>
       <c r="Q225" s="5"/>
       <c r="R225" s="5"/>
-    </row>
-    <row r="226" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S225" s="5"/>
+      <c r="T225" s="5"/>
+      <c r="U225" s="5"/>
+      <c r="V225" s="5"/>
+    </row>
+    <row r="226" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
       <c r="E226" s="5"/>
@@ -6340,8 +7337,12 @@
       <c r="P226" s="5"/>
       <c r="Q226" s="5"/>
       <c r="R226" s="5"/>
-    </row>
-    <row r="227" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S226" s="5"/>
+      <c r="T226" s="5"/>
+      <c r="U226" s="5"/>
+      <c r="V226" s="5"/>
+    </row>
+    <row r="227" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
@@ -6358,8 +7359,12 @@
       <c r="P227" s="5"/>
       <c r="Q227" s="5"/>
       <c r="R227" s="5"/>
-    </row>
-    <row r="228" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S227" s="5"/>
+      <c r="T227" s="5"/>
+      <c r="U227" s="5"/>
+      <c r="V227" s="5"/>
+    </row>
+    <row r="228" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
       <c r="E228" s="5"/>
@@ -6376,8 +7381,12 @@
       <c r="P228" s="5"/>
       <c r="Q228" s="5"/>
       <c r="R228" s="5"/>
-    </row>
-    <row r="229" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S228" s="5"/>
+      <c r="T228" s="5"/>
+      <c r="U228" s="5"/>
+      <c r="V228" s="5"/>
+    </row>
+    <row r="229" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
       <c r="E229" s="5"/>
@@ -6394,8 +7403,12 @@
       <c r="P229" s="5"/>
       <c r="Q229" s="5"/>
       <c r="R229" s="5"/>
-    </row>
-    <row r="230" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S229" s="5"/>
+      <c r="T229" s="5"/>
+      <c r="U229" s="5"/>
+      <c r="V229" s="5"/>
+    </row>
+    <row r="230" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
@@ -6412,8 +7425,12 @@
       <c r="P230" s="5"/>
       <c r="Q230" s="5"/>
       <c r="R230" s="5"/>
-    </row>
-    <row r="231" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S230" s="5"/>
+      <c r="T230" s="5"/>
+      <c r="U230" s="5"/>
+      <c r="V230" s="5"/>
+    </row>
+    <row r="231" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
@@ -6430,8 +7447,12 @@
       <c r="P231" s="5"/>
       <c r="Q231" s="5"/>
       <c r="R231" s="5"/>
-    </row>
-    <row r="232" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S231" s="5"/>
+      <c r="T231" s="5"/>
+      <c r="U231" s="5"/>
+      <c r="V231" s="5"/>
+    </row>
+    <row r="232" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
       <c r="E232" s="5"/>
@@ -6448,8 +7469,12 @@
       <c r="P232" s="5"/>
       <c r="Q232" s="5"/>
       <c r="R232" s="5"/>
-    </row>
-    <row r="233" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S232" s="5"/>
+      <c r="T232" s="5"/>
+      <c r="U232" s="5"/>
+      <c r="V232" s="5"/>
+    </row>
+    <row r="233" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
       <c r="E233" s="5"/>
@@ -6466,8 +7491,12 @@
       <c r="P233" s="5"/>
       <c r="Q233" s="5"/>
       <c r="R233" s="5"/>
-    </row>
-    <row r="234" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S233" s="5"/>
+      <c r="T233" s="5"/>
+      <c r="U233" s="5"/>
+      <c r="V233" s="5"/>
+    </row>
+    <row r="234" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
       <c r="E234" s="5"/>
@@ -6484,8 +7513,12 @@
       <c r="P234" s="5"/>
       <c r="Q234" s="5"/>
       <c r="R234" s="5"/>
-    </row>
-    <row r="235" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S234" s="5"/>
+      <c r="T234" s="5"/>
+      <c r="U234" s="5"/>
+      <c r="V234" s="5"/>
+    </row>
+    <row r="235" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
       <c r="E235" s="5"/>
@@ -6502,8 +7535,12 @@
       <c r="P235" s="5"/>
       <c r="Q235" s="5"/>
       <c r="R235" s="5"/>
-    </row>
-    <row r="236" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S235" s="5"/>
+      <c r="T235" s="5"/>
+      <c r="U235" s="5"/>
+      <c r="V235" s="5"/>
+    </row>
+    <row r="236" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
@@ -6520,8 +7557,12 @@
       <c r="P236" s="5"/>
       <c r="Q236" s="5"/>
       <c r="R236" s="5"/>
-    </row>
-    <row r="237" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S236" s="5"/>
+      <c r="T236" s="5"/>
+      <c r="U236" s="5"/>
+      <c r="V236" s="5"/>
+    </row>
+    <row r="237" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
       <c r="E237" s="5"/>
@@ -6538,8 +7579,12 @@
       <c r="P237" s="5"/>
       <c r="Q237" s="5"/>
       <c r="R237" s="5"/>
-    </row>
-    <row r="238" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S237" s="5"/>
+      <c r="T237" s="5"/>
+      <c r="U237" s="5"/>
+      <c r="V237" s="5"/>
+    </row>
+    <row r="238" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
@@ -6556,8 +7601,12 @@
       <c r="P238" s="5"/>
       <c r="Q238" s="5"/>
       <c r="R238" s="5"/>
-    </row>
-    <row r="239" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S238" s="5"/>
+      <c r="T238" s="5"/>
+      <c r="U238" s="5"/>
+      <c r="V238" s="5"/>
+    </row>
+    <row r="239" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
@@ -6574,8 +7623,12 @@
       <c r="P239" s="5"/>
       <c r="Q239" s="5"/>
       <c r="R239" s="5"/>
-    </row>
-    <row r="240" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S239" s="5"/>
+      <c r="T239" s="5"/>
+      <c r="U239" s="5"/>
+      <c r="V239" s="5"/>
+    </row>
+    <row r="240" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
       <c r="E240" s="5"/>
@@ -6592,8 +7645,12 @@
       <c r="P240" s="5"/>
       <c r="Q240" s="5"/>
       <c r="R240" s="5"/>
-    </row>
-    <row r="241" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S240" s="5"/>
+      <c r="T240" s="5"/>
+      <c r="U240" s="5"/>
+      <c r="V240" s="5"/>
+    </row>
+    <row r="241" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
       <c r="E241" s="5"/>
@@ -6610,8 +7667,12 @@
       <c r="P241" s="5"/>
       <c r="Q241" s="5"/>
       <c r="R241" s="5"/>
-    </row>
-    <row r="242" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S241" s="5"/>
+      <c r="T241" s="5"/>
+      <c r="U241" s="5"/>
+      <c r="V241" s="5"/>
+    </row>
+    <row r="242" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
       <c r="E242" s="5"/>
@@ -6628,8 +7689,12 @@
       <c r="P242" s="5"/>
       <c r="Q242" s="5"/>
       <c r="R242" s="5"/>
-    </row>
-    <row r="243" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S242" s="5"/>
+      <c r="T242" s="5"/>
+      <c r="U242" s="5"/>
+      <c r="V242" s="5"/>
+    </row>
+    <row r="243" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
       <c r="E243" s="5"/>
@@ -6646,8 +7711,12 @@
       <c r="P243" s="5"/>
       <c r="Q243" s="5"/>
       <c r="R243" s="5"/>
-    </row>
-    <row r="244" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S243" s="5"/>
+      <c r="T243" s="5"/>
+      <c r="U243" s="5"/>
+      <c r="V243" s="5"/>
+    </row>
+    <row r="244" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
       <c r="E244" s="5"/>
@@ -6664,8 +7733,12 @@
       <c r="P244" s="5"/>
       <c r="Q244" s="5"/>
       <c r="R244" s="5"/>
-    </row>
-    <row r="245" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S244" s="5"/>
+      <c r="T244" s="5"/>
+      <c r="U244" s="5"/>
+      <c r="V244" s="5"/>
+    </row>
+    <row r="245" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
       <c r="E245" s="5"/>
@@ -6682,8 +7755,12 @@
       <c r="P245" s="5"/>
       <c r="Q245" s="5"/>
       <c r="R245" s="5"/>
-    </row>
-    <row r="246" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S245" s="5"/>
+      <c r="T245" s="5"/>
+      <c r="U245" s="5"/>
+      <c r="V245" s="5"/>
+    </row>
+    <row r="246" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
       <c r="E246" s="5"/>
@@ -6700,8 +7777,12 @@
       <c r="P246" s="5"/>
       <c r="Q246" s="5"/>
       <c r="R246" s="5"/>
-    </row>
-    <row r="247" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S246" s="5"/>
+      <c r="T246" s="5"/>
+      <c r="U246" s="5"/>
+      <c r="V246" s="5"/>
+    </row>
+    <row r="247" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
       <c r="E247" s="5"/>
@@ -6718,8 +7799,12 @@
       <c r="P247" s="5"/>
       <c r="Q247" s="5"/>
       <c r="R247" s="5"/>
-    </row>
-    <row r="248" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S247" s="5"/>
+      <c r="T247" s="5"/>
+      <c r="U247" s="5"/>
+      <c r="V247" s="5"/>
+    </row>
+    <row r="248" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
       <c r="E248" s="5"/>
@@ -6736,8 +7821,12 @@
       <c r="P248" s="5"/>
       <c r="Q248" s="5"/>
       <c r="R248" s="5"/>
-    </row>
-    <row r="249" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S248" s="5"/>
+      <c r="T248" s="5"/>
+      <c r="U248" s="5"/>
+      <c r="V248" s="5"/>
+    </row>
+    <row r="249" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
       <c r="E249" s="5"/>
@@ -6754,8 +7843,12 @@
       <c r="P249" s="5"/>
       <c r="Q249" s="5"/>
       <c r="R249" s="5"/>
-    </row>
-    <row r="250" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S249" s="5"/>
+      <c r="T249" s="5"/>
+      <c r="U249" s="5"/>
+      <c r="V249" s="5"/>
+    </row>
+    <row r="250" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C250" s="5"/>
       <c r="D250" s="5"/>
       <c r="E250" s="5"/>
@@ -6772,8 +7865,12 @@
       <c r="P250" s="5"/>
       <c r="Q250" s="5"/>
       <c r="R250" s="5"/>
-    </row>
-    <row r="251" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S250" s="5"/>
+      <c r="T250" s="5"/>
+      <c r="U250" s="5"/>
+      <c r="V250" s="5"/>
+    </row>
+    <row r="251" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C251" s="5"/>
       <c r="D251" s="5"/>
       <c r="E251" s="5"/>
@@ -6790,8 +7887,12 @@
       <c r="P251" s="5"/>
       <c r="Q251" s="5"/>
       <c r="R251" s="5"/>
-    </row>
-    <row r="252" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S251" s="5"/>
+      <c r="T251" s="5"/>
+      <c r="U251" s="5"/>
+      <c r="V251" s="5"/>
+    </row>
+    <row r="252" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C252" s="5"/>
       <c r="D252" s="5"/>
       <c r="E252" s="5"/>
@@ -6808,8 +7909,12 @@
       <c r="P252" s="5"/>
       <c r="Q252" s="5"/>
       <c r="R252" s="5"/>
-    </row>
-    <row r="253" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S252" s="5"/>
+      <c r="T252" s="5"/>
+      <c r="U252" s="5"/>
+      <c r="V252" s="5"/>
+    </row>
+    <row r="253" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
       <c r="E253" s="5"/>
@@ -6826,8 +7931,12 @@
       <c r="P253" s="5"/>
       <c r="Q253" s="5"/>
       <c r="R253" s="5"/>
-    </row>
-    <row r="254" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S253" s="5"/>
+      <c r="T253" s="5"/>
+      <c r="U253" s="5"/>
+      <c r="V253" s="5"/>
+    </row>
+    <row r="254" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
       <c r="E254" s="5"/>
@@ -6844,8 +7953,12 @@
       <c r="P254" s="5"/>
       <c r="Q254" s="5"/>
       <c r="R254" s="5"/>
-    </row>
-    <row r="255" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S254" s="5"/>
+      <c r="T254" s="5"/>
+      <c r="U254" s="5"/>
+      <c r="V254" s="5"/>
+    </row>
+    <row r="255" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
       <c r="E255" s="5"/>
@@ -6862,8 +7975,12 @@
       <c r="P255" s="5"/>
       <c r="Q255" s="5"/>
       <c r="R255" s="5"/>
-    </row>
-    <row r="256" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S255" s="5"/>
+      <c r="T255" s="5"/>
+      <c r="U255" s="5"/>
+      <c r="V255" s="5"/>
+    </row>
+    <row r="256" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
       <c r="E256" s="5"/>
@@ -6880,8 +7997,12 @@
       <c r="P256" s="5"/>
       <c r="Q256" s="5"/>
       <c r="R256" s="5"/>
-    </row>
-    <row r="257" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S256" s="5"/>
+      <c r="T256" s="5"/>
+      <c r="U256" s="5"/>
+      <c r="V256" s="5"/>
+    </row>
+    <row r="257" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C257" s="5"/>
       <c r="D257" s="5"/>
       <c r="E257" s="5"/>
@@ -6898,8 +8019,12 @@
       <c r="P257" s="5"/>
       <c r="Q257" s="5"/>
       <c r="R257" s="5"/>
-    </row>
-    <row r="258" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S257" s="5"/>
+      <c r="T257" s="5"/>
+      <c r="U257" s="5"/>
+      <c r="V257" s="5"/>
+    </row>
+    <row r="258" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C258" s="5"/>
       <c r="D258" s="5"/>
       <c r="E258" s="5"/>
@@ -6916,8 +8041,12 @@
       <c r="P258" s="5"/>
       <c r="Q258" s="5"/>
       <c r="R258" s="5"/>
-    </row>
-    <row r="259" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S258" s="5"/>
+      <c r="T258" s="5"/>
+      <c r="U258" s="5"/>
+      <c r="V258" s="5"/>
+    </row>
+    <row r="259" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C259" s="5"/>
       <c r="D259" s="5"/>
       <c r="E259" s="5"/>
@@ -6934,8 +8063,12 @@
       <c r="P259" s="5"/>
       <c r="Q259" s="5"/>
       <c r="R259" s="5"/>
-    </row>
-    <row r="260" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S259" s="5"/>
+      <c r="T259" s="5"/>
+      <c r="U259" s="5"/>
+      <c r="V259" s="5"/>
+    </row>
+    <row r="260" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C260" s="5"/>
       <c r="D260" s="5"/>
       <c r="E260" s="5"/>
@@ -6952,8 +8085,12 @@
       <c r="P260" s="5"/>
       <c r="Q260" s="5"/>
       <c r="R260" s="5"/>
-    </row>
-    <row r="261" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S260" s="5"/>
+      <c r="T260" s="5"/>
+      <c r="U260" s="5"/>
+      <c r="V260" s="5"/>
+    </row>
+    <row r="261" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C261" s="5"/>
       <c r="D261" s="5"/>
       <c r="E261" s="5"/>
@@ -6970,8 +8107,12 @@
       <c r="P261" s="5"/>
       <c r="Q261" s="5"/>
       <c r="R261" s="5"/>
-    </row>
-    <row r="262" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S261" s="5"/>
+      <c r="T261" s="5"/>
+      <c r="U261" s="5"/>
+      <c r="V261" s="5"/>
+    </row>
+    <row r="262" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C262" s="5"/>
       <c r="D262" s="5"/>
       <c r="E262" s="5"/>
@@ -6988,8 +8129,12 @@
       <c r="P262" s="5"/>
       <c r="Q262" s="5"/>
       <c r="R262" s="5"/>
-    </row>
-    <row r="263" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S262" s="5"/>
+      <c r="T262" s="5"/>
+      <c r="U262" s="5"/>
+      <c r="V262" s="5"/>
+    </row>
+    <row r="263" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C263" s="5"/>
       <c r="D263" s="5"/>
       <c r="E263" s="5"/>
@@ -7006,8 +8151,12 @@
       <c r="P263" s="5"/>
       <c r="Q263" s="5"/>
       <c r="R263" s="5"/>
-    </row>
-    <row r="264" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S263" s="5"/>
+      <c r="T263" s="5"/>
+      <c r="U263" s="5"/>
+      <c r="V263" s="5"/>
+    </row>
+    <row r="264" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C264" s="5"/>
       <c r="D264" s="5"/>
       <c r="E264" s="5"/>
@@ -7024,8 +8173,12 @@
       <c r="P264" s="5"/>
       <c r="Q264" s="5"/>
       <c r="R264" s="5"/>
-    </row>
-    <row r="265" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S264" s="5"/>
+      <c r="T264" s="5"/>
+      <c r="U264" s="5"/>
+      <c r="V264" s="5"/>
+    </row>
+    <row r="265" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C265" s="5"/>
       <c r="D265" s="5"/>
       <c r="E265" s="5"/>
@@ -7042,8 +8195,12 @@
       <c r="P265" s="5"/>
       <c r="Q265" s="5"/>
       <c r="R265" s="5"/>
-    </row>
-    <row r="266" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S265" s="5"/>
+      <c r="T265" s="5"/>
+      <c r="U265" s="5"/>
+      <c r="V265" s="5"/>
+    </row>
+    <row r="266" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
       <c r="E266" s="5"/>
@@ -7060,8 +8217,12 @@
       <c r="P266" s="5"/>
       <c r="Q266" s="5"/>
       <c r="R266" s="5"/>
-    </row>
-    <row r="267" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S266" s="5"/>
+      <c r="T266" s="5"/>
+      <c r="U266" s="5"/>
+      <c r="V266" s="5"/>
+    </row>
+    <row r="267" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C267" s="5"/>
       <c r="D267" s="5"/>
       <c r="E267" s="5"/>
@@ -7078,8 +8239,12 @@
       <c r="P267" s="5"/>
       <c r="Q267" s="5"/>
       <c r="R267" s="5"/>
-    </row>
-    <row r="268" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S267" s="5"/>
+      <c r="T267" s="5"/>
+      <c r="U267" s="5"/>
+      <c r="V267" s="5"/>
+    </row>
+    <row r="268" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C268" s="5"/>
       <c r="D268" s="5"/>
       <c r="E268" s="5"/>
@@ -7096,8 +8261,12 @@
       <c r="P268" s="5"/>
       <c r="Q268" s="5"/>
       <c r="R268" s="5"/>
-    </row>
-    <row r="269" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S268" s="5"/>
+      <c r="T268" s="5"/>
+      <c r="U268" s="5"/>
+      <c r="V268" s="5"/>
+    </row>
+    <row r="269" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C269" s="5"/>
       <c r="D269" s="5"/>
       <c r="E269" s="5"/>
@@ -7114,8 +8283,12 @@
       <c r="P269" s="5"/>
       <c r="Q269" s="5"/>
       <c r="R269" s="5"/>
-    </row>
-    <row r="270" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S269" s="5"/>
+      <c r="T269" s="5"/>
+      <c r="U269" s="5"/>
+      <c r="V269" s="5"/>
+    </row>
+    <row r="270" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C270" s="5"/>
       <c r="D270" s="5"/>
       <c r="E270" s="5"/>
@@ -7132,8 +8305,12 @@
       <c r="P270" s="5"/>
       <c r="Q270" s="5"/>
       <c r="R270" s="5"/>
-    </row>
-    <row r="271" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S270" s="5"/>
+      <c r="T270" s="5"/>
+      <c r="U270" s="5"/>
+      <c r="V270" s="5"/>
+    </row>
+    <row r="271" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C271" s="5"/>
       <c r="D271" s="5"/>
       <c r="E271" s="5"/>
@@ -7150,8 +8327,12 @@
       <c r="P271" s="5"/>
       <c r="Q271" s="5"/>
       <c r="R271" s="5"/>
-    </row>
-    <row r="272" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S271" s="5"/>
+      <c r="T271" s="5"/>
+      <c r="U271" s="5"/>
+      <c r="V271" s="5"/>
+    </row>
+    <row r="272" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C272" s="5"/>
       <c r="D272" s="5"/>
       <c r="E272" s="5"/>
@@ -7168,8 +8349,12 @@
       <c r="P272" s="5"/>
       <c r="Q272" s="5"/>
       <c r="R272" s="5"/>
-    </row>
-    <row r="273" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S272" s="5"/>
+      <c r="T272" s="5"/>
+      <c r="U272" s="5"/>
+      <c r="V272" s="5"/>
+    </row>
+    <row r="273" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C273" s="5"/>
       <c r="D273" s="5"/>
       <c r="E273" s="5"/>
@@ -7186,8 +8371,12 @@
       <c r="P273" s="5"/>
       <c r="Q273" s="5"/>
       <c r="R273" s="5"/>
-    </row>
-    <row r="274" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S273" s="5"/>
+      <c r="T273" s="5"/>
+      <c r="U273" s="5"/>
+      <c r="V273" s="5"/>
+    </row>
+    <row r="274" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C274" s="5"/>
       <c r="D274" s="5"/>
       <c r="E274" s="5"/>
@@ -7204,8 +8393,12 @@
       <c r="P274" s="5"/>
       <c r="Q274" s="5"/>
       <c r="R274" s="5"/>
-    </row>
-    <row r="275" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S274" s="5"/>
+      <c r="T274" s="5"/>
+      <c r="U274" s="5"/>
+      <c r="V274" s="5"/>
+    </row>
+    <row r="275" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C275" s="5"/>
       <c r="D275" s="5"/>
       <c r="E275" s="5"/>
@@ -7222,8 +8415,12 @@
       <c r="P275" s="5"/>
       <c r="Q275" s="5"/>
       <c r="R275" s="5"/>
-    </row>
-    <row r="276" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S275" s="5"/>
+      <c r="T275" s="5"/>
+      <c r="U275" s="5"/>
+      <c r="V275" s="5"/>
+    </row>
+    <row r="276" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
       <c r="E276" s="5"/>
@@ -7240,8 +8437,12 @@
       <c r="P276" s="5"/>
       <c r="Q276" s="5"/>
       <c r="R276" s="5"/>
-    </row>
-    <row r="277" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S276" s="5"/>
+      <c r="T276" s="5"/>
+      <c r="U276" s="5"/>
+      <c r="V276" s="5"/>
+    </row>
+    <row r="277" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C277" s="5"/>
       <c r="D277" s="5"/>
       <c r="E277" s="5"/>
@@ -7258,8 +8459,12 @@
       <c r="P277" s="5"/>
       <c r="Q277" s="5"/>
       <c r="R277" s="5"/>
-    </row>
-    <row r="278" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S277" s="5"/>
+      <c r="T277" s="5"/>
+      <c r="U277" s="5"/>
+      <c r="V277" s="5"/>
+    </row>
+    <row r="278" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C278" s="5"/>
       <c r="D278" s="5"/>
       <c r="E278" s="5"/>
@@ -7276,8 +8481,12 @@
       <c r="P278" s="5"/>
       <c r="Q278" s="5"/>
       <c r="R278" s="5"/>
-    </row>
-    <row r="279" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S278" s="5"/>
+      <c r="T278" s="5"/>
+      <c r="U278" s="5"/>
+      <c r="V278" s="5"/>
+    </row>
+    <row r="279" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C279" s="5"/>
       <c r="D279" s="5"/>
       <c r="E279" s="5"/>
@@ -7294,8 +8503,12 @@
       <c r="P279" s="5"/>
       <c r="Q279" s="5"/>
       <c r="R279" s="5"/>
-    </row>
-    <row r="280" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S279" s="5"/>
+      <c r="T279" s="5"/>
+      <c r="U279" s="5"/>
+      <c r="V279" s="5"/>
+    </row>
+    <row r="280" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C280" s="5"/>
       <c r="D280" s="5"/>
       <c r="E280" s="5"/>
@@ -7312,8 +8525,12 @@
       <c r="P280" s="5"/>
       <c r="Q280" s="5"/>
       <c r="R280" s="5"/>
-    </row>
-    <row r="281" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S280" s="5"/>
+      <c r="T280" s="5"/>
+      <c r="U280" s="5"/>
+      <c r="V280" s="5"/>
+    </row>
+    <row r="281" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C281" s="5"/>
       <c r="D281" s="5"/>
       <c r="E281" s="5"/>
@@ -7330,8 +8547,12 @@
       <c r="P281" s="5"/>
       <c r="Q281" s="5"/>
       <c r="R281" s="5"/>
-    </row>
-    <row r="282" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S281" s="5"/>
+      <c r="T281" s="5"/>
+      <c r="U281" s="5"/>
+      <c r="V281" s="5"/>
+    </row>
+    <row r="282" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C282" s="5"/>
       <c r="D282" s="5"/>
       <c r="E282" s="5"/>
@@ -7348,8 +8569,12 @@
       <c r="P282" s="5"/>
       <c r="Q282" s="5"/>
       <c r="R282" s="5"/>
-    </row>
-    <row r="283" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S282" s="5"/>
+      <c r="T282" s="5"/>
+      <c r="U282" s="5"/>
+      <c r="V282" s="5"/>
+    </row>
+    <row r="283" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C283" s="5"/>
       <c r="D283" s="5"/>
       <c r="E283" s="5"/>
@@ -7366,8 +8591,12 @@
       <c r="P283" s="5"/>
       <c r="Q283" s="5"/>
       <c r="R283" s="5"/>
-    </row>
-    <row r="284" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S283" s="5"/>
+      <c r="T283" s="5"/>
+      <c r="U283" s="5"/>
+      <c r="V283" s="5"/>
+    </row>
+    <row r="284" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C284" s="5"/>
       <c r="D284" s="5"/>
       <c r="E284" s="5"/>
@@ -7384,8 +8613,12 @@
       <c r="P284" s="5"/>
       <c r="Q284" s="5"/>
       <c r="R284" s="5"/>
-    </row>
-    <row r="285" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S284" s="5"/>
+      <c r="T284" s="5"/>
+      <c r="U284" s="5"/>
+      <c r="V284" s="5"/>
+    </row>
+    <row r="285" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C285" s="5"/>
       <c r="D285" s="5"/>
       <c r="E285" s="5"/>
@@ -7402,8 +8635,12 @@
       <c r="P285" s="5"/>
       <c r="Q285" s="5"/>
       <c r="R285" s="5"/>
-    </row>
-    <row r="286" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S285" s="5"/>
+      <c r="T285" s="5"/>
+      <c r="U285" s="5"/>
+      <c r="V285" s="5"/>
+    </row>
+    <row r="286" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C286" s="5"/>
       <c r="D286" s="5"/>
       <c r="E286" s="5"/>
@@ -7420,8 +8657,12 @@
       <c r="P286" s="5"/>
       <c r="Q286" s="5"/>
       <c r="R286" s="5"/>
-    </row>
-    <row r="287" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S286" s="5"/>
+      <c r="T286" s="5"/>
+      <c r="U286" s="5"/>
+      <c r="V286" s="5"/>
+    </row>
+    <row r="287" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C287" s="5"/>
       <c r="D287" s="5"/>
       <c r="E287" s="5"/>
@@ -7438,8 +8679,12 @@
       <c r="P287" s="5"/>
       <c r="Q287" s="5"/>
       <c r="R287" s="5"/>
-    </row>
-    <row r="288" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S287" s="5"/>
+      <c r="T287" s="5"/>
+      <c r="U287" s="5"/>
+      <c r="V287" s="5"/>
+    </row>
+    <row r="288" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C288" s="5"/>
       <c r="D288" s="5"/>
       <c r="E288" s="5"/>
@@ -7456,8 +8701,12 @@
       <c r="P288" s="5"/>
       <c r="Q288" s="5"/>
       <c r="R288" s="5"/>
-    </row>
-    <row r="289" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S288" s="5"/>
+      <c r="T288" s="5"/>
+      <c r="U288" s="5"/>
+      <c r="V288" s="5"/>
+    </row>
+    <row r="289" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C289" s="5"/>
       <c r="D289" s="5"/>
       <c r="E289" s="5"/>
@@ -7474,8 +8723,12 @@
       <c r="P289" s="5"/>
       <c r="Q289" s="5"/>
       <c r="R289" s="5"/>
-    </row>
-    <row r="290" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S289" s="5"/>
+      <c r="T289" s="5"/>
+      <c r="U289" s="5"/>
+      <c r="V289" s="5"/>
+    </row>
+    <row r="290" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C290" s="5"/>
       <c r="D290" s="5"/>
       <c r="E290" s="5"/>
@@ -7492,8 +8745,12 @@
       <c r="P290" s="5"/>
       <c r="Q290" s="5"/>
       <c r="R290" s="5"/>
-    </row>
-    <row r="291" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S290" s="5"/>
+      <c r="T290" s="5"/>
+      <c r="U290" s="5"/>
+      <c r="V290" s="5"/>
+    </row>
+    <row r="291" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C291" s="5"/>
       <c r="D291" s="5"/>
       <c r="E291" s="5"/>
@@ -7510,8 +8767,12 @@
       <c r="P291" s="5"/>
       <c r="Q291" s="5"/>
       <c r="R291" s="5"/>
-    </row>
-    <row r="292" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S291" s="5"/>
+      <c r="T291" s="5"/>
+      <c r="U291" s="5"/>
+      <c r="V291" s="5"/>
+    </row>
+    <row r="292" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C292" s="5"/>
       <c r="D292" s="5"/>
       <c r="E292" s="5"/>
@@ -7528,8 +8789,12 @@
       <c r="P292" s="5"/>
       <c r="Q292" s="5"/>
       <c r="R292" s="5"/>
-    </row>
-    <row r="293" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S292" s="5"/>
+      <c r="T292" s="5"/>
+      <c r="U292" s="5"/>
+      <c r="V292" s="5"/>
+    </row>
+    <row r="293" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C293" s="5"/>
       <c r="D293" s="5"/>
       <c r="E293" s="5"/>
@@ -7546,8 +8811,12 @@
       <c r="P293" s="5"/>
       <c r="Q293" s="5"/>
       <c r="R293" s="5"/>
-    </row>
-    <row r="294" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S293" s="5"/>
+      <c r="T293" s="5"/>
+      <c r="U293" s="5"/>
+      <c r="V293" s="5"/>
+    </row>
+    <row r="294" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C294" s="5"/>
       <c r="D294" s="5"/>
       <c r="E294" s="5"/>
@@ -7564,8 +8833,12 @@
       <c r="P294" s="5"/>
       <c r="Q294" s="5"/>
       <c r="R294" s="5"/>
-    </row>
-    <row r="295" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S294" s="5"/>
+      <c r="T294" s="5"/>
+      <c r="U294" s="5"/>
+      <c r="V294" s="5"/>
+    </row>
+    <row r="295" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C295" s="5"/>
       <c r="D295" s="5"/>
       <c r="E295" s="5"/>
@@ -7582,8 +8855,12 @@
       <c r="P295" s="5"/>
       <c r="Q295" s="5"/>
       <c r="R295" s="5"/>
-    </row>
-    <row r="296" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S295" s="5"/>
+      <c r="T295" s="5"/>
+      <c r="U295" s="5"/>
+      <c r="V295" s="5"/>
+    </row>
+    <row r="296" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C296" s="5"/>
       <c r="D296" s="5"/>
       <c r="E296" s="5"/>
@@ -7600,8 +8877,12 @@
       <c r="P296" s="5"/>
       <c r="Q296" s="5"/>
       <c r="R296" s="5"/>
-    </row>
-    <row r="297" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S296" s="5"/>
+      <c r="T296" s="5"/>
+      <c r="U296" s="5"/>
+      <c r="V296" s="5"/>
+    </row>
+    <row r="297" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C297" s="5"/>
       <c r="D297" s="5"/>
       <c r="E297" s="5"/>
@@ -7618,8 +8899,12 @@
       <c r="P297" s="5"/>
       <c r="Q297" s="5"/>
       <c r="R297" s="5"/>
-    </row>
-    <row r="298" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S297" s="5"/>
+      <c r="T297" s="5"/>
+      <c r="U297" s="5"/>
+      <c r="V297" s="5"/>
+    </row>
+    <row r="298" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C298" s="5"/>
       <c r="D298" s="5"/>
       <c r="E298" s="5"/>
@@ -7636,8 +8921,12 @@
       <c r="P298" s="5"/>
       <c r="Q298" s="5"/>
       <c r="R298" s="5"/>
-    </row>
-    <row r="299" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S298" s="5"/>
+      <c r="T298" s="5"/>
+      <c r="U298" s="5"/>
+      <c r="V298" s="5"/>
+    </row>
+    <row r="299" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C299" s="5"/>
       <c r="D299" s="5"/>
       <c r="E299" s="5"/>
@@ -7654,8 +8943,12 @@
       <c r="P299" s="5"/>
       <c r="Q299" s="5"/>
       <c r="R299" s="5"/>
-    </row>
-    <row r="300" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S299" s="5"/>
+      <c r="T299" s="5"/>
+      <c r="U299" s="5"/>
+      <c r="V299" s="5"/>
+    </row>
+    <row r="300" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C300" s="5"/>
       <c r="D300" s="5"/>
       <c r="E300" s="5"/>
@@ -7672,8 +8965,12 @@
       <c r="P300" s="5"/>
       <c r="Q300" s="5"/>
       <c r="R300" s="5"/>
-    </row>
-    <row r="301" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S300" s="5"/>
+      <c r="T300" s="5"/>
+      <c r="U300" s="5"/>
+      <c r="V300" s="5"/>
+    </row>
+    <row r="301" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C301" s="5"/>
       <c r="D301" s="5"/>
       <c r="E301" s="5"/>
@@ -7690,8 +8987,12 @@
       <c r="P301" s="5"/>
       <c r="Q301" s="5"/>
       <c r="R301" s="5"/>
-    </row>
-    <row r="302" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S301" s="5"/>
+      <c r="T301" s="5"/>
+      <c r="U301" s="5"/>
+      <c r="V301" s="5"/>
+    </row>
+    <row r="302" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C302" s="5"/>
       <c r="D302" s="5"/>
       <c r="E302" s="5"/>
@@ -7708,8 +9009,12 @@
       <c r="P302" s="5"/>
       <c r="Q302" s="5"/>
       <c r="R302" s="5"/>
-    </row>
-    <row r="303" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S302" s="5"/>
+      <c r="T302" s="5"/>
+      <c r="U302" s="5"/>
+      <c r="V302" s="5"/>
+    </row>
+    <row r="303" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C303" s="5"/>
       <c r="D303" s="5"/>
       <c r="E303" s="5"/>
@@ -7726,8 +9031,12 @@
       <c r="P303" s="5"/>
       <c r="Q303" s="5"/>
       <c r="R303" s="5"/>
-    </row>
-    <row r="304" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S303" s="5"/>
+      <c r="T303" s="5"/>
+      <c r="U303" s="5"/>
+      <c r="V303" s="5"/>
+    </row>
+    <row r="304" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C304" s="5"/>
       <c r="D304" s="5"/>
       <c r="E304" s="5"/>
@@ -7744,8 +9053,12 @@
       <c r="P304" s="5"/>
       <c r="Q304" s="5"/>
       <c r="R304" s="5"/>
-    </row>
-    <row r="305" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S304" s="5"/>
+      <c r="T304" s="5"/>
+      <c r="U304" s="5"/>
+      <c r="V304" s="5"/>
+    </row>
+    <row r="305" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C305" s="5"/>
       <c r="D305" s="5"/>
       <c r="E305" s="5"/>
@@ -7762,8 +9075,12 @@
       <c r="P305" s="5"/>
       <c r="Q305" s="5"/>
       <c r="R305" s="5"/>
-    </row>
-    <row r="306" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S305" s="5"/>
+      <c r="T305" s="5"/>
+      <c r="U305" s="5"/>
+      <c r="V305" s="5"/>
+    </row>
+    <row r="306" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C306" s="5"/>
       <c r="D306" s="5"/>
       <c r="E306" s="5"/>
@@ -7780,8 +9097,12 @@
       <c r="P306" s="5"/>
       <c r="Q306" s="5"/>
       <c r="R306" s="5"/>
-    </row>
-    <row r="307" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S306" s="5"/>
+      <c r="T306" s="5"/>
+      <c r="U306" s="5"/>
+      <c r="V306" s="5"/>
+    </row>
+    <row r="307" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C307" s="5"/>
       <c r="D307" s="5"/>
       <c r="E307" s="5"/>
@@ -7798,8 +9119,12 @@
       <c r="P307" s="5"/>
       <c r="Q307" s="5"/>
       <c r="R307" s="5"/>
-    </row>
-    <row r="308" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S307" s="5"/>
+      <c r="T307" s="5"/>
+      <c r="U307" s="5"/>
+      <c r="V307" s="5"/>
+    </row>
+    <row r="308" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C308" s="5"/>
       <c r="D308" s="5"/>
       <c r="E308" s="5"/>
@@ -7816,8 +9141,12 @@
       <c r="P308" s="5"/>
       <c r="Q308" s="5"/>
       <c r="R308" s="5"/>
-    </row>
-    <row r="309" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S308" s="5"/>
+      <c r="T308" s="5"/>
+      <c r="U308" s="5"/>
+      <c r="V308" s="5"/>
+    </row>
+    <row r="309" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C309" s="5"/>
       <c r="D309" s="5"/>
       <c r="E309" s="5"/>
@@ -7834,8 +9163,12 @@
       <c r="P309" s="5"/>
       <c r="Q309" s="5"/>
       <c r="R309" s="5"/>
-    </row>
-    <row r="310" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S309" s="5"/>
+      <c r="T309" s="5"/>
+      <c r="U309" s="5"/>
+      <c r="V309" s="5"/>
+    </row>
+    <row r="310" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C310" s="5"/>
       <c r="D310" s="5"/>
       <c r="E310" s="5"/>
@@ -7852,8 +9185,12 @@
       <c r="P310" s="5"/>
       <c r="Q310" s="5"/>
       <c r="R310" s="5"/>
-    </row>
-    <row r="311" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S310" s="5"/>
+      <c r="T310" s="5"/>
+      <c r="U310" s="5"/>
+      <c r="V310" s="5"/>
+    </row>
+    <row r="311" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C311" s="5"/>
       <c r="D311" s="5"/>
       <c r="E311" s="5"/>
@@ -7870,8 +9207,12 @@
       <c r="P311" s="5"/>
       <c r="Q311" s="5"/>
       <c r="R311" s="5"/>
-    </row>
-    <row r="312" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S311" s="5"/>
+      <c r="T311" s="5"/>
+      <c r="U311" s="5"/>
+      <c r="V311" s="5"/>
+    </row>
+    <row r="312" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C312" s="5"/>
       <c r="D312" s="5"/>
       <c r="E312" s="5"/>
@@ -7888,8 +9229,12 @@
       <c r="P312" s="5"/>
       <c r="Q312" s="5"/>
       <c r="R312" s="5"/>
-    </row>
-    <row r="313" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S312" s="5"/>
+      <c r="T312" s="5"/>
+      <c r="U312" s="5"/>
+      <c r="V312" s="5"/>
+    </row>
+    <row r="313" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C313" s="5"/>
       <c r="D313" s="5"/>
       <c r="E313" s="5"/>
@@ -7906,8 +9251,12 @@
       <c r="P313" s="5"/>
       <c r="Q313" s="5"/>
       <c r="R313" s="5"/>
-    </row>
-    <row r="314" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S313" s="5"/>
+      <c r="T313" s="5"/>
+      <c r="U313" s="5"/>
+      <c r="V313" s="5"/>
+    </row>
+    <row r="314" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C314" s="5"/>
       <c r="D314" s="5"/>
       <c r="E314" s="5"/>
@@ -7924,8 +9273,12 @@
       <c r="P314" s="5"/>
       <c r="Q314" s="5"/>
       <c r="R314" s="5"/>
-    </row>
-    <row r="315" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S314" s="5"/>
+      <c r="T314" s="5"/>
+      <c r="U314" s="5"/>
+      <c r="V314" s="5"/>
+    </row>
+    <row r="315" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C315" s="5"/>
       <c r="D315" s="5"/>
       <c r="E315" s="5"/>
@@ -7942,8 +9295,12 @@
       <c r="P315" s="5"/>
       <c r="Q315" s="5"/>
       <c r="R315" s="5"/>
-    </row>
-    <row r="316" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S315" s="5"/>
+      <c r="T315" s="5"/>
+      <c r="U315" s="5"/>
+      <c r="V315" s="5"/>
+    </row>
+    <row r="316" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C316" s="5"/>
       <c r="D316" s="5"/>
       <c r="E316" s="5"/>
@@ -7960,8 +9317,12 @@
       <c r="P316" s="5"/>
       <c r="Q316" s="5"/>
       <c r="R316" s="5"/>
-    </row>
-    <row r="317" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S316" s="5"/>
+      <c r="T316" s="5"/>
+      <c r="U316" s="5"/>
+      <c r="V316" s="5"/>
+    </row>
+    <row r="317" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C317" s="5"/>
       <c r="D317" s="5"/>
       <c r="E317" s="5"/>
@@ -7978,8 +9339,12 @@
       <c r="P317" s="5"/>
       <c r="Q317" s="5"/>
       <c r="R317" s="5"/>
-    </row>
-    <row r="318" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S317" s="5"/>
+      <c r="T317" s="5"/>
+      <c r="U317" s="5"/>
+      <c r="V317" s="5"/>
+    </row>
+    <row r="318" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C318" s="5"/>
       <c r="D318" s="5"/>
       <c r="E318" s="5"/>
@@ -7996,8 +9361,12 @@
       <c r="P318" s="5"/>
       <c r="Q318" s="5"/>
       <c r="R318" s="5"/>
-    </row>
-    <row r="319" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S318" s="5"/>
+      <c r="T318" s="5"/>
+      <c r="U318" s="5"/>
+      <c r="V318" s="5"/>
+    </row>
+    <row r="319" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C319" s="5"/>
       <c r="D319" s="5"/>
       <c r="E319" s="5"/>
@@ -8014,8 +9383,12 @@
       <c r="P319" s="5"/>
       <c r="Q319" s="5"/>
       <c r="R319" s="5"/>
-    </row>
-    <row r="320" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S319" s="5"/>
+      <c r="T319" s="5"/>
+      <c r="U319" s="5"/>
+      <c r="V319" s="5"/>
+    </row>
+    <row r="320" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C320" s="5"/>
       <c r="D320" s="5"/>
       <c r="E320" s="5"/>
@@ -8032,8 +9405,12 @@
       <c r="P320" s="5"/>
       <c r="Q320" s="5"/>
       <c r="R320" s="5"/>
-    </row>
-    <row r="321" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S320" s="5"/>
+      <c r="T320" s="5"/>
+      <c r="U320" s="5"/>
+      <c r="V320" s="5"/>
+    </row>
+    <row r="321" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C321" s="5"/>
       <c r="D321" s="5"/>
       <c r="E321" s="5"/>
@@ -8050,8 +9427,12 @@
       <c r="P321" s="5"/>
       <c r="Q321" s="5"/>
       <c r="R321" s="5"/>
-    </row>
-    <row r="322" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S321" s="5"/>
+      <c r="T321" s="5"/>
+      <c r="U321" s="5"/>
+      <c r="V321" s="5"/>
+    </row>
+    <row r="322" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C322" s="5"/>
       <c r="D322" s="5"/>
       <c r="E322" s="5"/>
@@ -8068,8 +9449,12 @@
       <c r="P322" s="5"/>
       <c r="Q322" s="5"/>
       <c r="R322" s="5"/>
-    </row>
-    <row r="323" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S322" s="5"/>
+      <c r="T322" s="5"/>
+      <c r="U322" s="5"/>
+      <c r="V322" s="5"/>
+    </row>
+    <row r="323" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C323" s="5"/>
       <c r="D323" s="5"/>
       <c r="E323" s="5"/>
@@ -8086,8 +9471,12 @@
       <c r="P323" s="5"/>
       <c r="Q323" s="5"/>
       <c r="R323" s="5"/>
-    </row>
-    <row r="324" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S323" s="5"/>
+      <c r="T323" s="5"/>
+      <c r="U323" s="5"/>
+      <c r="V323" s="5"/>
+    </row>
+    <row r="324" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C324" s="5"/>
       <c r="D324" s="5"/>
       <c r="E324" s="5"/>
@@ -8104,6 +9493,10 @@
       <c r="P324" s="5"/>
       <c r="Q324" s="5"/>
       <c r="R324" s="5"/>
+      <c r="S324" s="5"/>
+      <c r="T324" s="5"/>
+      <c r="U324" s="5"/>
+      <c r="V324" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/LULU.xlsx
+++ b/LULU.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A47B49-92BA-46C3-BC32-369A2F14A19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB04F909-C397-4D67-B412-EFA434E730F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{307BA413-EEF9-4958-8DCC-E913E47A6543}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{307BA413-EEF9-4958-8DCC-E913E47A6543}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Financials" sheetId="2" r:id="rId2"/>
+    <sheet name="Ratios" sheetId="3" r:id="rId3"/>
+    <sheet name="DCF" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>Lulu Lemon</t>
   </si>
@@ -227,14 +229,21 @@
   <si>
     <t>Q425</t>
   </si>
+  <si>
+    <t>P/E</t>
+  </si>
+  <si>
+    <t>EV/EBIT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0;[Red]#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -290,7 +299,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -309,6 +318,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -645,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0763D264-7AA2-4A43-9561-8F9D88497622}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +680,7 @@
         <v>3</v>
       </c>
       <c r="I2">
-        <v>259.77</v>
+        <v>198.37</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -701,7 +711,7 @@
       </c>
       <c r="I4" s="1">
         <f>I3*I2</f>
-        <v>29803.264031099996</v>
+        <v>22758.8770291</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -743,7 +753,25 @@
       </c>
       <c r="I7" s="1">
         <f>I4+I6-I5</f>
-        <v>28749.068031099996</v>
+        <v>21704.6810291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="12">
+        <f>+I4/Financials!V28</f>
+        <v>12.54197969658594</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="12">
+        <f>+I7/Financials!V24</f>
+        <v>8.6621331426345627</v>
       </c>
     </row>
   </sheetData>
@@ -760,10 +788,10 @@
   <dimension ref="A1:AW324"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K28" sqref="H28:K28"/>
+      <selection pane="bottomRight" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9504,4 +9532,28 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C2B934-80D2-4148-9B7A-8C50C20946BF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BF27C7-F52E-4B5A-9125-C20B41FF7625}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LULU.xlsx
+++ b/LULU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079A68C3-CBE0-4761-B909-E17A243FAA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7632B895-109A-4C2B-9B5E-A51D5495705A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" activeTab="1" xr2:uid="{307BA413-EEF9-4958-8DCC-E913E47A6543}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{307BA413-EEF9-4958-8DCC-E913E47A6543}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,11 +38,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={70CDCA07-2FB0-4476-9043-D6D6ECCDCCB8}</author>
+  </authors>
+  <commentList>
+    <comment ref="M19" authorId="0" shapeId="0" xr:uid="{70CDCA07-2FB0-4476-9043-D6D6ECCDCCB8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Guidance 2470 to 2500</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
-  <si>
-    <t>Lulu Lemon</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="119">
   <si>
     <t>SEC</t>
   </si>
@@ -234,24 +249,202 @@
   </si>
   <si>
     <t>EV/EBIT</t>
+  </si>
+  <si>
+    <t>LuluLemon</t>
+  </si>
+  <si>
+    <t>Cash &amp; Cash Equivalents</t>
+  </si>
+  <si>
+    <t>Accounts receivables</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>Accrued Taxes</t>
+  </si>
+  <si>
+    <t>Prepaid Expenses &amp; other</t>
+  </si>
+  <si>
+    <t>Current Assets</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Lease Assets</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>Intangibles</t>
+  </si>
+  <si>
+    <t>Deffered Taxes</t>
+  </si>
+  <si>
+    <t>Non-Current Assets</t>
+  </si>
+  <si>
+    <t>Total Assets</t>
+  </si>
+  <si>
+    <t>Liabililties &amp; Equity</t>
+  </si>
+  <si>
+    <t>Non-Current Liabilities</t>
+  </si>
+  <si>
+    <t>Accounts payables</t>
+  </si>
+  <si>
+    <t>Accrued Liabilities</t>
+  </si>
+  <si>
+    <t>Accrued compensation</t>
+  </si>
+  <si>
+    <t>Lease Liabilities</t>
+  </si>
+  <si>
+    <t>Income Tax payables</t>
+  </si>
+  <si>
+    <t>Gift Card Liabilities</t>
+  </si>
+  <si>
+    <t>Current Liabilties</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t>Impairments</t>
+  </si>
+  <si>
+    <t>SBCs</t>
+  </si>
+  <si>
+    <t>Derecognition Gift Cards</t>
+  </si>
+  <si>
+    <t>Derivatives Settlements</t>
+  </si>
+  <si>
+    <t>Change in AR</t>
+  </si>
+  <si>
+    <t>Change in TR</t>
+  </si>
+  <si>
+    <t>Change in PE</t>
+  </si>
+  <si>
+    <t>Change in ONCA</t>
+  </si>
+  <si>
+    <t>Change in AP</t>
+  </si>
+  <si>
+    <t>Change in AL</t>
+  </si>
+  <si>
+    <t>Change in AC</t>
+  </si>
+  <si>
+    <t>Cahnge in TP</t>
+  </si>
+  <si>
+    <t>Change in UGL</t>
+  </si>
+  <si>
+    <t>Change in Leases</t>
+  </si>
+  <si>
+    <t>Change in OL</t>
+  </si>
+  <si>
+    <t>Change in WC</t>
+  </si>
+  <si>
+    <t>Change in Inventories</t>
+  </si>
+  <si>
+    <t>CFFI</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>Investment Hedges</t>
+  </si>
+  <si>
+    <t>Acquisitions</t>
+  </si>
+  <si>
+    <t>Settlements of SBCs</t>
+  </si>
+  <si>
+    <t>Tax paid related to SBCs</t>
+  </si>
+  <si>
+    <t>Stock Repurchases</t>
+  </si>
+  <si>
+    <t>CFFF</t>
+  </si>
+  <si>
+    <t>Fx</t>
+  </si>
+  <si>
+    <t>Change in Cash</t>
+  </si>
+  <si>
+    <t>Cash BoP</t>
+  </si>
+  <si>
+    <t>Cash EoP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.0;[Red]#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -308,30 +501,35 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -349,6 +547,67 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3656DDCE-2E1F-8C2F-8E18-EABCC26A1A44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7972425" y="76200"/>
+          <a:ext cx="28575" cy="5210175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Oscar Settje" id="{9F4B8A01-EF8E-4989-A225-17C5F64F96F8}" userId="7ff36870b9739543" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -666,13 +925,19 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="M19" dT="2025-09-05T11:16:01.19" personId="{9F4B8A01-EF8E-4989-A225-17C5F64F96F8}" id="{70CDCA07-2FB0-4476-9043-D6D6ECCDCCB8}">
+    <text>Guidance 2470 to 2500</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0763D264-7AA2-4A43-9561-8F9D88497622}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -684,37 +949,37 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" s="2">
-        <v>198.37</v>
+        <v>167.35</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I3" s="3">
-        <v>114.72942999999999</v>
-      </c>
-      <c r="J3" s="4" t="s">
+        <v>113.468082</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="6">
         <v>45323</v>
@@ -722,19 +987,19 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="H4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
         <f>I3*I2</f>
-        <v>22758.8770291</v>
+        <v>18988.883522699998</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="6">
         <v>45322</v>
@@ -742,51 +1007,51 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="H5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>1325.2719999999999</v>
-      </c>
-      <c r="J5" s="4" t="s">
+        <v>1155.7940000000001</v>
+      </c>
+      <c r="J5" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I6" s="7">
-        <v>271.07600000000002</v>
-      </c>
-      <c r="J6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
         <f>I4+I6-I5</f>
-        <v>21704.6810291</v>
+        <v>17833.089522699996</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I9" s="8">
         <f>+I4/Financials!V28</f>
-        <v>12.54197969658594</v>
+        <v>10.464408735897837</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I10" s="8">
         <f>+I7/Financials!V24</f>
-        <v>8.6621331426345627</v>
+        <v>7.1170175494882235</v>
       </c>
     </row>
   </sheetData>
@@ -799,14 +1064,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10BA731A-EDB9-4887-9C65-CEC0B0F7DA3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10BA731A-EDB9-4887-9C65-CEC0B0F7DA3D}">
   <dimension ref="A1:AW324"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -818,71 +1083,71 @@
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="K2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="P2" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="4">
         <v>438</v>
@@ -911,7 +1176,9 @@
       <c r="K3" s="4">
         <v>462</v>
       </c>
-      <c r="L3" s="4"/>
+      <c r="L3" s="4">
+        <v>467</v>
+      </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="P3" s="4">
@@ -942,7 +1209,7 @@
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="4">
         <v>127</v>
@@ -971,7 +1238,9 @@
       <c r="K4" s="4">
         <v>154</v>
       </c>
-      <c r="L4" s="4"/>
+      <c r="L4" s="4">
+        <v>159</v>
+      </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="P4" s="4">
@@ -998,7 +1267,7 @@
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="4">
         <v>98</v>
@@ -1027,7 +1296,9 @@
       <c r="K5" s="4">
         <v>107</v>
       </c>
-      <c r="L5" s="4"/>
+      <c r="L5" s="4">
+        <v>109</v>
+      </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="P5" s="4">
@@ -1058,7 +1329,7 @@
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="4">
         <v>48</v>
@@ -1087,7 +1358,9 @@
       <c r="K6" s="4">
         <v>47</v>
       </c>
-      <c r="L6" s="4"/>
+      <c r="L6" s="4">
+        <v>49</v>
+      </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="P6" s="4">
@@ -1118,7 +1391,7 @@
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" ref="C7:H7" si="0">+SUM(C3:C6)</f>
@@ -1149,14 +1422,17 @@
         <v>749</v>
       </c>
       <c r="J7" s="9">
-        <f t="shared" ref="J7:K7" si="1">+SUM(J3:J6)</f>
+        <f t="shared" ref="J7:L7" si="1">+SUM(J3:J6)</f>
         <v>767</v>
       </c>
       <c r="K7" s="9">
         <f t="shared" si="1"/>
         <v>770</v>
       </c>
-      <c r="L7" s="9"/>
+      <c r="L7" s="9">
+        <f t="shared" si="1"/>
+        <v>784</v>
+      </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="1"/>
@@ -1191,7 +1467,7 @@
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="10">
         <f t="shared" ref="C8:D8" si="8">+C17/C7</f>
@@ -1206,7 +1482,7 @@
         <v>1.277253164556962</v>
       </c>
       <c r="F8" s="10">
-        <f t="shared" ref="F8:K8" si="9">+F17/F7</f>
+        <f t="shared" ref="F8:L8" si="9">+F17/F7</f>
         <v>2.3549479606188459</v>
       </c>
       <c r="G8" s="10">
@@ -1229,7 +1505,10 @@
         <f t="shared" si="9"/>
         <v>1.2479090909090909</v>
       </c>
-      <c r="L8" s="10"/>
+      <c r="L8" s="10">
+        <f t="shared" si="9"/>
+        <v>1.2667002551020408</v>
+      </c>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="P8" s="10">
@@ -1284,7 +1563,7 @@
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="3">
         <v>1567.7380000000001</v>
@@ -1315,7 +1594,9 @@
       <c r="K10" s="3">
         <v>1674.558</v>
       </c>
-      <c r="L10" s="3"/>
+      <c r="L10" s="3">
+        <v>1758.2170000000001</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -1374,7 +1655,7 @@
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="3">
         <v>210.06800000000001</v>
@@ -1405,7 +1686,9 @@
       <c r="K11" s="3">
         <v>412.20499999999998</v>
       </c>
-      <c r="L11" s="3"/>
+      <c r="L11" s="3">
+        <v>392.89800000000002</v>
+      </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -1460,7 +1743,7 @@
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="3">
         <v>222.98599999999999</v>
@@ -1491,7 +1774,9 @@
       <c r="K12" s="3">
         <v>283.89699999999999</v>
       </c>
-      <c r="L12" s="3"/>
+      <c r="L12" s="3">
+        <v>374.10399999999998</v>
+      </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -1546,7 +1831,7 @@
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="3">
         <v>1308.828</v>
@@ -1577,7 +1862,9 @@
       <c r="K13" s="3">
         <v>1535.172</v>
       </c>
-      <c r="L13" s="3"/>
+      <c r="L13" s="3">
+        <v>1547.3209999999999</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -1632,7 +1919,7 @@
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="3">
         <v>438.16500000000002</v>
@@ -1663,7 +1950,9 @@
       <c r="K14" s="3">
         <v>544.78800000000001</v>
       </c>
-      <c r="L14" s="3"/>
+      <c r="L14" s="3">
+        <v>624.59799999999996</v>
+      </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -1718,7 +2007,7 @@
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="3">
         <v>253.79900000000001</v>
@@ -1749,7 +2038,9 @@
       <c r="K15" s="3">
         <v>290.7</v>
       </c>
-      <c r="L15" s="3"/>
+      <c r="L15" s="3">
+        <v>353.3</v>
+      </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -1804,7 +2095,7 @@
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="3">
         <v>958.08699999999999</v>
@@ -1835,7 +2126,9 @@
       <c r="K16" s="3">
         <v>1153.107</v>
       </c>
-      <c r="L16" s="3"/>
+      <c r="L16" s="3">
+        <v>1254.952</v>
+      </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -1890,7 +2183,7 @@
     </row>
     <row r="17" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="3">
         <v>834.94200000000001</v>
@@ -1921,7 +2214,9 @@
       <c r="K17" s="3">
         <v>960.89</v>
       </c>
-      <c r="L17" s="3"/>
+      <c r="L17" s="3">
+        <v>993.09299999999996</v>
+      </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -1976,7 +2271,7 @@
     </row>
     <row r="18" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="3">
         <v>207.76300000000001</v>
@@ -2007,7 +2302,9 @@
       <c r="K18" s="3">
         <v>256.66300000000001</v>
       </c>
-      <c r="L18" s="3"/>
+      <c r="L18" s="3">
+        <v>277.17399999999998</v>
+      </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
@@ -2062,7 +2359,7 @@
     </row>
     <row r="19" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="11">
         <v>2000.7919999999999</v>
@@ -2091,8 +2388,12 @@
       <c r="K19" s="11">
         <v>2370.66</v>
       </c>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
+      <c r="L19" s="11">
+        <v>2525.2190000000001</v>
+      </c>
+      <c r="M19" s="11">
+        <v>2485</v>
+      </c>
       <c r="N19" s="11"/>
       <c r="O19" s="3"/>
       <c r="P19" s="11">
@@ -2119,7 +2420,7 @@
     </row>
     <row r="20" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="3">
         <v>849.98699999999997</v>
@@ -2148,7 +2449,9 @@
       <c r="K20" s="3">
         <v>987.53399999999999</v>
       </c>
-      <c r="L20" s="3"/>
+      <c r="L20" s="3">
+        <v>1048.0170000000001</v>
+      </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -2176,7 +2479,7 @@
     </row>
     <row r="21" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="3">
         <f>C19-C20</f>
@@ -2199,7 +2502,7 @@
         <v>1275.0680000000002</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" ref="H21:K21" si="14">H19-H20</f>
+        <f t="shared" ref="H21:L21" si="14">H19-H20</f>
         <v>1412.1849999999999</v>
       </c>
       <c r="I21" s="3">
@@ -2214,7 +2517,10 @@
         <f t="shared" si="14"/>
         <v>1383.1259999999997</v>
       </c>
-      <c r="L21" s="3"/>
+      <c r="L21" s="3">
+        <f t="shared" si="14"/>
+        <v>1477.202</v>
+      </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
@@ -2249,7 +2555,7 @@
     </row>
     <row r="22" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="3">
         <v>747.51300000000003</v>
@@ -2278,7 +2584,9 @@
       <c r="K22" s="3">
         <v>942.87099999999998</v>
       </c>
-      <c r="L22" s="3"/>
+      <c r="L22" s="3">
+        <v>951.65800000000002</v>
+      </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -2306,7 +2614,7 @@
     </row>
     <row r="23" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="3">
         <v>1.8779999999999999</v>
@@ -2336,7 +2644,9 @@
       <c r="K23" s="3">
         <v>1.63</v>
       </c>
-      <c r="L23" s="3"/>
+      <c r="L23" s="3">
+        <v>1.73</v>
+      </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -2368,7 +2678,7 @@
     </row>
     <row r="24" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ref="C24:E24" si="22">C21-SUM(C22:C23)</f>
@@ -2391,7 +2701,7 @@
         <v>432.64200000000017</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" ref="H24:K24" si="23">H21-SUM(H22:H23)</f>
+        <f t="shared" ref="H24:L24" si="23">H21-SUM(H22:H23)</f>
         <v>540.226</v>
       </c>
       <c r="I24" s="3">
@@ -2406,7 +2716,10 @@
         <f t="shared" si="23"/>
         <v>438.62499999999977</v>
       </c>
-      <c r="L24" s="3"/>
+      <c r="L24" s="3">
+        <f t="shared" si="23"/>
+        <v>523.81399999999996</v>
+      </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -2453,7 +2766,7 @@
     </row>
     <row r="25" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="3">
         <v>8.0250000000000004</v>
@@ -2482,7 +2795,9 @@
       <c r="K25" s="3">
         <v>11.786</v>
       </c>
-      <c r="L25" s="3"/>
+      <c r="L25" s="3">
+        <v>9.7370000000000001</v>
+      </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -2510,7 +2825,7 @@
     </row>
     <row r="26" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="3">
         <f>C24+C25</f>
@@ -2533,7 +2848,7 @@
         <v>455.92500000000018</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" ref="H26:K26" si="31">H24+H25</f>
+        <f t="shared" ref="H26:L26" si="31">H24+H25</f>
         <v>558.22</v>
       </c>
       <c r="I26" s="3">
@@ -2548,7 +2863,10 @@
         <f t="shared" si="31"/>
         <v>450.41099999999977</v>
       </c>
-      <c r="L26" s="3"/>
+      <c r="L26" s="3">
+        <f t="shared" si="31"/>
+        <v>533.55099999999993</v>
+      </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -2583,7 +2901,7 @@
     </row>
     <row r="27" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="3">
         <v>119.03400000000001</v>
@@ -2612,7 +2930,9 @@
       <c r="K27" s="3">
         <v>135.839</v>
       </c>
-      <c r="L27" s="3"/>
+      <c r="L27" s="3">
+        <v>162.64599999999999</v>
+      </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
@@ -2640,7 +2960,7 @@
     </row>
     <row r="28" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="3">
         <f>C26-C27</f>
@@ -2663,7 +2983,7 @@
         <v>321.42100000000016</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" ref="H28:K28" si="40">H26-H27</f>
+        <f t="shared" ref="H28:L28" si="40">H26-H27</f>
         <v>392.92200000000003</v>
       </c>
       <c r="I28" s="3">
@@ -2678,7 +2998,10 @@
         <f t="shared" si="40"/>
         <v>314.57199999999978</v>
       </c>
-      <c r="L28" s="3"/>
+      <c r="L28" s="3">
+        <f t="shared" si="40"/>
+        <v>370.90499999999997</v>
+      </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -2735,80 +3058,92 @@
     </row>
     <row r="30" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="3">
-        <f t="shared" ref="C30:K30" si="42">C28/C31</f>
+        <v>28</v>
+      </c>
+      <c r="C30" s="14">
+        <f t="shared" ref="C30:L30" si="42">C28/C31</f>
         <v>2.2822328403250376</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="14">
         <f t="shared" si="42"/>
         <v>2.69044412415629</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="14">
         <f t="shared" si="42"/>
         <v>1.9667404712952694</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="14">
         <f t="shared" si="42"/>
         <v>5.3036410305162098</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="14">
         <f t="shared" si="42"/>
         <v>2.5530270536466042</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="14">
         <f t="shared" si="42"/>
         <v>3.1504077100087398</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="14">
         <f t="shared" si="42"/>
         <v>2.8677962786376172</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="14">
         <f t="shared" si="42"/>
         <v>6.1504318598325138</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="14">
         <f t="shared" si="42"/>
         <v>2.6076994495656192</v>
       </c>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3">
+      <c r="L30" s="14">
+        <f t="shared" si="42"/>
+        <v>3.1012123745819395</v>
+      </c>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14">
         <f>+P28/P31</f>
         <v>3.7013034711759736</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="Q30" s="14">
         <f t="shared" ref="Q30:V30" si="43">+Q28/Q31</f>
         <v>4.9511553534315444</v>
       </c>
-      <c r="R30" s="3">
+      <c r="R30" s="14">
         <f t="shared" si="43"/>
         <v>4.5200515776466181</v>
       </c>
-      <c r="S30" s="3">
+      <c r="S30" s="14">
         <f t="shared" si="43"/>
         <v>7.515889895814067</v>
       </c>
-      <c r="T30" s="3">
+      <c r="T30" s="14">
         <f t="shared" si="43"/>
         <v>6.6955963216518102</v>
       </c>
-      <c r="U30" s="3">
+      <c r="U30" s="14">
         <f t="shared" si="43"/>
         <v>12.23261209223049</v>
       </c>
-      <c r="V30" s="3">
+      <c r="V30" s="14">
         <f t="shared" si="43"/>
         <v>14.665341253485277</v>
       </c>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="14"/>
     </row>
     <row r="31" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="3">
         <v>127.246</v>
@@ -2837,7 +3172,9 @@
       <c r="K31" s="3">
         <v>120.63200000000001</v>
       </c>
-      <c r="L31" s="3"/>
+      <c r="L31" s="3">
+        <v>119.6</v>
+      </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
@@ -2880,7 +3217,7 @@
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -2891,7 +3228,7 @@
         <v>0.10400831270816768</v>
       </c>
       <c r="H33" s="12">
-        <f t="shared" ref="H33:K33" si="44">H19/D19-1</f>
+        <f t="shared" ref="H33:M33" si="44">H19/D19-1</f>
         <v>7.3291492486980303E-2</v>
       </c>
       <c r="I33" s="12">
@@ -2906,8 +3243,14 @@
         <f t="shared" si="44"/>
         <v>7.3235392783075115E-2</v>
       </c>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
+      <c r="L33" s="12">
+        <f t="shared" si="44"/>
+        <v>6.50088272085525E-2</v>
+      </c>
+      <c r="M33" s="12">
+        <f t="shared" si="44"/>
+        <v>3.6859629651264658E-2</v>
+      </c>
       <c r="N33" s="13"/>
       <c r="O33" s="3"/>
       <c r="P33" s="13"/>
@@ -2938,7 +3281,7 @@
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="13">
         <f t="shared" ref="C34:J34" si="46">C21/C19</f>
@@ -2973,10 +3316,13 @@
         <v>0.60416829918452097</v>
       </c>
       <c r="K34" s="13">
-        <f t="shared" ref="K34" si="47">K21/K19</f>
+        <f t="shared" ref="K34:L34" si="47">K21/K19</f>
         <v>0.58343499278681876</v>
       </c>
-      <c r="L34" s="13"/>
+      <c r="L34" s="13">
+        <f t="shared" si="47"/>
+        <v>0.58497975819126968</v>
+      </c>
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
       <c r="O34" s="3"/>
@@ -3011,7 +3357,7 @@
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="13">
         <f t="shared" ref="C35:J35" si="49">C24/C19</f>
@@ -3046,10 +3392,13 @@
         <v>0.2885695322466002</v>
       </c>
       <c r="K35" s="13">
-        <f t="shared" ref="K35" si="50">K24/K19</f>
+        <f t="shared" ref="K35:L35" si="50">K24/K19</f>
         <v>0.18502231446095171</v>
       </c>
-      <c r="L35" s="13"/>
+      <c r="L35" s="13">
+        <f t="shared" si="50"/>
+        <v>0.20743309788180747</v>
+      </c>
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
       <c r="O35" s="3"/>
@@ -3084,7 +3433,7 @@
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="13">
         <f t="shared" ref="C36:J36" si="52">C28/C19</f>
@@ -3119,10 +3468,13 @@
         <v>0.20722791684445532</v>
       </c>
       <c r="K36" s="13">
-        <f t="shared" ref="K36" si="53">K28/K19</f>
+        <f t="shared" ref="K36:L36" si="53">K28/K19</f>
         <v>0.13269384897032885</v>
       </c>
-      <c r="L36" s="13"/>
+      <c r="L36" s="13">
+        <f t="shared" si="53"/>
+        <v>0.14688032998326084</v>
+      </c>
       <c r="M36" s="13"/>
       <c r="N36" s="13"/>
       <c r="O36" s="3"/>
@@ -3157,7 +3509,7 @@
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="13">
         <f t="shared" ref="C37:J37" si="55">C27/C26</f>
@@ -3192,10 +3544,13 @@
         <v>0.29230904524513779</v>
       </c>
       <c r="K37" s="13">
-        <f t="shared" ref="K37" si="56">K27/K26</f>
+        <f t="shared" ref="K37:L37" si="56">K27/K26</f>
         <v>0.30158899316402143</v>
       </c>
-      <c r="L37" s="13"/>
+      <c r="L37" s="13">
+        <f t="shared" si="56"/>
+        <v>0.30483683846530135</v>
+      </c>
       <c r="M37" s="13"/>
       <c r="N37" s="13"/>
       <c r="O37" s="3"/>
@@ -3251,6 +3606,9 @@
       <c r="V38" s="3"/>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B39" s="16" t="s">
+        <v>65</v>
+      </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -3269,10 +3627,17 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
+      <c r="U39" s="3">
+        <v>2243.971</v>
+      </c>
+      <c r="V39" s="3">
+        <v>1984.336</v>
+      </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B40" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -3291,10 +3656,17 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
+      <c r="U40" s="3">
+        <v>124.76900000000001</v>
+      </c>
+      <c r="V40" s="3">
+        <v>120.173</v>
+      </c>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B41" s="16" t="s">
+        <v>67</v>
+      </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -3313,10 +3685,17 @@
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
+      <c r="U41" s="3">
+        <v>1323.6020000000001</v>
+      </c>
+      <c r="V41" s="3">
+        <v>1442.0809999999999</v>
+      </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B42" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -3335,10 +3714,17 @@
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
+      <c r="U42" s="3">
+        <v>183.733</v>
+      </c>
+      <c r="V42" s="3">
+        <v>182.25299999999999</v>
+      </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B43" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -3357,10 +3743,17 @@
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
+      <c r="U43" s="3">
+        <v>184.50200000000001</v>
+      </c>
+      <c r="V43" s="3">
+        <v>251.459</v>
+      </c>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B44" s="16" t="s">
+        <v>70</v>
+      </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -3377,12 +3770,27 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
-      <c r="V44" s="3"/>
+      <c r="S44" s="3">
+        <f t="shared" ref="S44:U44" si="58">+SUM(S39:S43)</f>
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <f t="shared" si="58"/>
+        <v>4060.5769999999998</v>
+      </c>
+      <c r="V44" s="3">
+        <f>+SUM(V39:V43)</f>
+        <v>3980.3020000000001</v>
+      </c>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B45" s="16" t="s">
+        <v>71</v>
+      </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -3401,10 +3809,17 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3"/>
-      <c r="U45" s="3"/>
-      <c r="V45" s="3"/>
+      <c r="U45" s="3">
+        <v>1545.8109999999999</v>
+      </c>
+      <c r="V45" s="3">
+        <v>1780.617</v>
+      </c>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B46" s="16" t="s">
+        <v>72</v>
+      </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -3423,10 +3838,17 @@
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
-      <c r="U46" s="3"/>
-      <c r="V46" s="3"/>
+      <c r="U46" s="3">
+        <v>1265.6099999999999</v>
+      </c>
+      <c r="V46" s="3">
+        <v>1416.2560000000001</v>
+      </c>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B47" s="16" t="s">
+        <v>73</v>
+      </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -3445,10 +3867,17 @@
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
-      <c r="V47" s="3"/>
+      <c r="U47" s="3">
+        <v>24.082999999999998</v>
+      </c>
+      <c r="V47" s="3">
+        <v>159.518</v>
+      </c>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B48" s="16" t="s">
+        <v>74</v>
+      </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -3467,10 +3896,17 @@
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>11.673</v>
+      </c>
+    </row>
+    <row r="49" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B49" s="16" t="s">
+        <v>75</v>
+      </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -3489,10 +3925,17 @@
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>9.1760000000000002</v>
+      </c>
+      <c r="V49" s="3">
+        <v>17.085000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B50" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -3511,10 +3954,17 @@
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
-      <c r="U50" s="3"/>
-      <c r="V50" s="3"/>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>186.684</v>
+      </c>
+      <c r="V50" s="3">
+        <v>237.84100000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B51" s="16" t="s">
+        <v>76</v>
+      </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -3532,11 +3982,23 @@
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
-      <c r="U51" s="3"/>
-      <c r="V51" s="3"/>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <f t="shared" ref="T51:U51" si="59">+SUM(T45:T50)</f>
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <f t="shared" si="59"/>
+        <v>3031.364</v>
+      </c>
+      <c r="V51" s="3">
+        <f>+SUM(V45:V50)</f>
+        <v>3622.99</v>
+      </c>
+    </row>
+    <row r="52" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -3554,11 +4016,23 @@
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
-      <c r="U52" s="3"/>
-      <c r="V52" s="3"/>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="T52" s="11">
+        <f t="shared" ref="T52:U52" si="60">+T51+T44</f>
+        <v>0</v>
+      </c>
+      <c r="U52" s="11">
+        <f t="shared" si="60"/>
+        <v>7091.9409999999998</v>
+      </c>
+      <c r="V52" s="11">
+        <f>+V51+V44</f>
+        <v>7603.2919999999995</v>
+      </c>
+    </row>
+    <row r="53" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B53" s="16" t="s">
+        <v>80</v>
+      </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -3577,10 +4051,17 @@
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3"/>
-      <c r="U53" s="3"/>
-      <c r="V53" s="3"/>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>348.44099999999997</v>
+      </c>
+      <c r="V53" s="3">
+        <v>271.40600000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B54" s="16" t="s">
+        <v>81</v>
+      </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -3599,10 +4080,17 @@
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
-      <c r="U54" s="3"/>
-      <c r="V54" s="3"/>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>348.55500000000001</v>
+      </c>
+      <c r="V54" s="3">
+        <v>559.46299999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B55" s="16" t="s">
+        <v>82</v>
+      </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -3621,10 +4109,17 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-      <c r="U55" s="3"/>
-      <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U55" s="3">
+        <v>326.11</v>
+      </c>
+      <c r="V55" s="3">
+        <v>204.54300000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B56" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -3643,10 +4138,17 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U56" s="3">
+        <v>249.27</v>
+      </c>
+      <c r="V56" s="3">
+        <v>275.154</v>
+      </c>
+    </row>
+    <row r="57" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B57" s="16" t="s">
+        <v>84</v>
+      </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -3665,10 +4167,17 @@
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
-      <c r="U57" s="3"/>
-      <c r="V57" s="3"/>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>12.098000000000001</v>
+      </c>
+      <c r="V57" s="3">
+        <v>183.126</v>
+      </c>
+    </row>
+    <row r="58" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B58" s="16" t="s">
+        <v>85</v>
+      </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -3687,10 +4196,17 @@
       <c r="R58" s="3"/>
       <c r="S58" s="3"/>
       <c r="T58" s="3"/>
-      <c r="U58" s="3"/>
-      <c r="V58" s="3"/>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>306.47899999999998</v>
+      </c>
+      <c r="V58" s="3">
+        <v>308.35199999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B59" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -3709,10 +4225,17 @@
       <c r="R59" s="3"/>
       <c r="S59" s="3"/>
       <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
-      <c r="V59" s="3"/>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>40.308</v>
+      </c>
+      <c r="V59" s="3">
+        <v>37.585999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B60" s="16" t="s">
+        <v>86</v>
+      </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -3730,11 +4253,23 @@
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
       <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3"/>
-      <c r="V60" s="3"/>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <f t="shared" ref="T60:U60" si="61">+SUM(T53:T59)</f>
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
+        <f t="shared" si="61"/>
+        <v>1631.261</v>
+      </c>
+      <c r="V60" s="3">
+        <f>+SUM(V53:V59)</f>
+        <v>1839.6299999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B61" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -3753,10 +4288,17 @@
       <c r="R61" s="3"/>
       <c r="S61" s="3"/>
       <c r="T61" s="3"/>
-      <c r="U61" s="3"/>
-      <c r="V61" s="3"/>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>1154.0119999999999</v>
+      </c>
+      <c r="V61" s="3">
+        <v>1300.6369999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B62" s="16" t="s">
+        <v>84</v>
+      </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -3775,10 +4317,17 @@
       <c r="R62" s="3"/>
       <c r="S62" s="3"/>
       <c r="T62" s="3"/>
-      <c r="U62" s="3"/>
-      <c r="V62" s="3"/>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>15.864000000000001</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B63" s="16" t="s">
+        <v>75</v>
+      </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -3797,10 +4346,17 @@
       <c r="R63" s="3"/>
       <c r="S63" s="3"/>
       <c r="T63" s="3"/>
-      <c r="U63" s="3"/>
-      <c r="V63" s="3"/>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>29.521999999999998</v>
+      </c>
+      <c r="V63" s="3">
+        <v>98.188000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B64" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -3819,10 +4375,17 @@
       <c r="R64" s="3"/>
       <c r="S64" s="3"/>
       <c r="T64" s="3"/>
-      <c r="U64" s="3"/>
-      <c r="V64" s="3"/>
-    </row>
-    <row r="65" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>29.201000000000001</v>
+      </c>
+      <c r="V64" s="3">
+        <v>40.79</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B65" s="16" t="s">
+        <v>79</v>
+      </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -3841,10 +4404,19 @@
       <c r="R65" s="3"/>
       <c r="S65" s="3"/>
       <c r="T65" s="3"/>
-      <c r="U65" s="3"/>
-      <c r="V65" s="3"/>
-    </row>
-    <row r="66" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <f>+SUM(U61:U64)</f>
+        <v>1228.5989999999999</v>
+      </c>
+      <c r="V65" s="3">
+        <f>+SUM(V61:V64)</f>
+        <v>1439.615</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B66" s="16" t="s">
+        <v>87</v>
+      </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -3863,10 +4435,17 @@
       <c r="R66" s="3"/>
       <c r="S66" s="3"/>
       <c r="T66" s="3"/>
-      <c r="U66" s="3"/>
-      <c r="V66" s="3"/>
-    </row>
-    <row r="67" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>4232.0810000000001</v>
+      </c>
+      <c r="V66" s="3">
+        <v>4324.0469999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -3884,11 +4463,20 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-      <c r="T67" s="3"/>
-      <c r="U67" s="3"/>
-      <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="T67" s="11">
+        <f t="shared" ref="T67:U67" si="62">+T66+T65+T60</f>
+        <v>0</v>
+      </c>
+      <c r="U67" s="11">
+        <f t="shared" si="62"/>
+        <v>7091.9410000000007</v>
+      </c>
+      <c r="V67" s="11">
+        <f>+V66+V65+V60</f>
+        <v>7603.2919999999995</v>
+      </c>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -3910,7 +4498,10 @@
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
     </row>
-    <row r="69" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B69" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -3928,11 +4519,23 @@
       <c r="Q69" s="3"/>
       <c r="R69" s="3"/>
       <c r="S69" s="3"/>
-      <c r="T69" s="3"/>
-      <c r="U69" s="3"/>
-      <c r="V69" s="3"/>
-    </row>
-    <row r="70" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <f t="shared" ref="T69:V69" si="63">+T28</f>
+        <v>854.8</v>
+      </c>
+      <c r="U69" s="3">
+        <f t="shared" si="63"/>
+        <v>1550.190000000001</v>
+      </c>
+      <c r="V69" s="3">
+        <f>+V28</f>
+        <v>1814.6160000000007</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B70" s="16" t="s">
+        <v>89</v>
+      </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -3950,11 +4553,20 @@
       <c r="Q70" s="3"/>
       <c r="R70" s="3"/>
       <c r="S70" s="3"/>
-      <c r="T70" s="3"/>
-      <c r="U70" s="3"/>
-      <c r="V70" s="3"/>
-    </row>
-    <row r="71" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>291.791</v>
+      </c>
+      <c r="U70" s="3">
+        <v>379.38400000000001</v>
+      </c>
+      <c r="V70" s="3">
+        <v>446.524</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B71" s="16" t="s">
+        <v>90</v>
+      </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -3972,11 +4584,22 @@
       <c r="Q71" s="3"/>
       <c r="R71" s="3"/>
       <c r="S71" s="3"/>
-      <c r="T71" s="3"/>
-      <c r="U71" s="3"/>
-      <c r="V71" s="3"/>
-    </row>
-    <row r="72" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <f>62.928+407.913-10.18</f>
+        <v>460.661</v>
+      </c>
+      <c r="U71" s="3">
+        <f>23.709+74.501</f>
+        <v>98.210000000000008</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B72" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -3994,11 +4617,20 @@
       <c r="Q72" s="3"/>
       <c r="R72" s="3"/>
       <c r="S72" s="3"/>
-      <c r="T72" s="3"/>
-      <c r="U72" s="3"/>
-      <c r="V72" s="3"/>
-    </row>
-    <row r="73" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>78.075000000000003</v>
+      </c>
+      <c r="U72" s="3">
+        <v>93.56</v>
+      </c>
+      <c r="V72" s="3">
+        <v>90.010999999999996</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B73" s="16" t="s">
+        <v>92</v>
+      </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -4016,11 +4648,20 @@
       <c r="Q73" s="3"/>
       <c r="R73" s="3"/>
       <c r="S73" s="3"/>
-      <c r="T73" s="3"/>
-      <c r="U73" s="3"/>
-      <c r="V73" s="3"/>
-    </row>
-    <row r="74" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>-23.337</v>
+      </c>
+      <c r="U73" s="3">
+        <v>-28.547000000000001</v>
+      </c>
+      <c r="V73" s="3">
+        <v>-36.231000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B74" s="16" t="s">
+        <v>93</v>
+      </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -4038,11 +4679,20 @@
       <c r="Q74" s="3"/>
       <c r="R74" s="3"/>
       <c r="S74" s="3"/>
-      <c r="T74" s="3"/>
-      <c r="U74" s="3"/>
-      <c r="V74" s="3"/>
-    </row>
-    <row r="75" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>-38.649000000000001</v>
+      </c>
+      <c r="U74" s="3">
+        <v>32.527000000000001</v>
+      </c>
+      <c r="V74" s="3">
+        <v>-47.762999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B75" s="16" t="s">
+        <v>75</v>
+      </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -4060,11 +4710,20 @@
       <c r="Q75" s="3"/>
       <c r="R75" s="3"/>
       <c r="S75" s="3"/>
-      <c r="T75" s="3"/>
-      <c r="U75" s="3"/>
-      <c r="V75" s="3"/>
-    </row>
-    <row r="76" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>3.0419999999999998</v>
+      </c>
+      <c r="U75" s="3">
+        <v>-28.382999999999999</v>
+      </c>
+      <c r="V75" s="3">
+        <v>57.451000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B76" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -4082,11 +4741,20 @@
       <c r="Q76" s="3"/>
       <c r="R76" s="3"/>
       <c r="S76" s="3"/>
-      <c r="T76" s="3"/>
-      <c r="U76" s="3"/>
-      <c r="V76" s="3"/>
-    </row>
-    <row r="77" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>-58.987000000000002</v>
+      </c>
+      <c r="U76" s="3">
+        <v>6.58</v>
+      </c>
+      <c r="V76" s="3">
+        <v>1.6259999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B77" s="16" t="s">
+        <v>106</v>
+      </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -4104,11 +4772,20 @@
       <c r="Q77" s="3"/>
       <c r="R77" s="3"/>
       <c r="S77" s="3"/>
-      <c r="T77" s="3"/>
-      <c r="U77" s="3"/>
-      <c r="V77" s="3"/>
-    </row>
-    <row r="78" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>-573.43799999999999</v>
+      </c>
+      <c r="U77" s="3">
+        <v>66.584000000000003</v>
+      </c>
+      <c r="V77" s="3">
+        <v>-156.08500000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B78" s="16" t="s">
+        <v>95</v>
+      </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -4126,11 +4803,20 @@
       <c r="Q78" s="3"/>
       <c r="R78" s="3"/>
       <c r="S78" s="3"/>
-      <c r="T78" s="3"/>
-      <c r="U78" s="3"/>
-      <c r="V78" s="3"/>
-    </row>
-    <row r="79" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="T78" s="3">
+        <v>-66.713999999999999</v>
+      </c>
+      <c r="U78" s="3">
+        <v>1.9079999999999999</v>
+      </c>
+      <c r="V78" s="3">
+        <v>-2.0310000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B79" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -4148,11 +4834,20 @@
       <c r="Q79" s="3"/>
       <c r="R79" s="3"/>
       <c r="S79" s="3"/>
-      <c r="T79" s="3"/>
-      <c r="U79" s="3"/>
-      <c r="V79" s="3"/>
-    </row>
-    <row r="80" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="T79" s="3">
+        <v>-54.832999999999998</v>
+      </c>
+      <c r="U79" s="3">
+        <v>40.587000000000003</v>
+      </c>
+      <c r="V79" s="3">
+        <v>-71.789000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B80" s="16" t="s">
+        <v>97</v>
+      </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -4170,11 +4865,20 @@
       <c r="Q80" s="3"/>
       <c r="R80" s="3"/>
       <c r="S80" s="3"/>
-      <c r="T80" s="3"/>
-      <c r="U80" s="3"/>
-      <c r="V80" s="3"/>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="T80" s="3">
+        <v>-36.518000000000001</v>
+      </c>
+      <c r="U80" s="3">
+        <v>-53.28</v>
+      </c>
+      <c r="V80" s="3">
+        <v>-73.204999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B81" s="16" t="s">
+        <v>98</v>
+      </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -4192,11 +4896,20 @@
       <c r="Q81" s="3"/>
       <c r="R81" s="3"/>
       <c r="S81" s="3"/>
-      <c r="T81" s="3"/>
-      <c r="U81" s="3"/>
-      <c r="V81" s="3"/>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>-107.28</v>
+      </c>
+      <c r="U81" s="3">
+        <v>177.36699999999999</v>
+      </c>
+      <c r="V81" s="3">
+        <v>-57.043999999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B82" s="16" t="s">
+        <v>99</v>
+      </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -4214,11 +4927,20 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-      <c r="T82" s="3"/>
-      <c r="U82" s="3"/>
-      <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="T82" s="3">
+        <v>65.364000000000004</v>
+      </c>
+      <c r="U82" s="3">
+        <v>-71.733999999999995</v>
+      </c>
+      <c r="V82" s="3">
+        <v>193.13900000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B83" s="16" t="s">
+        <v>100</v>
+      </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -4236,11 +4958,20 @@
       <c r="Q83" s="3"/>
       <c r="R83" s="3"/>
       <c r="S83" s="3"/>
-      <c r="T83" s="3"/>
-      <c r="U83" s="3"/>
-      <c r="V83" s="3"/>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>47.253999999999998</v>
+      </c>
+      <c r="U83" s="3">
+        <v>70.326999999999998</v>
+      </c>
+      <c r="V83" s="3">
+        <v>-112.11</v>
+      </c>
+    </row>
+    <row r="84" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B84" s="16" t="s">
+        <v>101</v>
+      </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -4258,11 +4989,20 @@
       <c r="Q84" s="3"/>
       <c r="R84" s="3"/>
       <c r="S84" s="3"/>
-      <c r="T84" s="3"/>
-      <c r="U84" s="3"/>
-      <c r="V84" s="3"/>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>35.985999999999997</v>
+      </c>
+      <c r="U84" s="3">
+        <v>-173.196</v>
+      </c>
+      <c r="V84" s="3">
+        <v>157.20500000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B85" s="16" t="s">
+        <v>102</v>
+      </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -4280,11 +5020,20 @@
       <c r="Q85" s="3"/>
       <c r="R85" s="3"/>
       <c r="S85" s="3"/>
-      <c r="T85" s="3"/>
-      <c r="U85" s="3"/>
-      <c r="V85" s="3"/>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>68.266000000000005</v>
+      </c>
+      <c r="U85" s="3">
+        <v>84.314999999999998</v>
+      </c>
+      <c r="V85" s="3">
+        <v>42.41</v>
+      </c>
+    </row>
+    <row r="86" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B86" s="16" t="s">
+        <v>103</v>
+      </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -4302,11 +5051,20 @@
       <c r="Q86" s="3"/>
       <c r="R86" s="3"/>
       <c r="S86" s="3"/>
-      <c r="T86" s="3"/>
-      <c r="U86" s="3"/>
-      <c r="V86" s="3"/>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>23.905000000000001</v>
+      </c>
+      <c r="U86" s="3">
+        <v>37.534999999999997</v>
+      </c>
+      <c r="V86" s="3">
+        <v>23.501000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B87" s="16" t="s">
+        <v>104</v>
+      </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -4324,11 +5082,20 @@
       <c r="Q87" s="3"/>
       <c r="R87" s="3"/>
       <c r="S87" s="3"/>
-      <c r="T87" s="3"/>
-      <c r="U87" s="3"/>
-      <c r="V87" s="3"/>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>-2.9249999999999998</v>
+      </c>
+      <c r="U87" s="3">
+        <v>12.23</v>
+      </c>
+      <c r="V87" s="3">
+        <v>2.488</v>
+      </c>
+    </row>
+    <row r="88" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B88" s="16" t="s">
+        <v>105</v>
+      </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -4345,12 +5112,27 @@
       <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
       <c r="R88" s="3"/>
-      <c r="S88" s="3"/>
-      <c r="T88" s="3"/>
-      <c r="U88" s="3"/>
-      <c r="V88" s="3"/>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <f t="shared" ref="S88:U88" si="64">+SUM(S76:S87)</f>
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <f t="shared" si="64"/>
+        <v>-659.91999999999985</v>
+      </c>
+      <c r="U88" s="3">
+        <f t="shared" si="64"/>
+        <v>199.22299999999998</v>
+      </c>
+      <c r="V88" s="3">
+        <f>+SUM(V76:V87)</f>
+        <v>-51.894999999999953</v>
+      </c>
+    </row>
+    <row r="89" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B89" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -4364,15 +5146,39 @@
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
-      <c r="P89" s="3"/>
-      <c r="Q89" s="3"/>
-      <c r="R89" s="3"/>
-      <c r="S89" s="3"/>
-      <c r="T89" s="3"/>
-      <c r="U89" s="3"/>
-      <c r="V89" s="3"/>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="P89" s="11">
+        <f t="shared" ref="P89:U89" si="65">+SUM(P88,P69:P75)</f>
+        <v>0</v>
+      </c>
+      <c r="Q89" s="11">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="R89" s="11">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="S89" s="11">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="T89" s="11">
+        <f t="shared" si="65"/>
+        <v>966.46300000000019</v>
+      </c>
+      <c r="U89" s="11">
+        <f t="shared" si="65"/>
+        <v>2296.1640000000011</v>
+      </c>
+      <c r="V89" s="11">
+        <f>+SUM(V88,V69:V75)</f>
+        <v>2272.7130000000006</v>
+      </c>
+    </row>
+    <row r="90" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B90" s="16" t="s">
+        <v>108</v>
+      </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -4390,11 +5196,20 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-      <c r="T90" s="3"/>
-      <c r="U90" s="3"/>
-      <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="T90" s="3">
+        <v>-638.65700000000004</v>
+      </c>
+      <c r="U90" s="3">
+        <v>-651.86500000000001</v>
+      </c>
+      <c r="V90" s="3">
+        <v>-689.23199999999997</v>
+      </c>
+    </row>
+    <row r="91" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B91" s="16" t="s">
+        <v>109</v>
+      </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -4412,11 +5227,20 @@
       <c r="Q91" s="3"/>
       <c r="R91" s="3"/>
       <c r="S91" s="3"/>
-      <c r="T91" s="3"/>
-      <c r="U91" s="3"/>
-      <c r="V91" s="3"/>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>47.804000000000002</v>
+      </c>
+      <c r="U91" s="3">
+        <v>-1.609</v>
+      </c>
+      <c r="V91" s="3">
+        <v>50.213000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B92" s="16" t="s">
+        <v>110</v>
+      </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -4434,11 +5258,20 @@
       <c r="Q92" s="3"/>
       <c r="R92" s="3"/>
       <c r="S92" s="3"/>
-      <c r="T92" s="3"/>
-      <c r="U92" s="3"/>
-      <c r="V92" s="3"/>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>-154.14599999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B93" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -4456,11 +5289,20 @@
       <c r="Q93" s="3"/>
       <c r="R93" s="3"/>
       <c r="S93" s="3"/>
-      <c r="T93" s="3"/>
-      <c r="U93" s="3"/>
-      <c r="V93" s="3"/>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>20.916</v>
+      </c>
+      <c r="U93" s="3">
+        <v>-0.65800000000000003</v>
+      </c>
+      <c r="V93" s="3">
+        <v>-5.0090000000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B94" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -4477,12 +5319,27 @@
       <c r="P94" s="3"/>
       <c r="Q94" s="3"/>
       <c r="R94" s="3"/>
-      <c r="S94" s="3"/>
-      <c r="T94" s="3"/>
-      <c r="U94" s="3"/>
-      <c r="V94" s="3"/>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="S94" s="11">
+        <f t="shared" ref="S94:U94" si="66">+SUM(S90:S93)</f>
+        <v>0</v>
+      </c>
+      <c r="T94" s="11">
+        <f t="shared" si="66"/>
+        <v>-569.93700000000001</v>
+      </c>
+      <c r="U94" s="11">
+        <f t="shared" si="66"/>
+        <v>-654.13200000000006</v>
+      </c>
+      <c r="V94" s="11">
+        <f>+SUM(V90:V93)</f>
+        <v>-798.17399999999998</v>
+      </c>
+    </row>
+    <row r="95" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B95" s="16" t="s">
+        <v>111</v>
+      </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -4500,11 +5357,20 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-      <c r="T95" s="3"/>
-      <c r="U95" s="3"/>
-      <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="T95" s="3">
+        <v>11.704000000000001</v>
+      </c>
+      <c r="U95" s="3">
+        <v>42.43</v>
+      </c>
+      <c r="V95" s="3">
+        <v>19.812999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B96" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -4522,11 +5388,20 @@
       <c r="Q96" s="3"/>
       <c r="R96" s="3"/>
       <c r="S96" s="3"/>
-      <c r="T96" s="3"/>
-      <c r="U96" s="3"/>
-      <c r="V96" s="3"/>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>-35.158000000000001</v>
+      </c>
+      <c r="U96" s="3">
+        <v>-32.573999999999998</v>
+      </c>
+      <c r="V96" s="3">
+        <v>-35.409999999999997</v>
+      </c>
+    </row>
+    <row r="97" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B97" s="16" t="s">
+        <v>113</v>
+      </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -4544,11 +5419,20 @@
       <c r="Q97" s="3"/>
       <c r="R97" s="3"/>
       <c r="S97" s="3"/>
-      <c r="T97" s="3"/>
-      <c r="U97" s="3"/>
-      <c r="V97" s="3"/>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>-444.00099999999998</v>
+      </c>
+      <c r="U97" s="3">
+        <v>-558.65200000000004</v>
+      </c>
+      <c r="V97" s="3">
+        <v>-1636.8789999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B98" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -4566,11 +5450,20 @@
       <c r="Q98" s="3"/>
       <c r="R98" s="3"/>
       <c r="S98" s="3"/>
-      <c r="T98" s="3"/>
-      <c r="U98" s="3"/>
-      <c r="V98" s="3"/>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+      <c r="U98" s="3">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+      <c r="V98" s="3">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B99" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -4587,12 +5480,27 @@
       <c r="P99" s="3"/>
       <c r="Q99" s="3"/>
       <c r="R99" s="3"/>
-      <c r="S99" s="3"/>
-      <c r="T99" s="3"/>
-      <c r="U99" s="3"/>
-      <c r="V99" s="3"/>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="S99" s="11">
+        <f t="shared" ref="S99:U99" si="67">+SUM(S95:S98)</f>
+        <v>0</v>
+      </c>
+      <c r="T99" s="11">
+        <f t="shared" si="67"/>
+        <v>-467.48699999999997</v>
+      </c>
+      <c r="U99" s="11">
+        <f t="shared" si="67"/>
+        <v>-548.82800000000009</v>
+      </c>
+      <c r="V99" s="11">
+        <f>+SUM(V95:V98)</f>
+        <v>-1652.5079999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B100" s="16" t="s">
+        <v>115</v>
+      </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -4610,11 +5518,20 @@
       <c r="Q100" s="3"/>
       <c r="R100" s="3"/>
       <c r="S100" s="3"/>
-      <c r="T100" s="3"/>
-      <c r="U100" s="3"/>
-      <c r="V100" s="3"/>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>-34.042999999999999</v>
+      </c>
+      <c r="U100" s="3">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="V100" s="3">
+        <v>-81.665999999999997</v>
+      </c>
+    </row>
+    <row r="101" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B101" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -4631,12 +5548,27 @@
       <c r="P101" s="3"/>
       <c r="Q101" s="3"/>
       <c r="R101" s="3"/>
-      <c r="S101" s="3"/>
-      <c r="T101" s="3"/>
-      <c r="U101" s="3"/>
-      <c r="V101" s="3"/>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <f t="shared" ref="S101:U101" si="68">+SUM(S99,S100,S94,S89)</f>
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <f t="shared" si="68"/>
+        <v>-105.00399999999991</v>
+      </c>
+      <c r="U101" s="3">
+        <f t="shared" si="68"/>
+        <v>1089.104000000001</v>
+      </c>
+      <c r="V101" s="3">
+        <f>+SUM(V99,V100,V94,V89)</f>
+        <v>-259.63499999999931</v>
+      </c>
+    </row>
+    <row r="102" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B102" s="16" t="s">
+        <v>117</v>
+      </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -4654,11 +5586,20 @@
       <c r="Q102" s="3"/>
       <c r="R102" s="3"/>
       <c r="S102" s="3"/>
-      <c r="T102" s="3"/>
-      <c r="U102" s="3"/>
-      <c r="V102" s="3"/>
-    </row>
-    <row r="103" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="T102" s="3">
+        <v>1259.8710000000001</v>
+      </c>
+      <c r="U102" s="3">
+        <v>1154.867</v>
+      </c>
+      <c r="V102" s="3">
+        <v>2243.971</v>
+      </c>
+    </row>
+    <row r="103" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B103" s="16" t="s">
+        <v>118</v>
+      </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -4676,11 +5617,20 @@
       <c r="Q103" s="3"/>
       <c r="R103" s="3"/>
       <c r="S103" s="3"/>
-      <c r="T103" s="3"/>
-      <c r="U103" s="3"/>
-      <c r="V103" s="3"/>
-    </row>
-    <row r="104" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="T103" s="3">
+        <f>+U102</f>
+        <v>1154.867</v>
+      </c>
+      <c r="U103" s="3">
+        <f>+V102</f>
+        <v>2243.971</v>
+      </c>
+      <c r="V103" s="3">
+        <f>+V102+V101</f>
+        <v>1984.3360000000007</v>
+      </c>
+    </row>
+    <row r="104" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -4702,7 +5652,7 @@
       <c r="U104" s="3"/>
       <c r="V104" s="3"/>
     </row>
-    <row r="105" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -4724,7 +5674,7 @@
       <c r="U105" s="3"/>
       <c r="V105" s="3"/>
     </row>
-    <row r="106" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -4746,7 +5696,7 @@
       <c r="U106" s="3"/>
       <c r="V106" s="3"/>
     </row>
-    <row r="107" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -4768,7 +5718,7 @@
       <c r="U107" s="3"/>
       <c r="V107" s="3"/>
     </row>
-    <row r="108" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -4790,7 +5740,7 @@
       <c r="U108" s="3"/>
       <c r="V108" s="3"/>
     </row>
-    <row r="109" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -4812,7 +5762,7 @@
       <c r="U109" s="3"/>
       <c r="V109" s="3"/>
     </row>
-    <row r="110" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -4834,7 +5784,7 @@
       <c r="U110" s="3"/>
       <c r="V110" s="3"/>
     </row>
-    <row r="111" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -4856,7 +5806,7 @@
       <c r="U111" s="3"/>
       <c r="V111" s="3"/>
     </row>
-    <row r="112" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -9547,6 +10497,8 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{F06D5481-2FC0-41C0-A8FD-A8300E89068C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/LULU.xlsx
+++ b/LULU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7632B895-109A-4C2B-9B5E-A51D5495705A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA71BA57-34AD-4267-B571-C119DB47EC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{307BA413-EEF9-4958-8DCC-E913E47A6543}"/>
+    <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{307BA413-EEF9-4958-8DCC-E913E47A6543}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -426,13 +426,19 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -501,34 +507,35 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -937,7 +944,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0763D264-7AA2-4A43-9561-8F9D88497622}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -959,8 +968,8 @@
       <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="2">
-        <v>167.35</v>
+      <c r="I2" s="17">
+        <v>177.4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -991,7 +1000,7 @@
       </c>
       <c r="I4" s="7">
         <f>I3*I2</f>
-        <v>18988.883522699998</v>
+        <v>20129.237746800001</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1033,7 +1042,7 @@
       </c>
       <c r="I7" s="7">
         <f>I4+I6-I5</f>
-        <v>17833.089522699996</v>
+        <v>18973.4437468</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1042,7 +1051,7 @@
       </c>
       <c r="I9" s="8">
         <f>+I4/Financials!V28</f>
-        <v>10.464408735897837</v>
+        <v>11.092836030763531</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1051,7 +1060,7 @@
       </c>
       <c r="I10" s="8">
         <f>+I7/Financials!V24</f>
-        <v>7.1170175494882235</v>
+        <v>7.5721221467719344</v>
       </c>
     </row>
   </sheetData>
@@ -4520,7 +4529,7 @@
       <c r="R69" s="3"/>
       <c r="S69" s="3"/>
       <c r="T69" s="3">
-        <f t="shared" ref="T69:V69" si="63">+T28</f>
+        <f t="shared" ref="T69:U69" si="63">+T28</f>
         <v>854.8</v>
       </c>
       <c r="U69" s="3">

--- a/LULU.xlsx
+++ b/LULU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA71BA57-34AD-4267-B571-C119DB47EC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7A5CA7-043A-46C0-BB01-FDE40ED027CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{307BA413-EEF9-4958-8DCC-E913E47A6543}"/>
   </bookViews>
@@ -969,7 +969,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="17">
-        <v>177.4</v>
+        <v>178.72</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="I4" s="7">
         <f>I3*I2</f>
-        <v>20129.237746800001</v>
+        <v>20279.01561504</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="I7" s="7">
         <f>I4+I6-I5</f>
-        <v>18973.4437468</v>
+        <v>19123.221615039998</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="I9" s="8">
         <f>+I4/Financials!V28</f>
-        <v>11.092836030763531</v>
+        <v>11.175375735163799</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="I10" s="8">
         <f>+I7/Financials!V24</f>
-        <v>7.5721221467719344</v>
+        <v>7.6318970789524805</v>
       </c>
     </row>
   </sheetData>

--- a/LULU.xlsx
+++ b/LULU.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7A5CA7-043A-46C0-BB01-FDE40ED027CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D56A472-5980-41A8-8BC5-05ADEDFAC4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{307BA413-EEF9-4958-8DCC-E913E47A6543}"/>
   </bookViews>
@@ -969,7 +969,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="17">
-        <v>178.72</v>
+        <v>174.02</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="I4" s="7">
         <f>I3*I2</f>
-        <v>20279.01561504</v>
+        <v>19745.715629639999</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="I7" s="7">
         <f>I4+I6-I5</f>
-        <v>19123.221615039998</v>
+        <v>18589.921629639997</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="I9" s="8">
         <f>+I4/Financials!V28</f>
-        <v>11.175375735163799</v>
+        <v>10.881484363435565</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="I10" s="8">
         <f>+I7/Financials!V24</f>
-        <v>7.6318970789524805</v>
+        <v>7.4190620931581082</v>
       </c>
     </row>
   </sheetData>

--- a/LULU.xlsx
+++ b/LULU.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D56A472-5980-41A8-8BC5-05ADEDFAC4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96996C54-02B7-4529-B991-7FF41FF6604C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{307BA413-EEF9-4958-8DCC-E913E47A6543}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{307BA413-EEF9-4958-8DCC-E913E47A6543}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Financials" sheetId="2" r:id="rId2"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
     <sheet name="Ratios" sheetId="3" r:id="rId3"/>
     <sheet name="DCF" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -532,11 +532,11 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -560,16 +560,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>157163</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -584,7 +584,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7972425" y="76200"/>
+          <a:off x="8586788" y="157163"/>
           <a:ext cx="28575" cy="5210175"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -945,7 +945,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -968,8 +968,8 @@
       <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="17">
-        <v>174.02</v>
+      <c r="I2" s="16">
+        <v>204.5</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -977,10 +977,10 @@
         <v>27</v>
       </c>
       <c r="I3" s="3">
-        <v>113.468082</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>59</v>
+        <v>112.19004099999999</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="I4" s="7">
         <f>I3*I2</f>
-        <v>19745.715629639999</v>
+        <v>22942.8633845</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1019,10 +1019,10 @@
         <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>1155.7940000000001</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>59</v>
+        <v>1035.8620000000001</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1032,8 +1032,8 @@
       <c r="I6" s="7">
         <v>0</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>59</v>
+      <c r="J6" s="17" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="I7" s="7">
         <f>I4+I6-I5</f>
-        <v>18589.921629639997</v>
+        <v>21907.001384499999</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1050,8 +1050,8 @@
         <v>62</v>
       </c>
       <c r="I9" s="8">
-        <f>+I4/Financials!V28</f>
-        <v>10.881484363435565</v>
+        <f>+I4/Model!V28</f>
+        <v>12.643371040760135</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1059,8 +1059,8 @@
         <v>63</v>
       </c>
       <c r="I10" s="8">
-        <f>+I7/Financials!V24</f>
-        <v>7.4190620931581082</v>
+        <f>+I7/Model!V24</f>
+        <v>8.7428772850428427</v>
       </c>
     </row>
   </sheetData>
@@ -1077,10 +1077,10 @@
   <dimension ref="A1:AW324"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1188,7 +1188,9 @@
       <c r="L3" s="4">
         <v>467</v>
       </c>
-      <c r="M3" s="4"/>
+      <c r="M3" s="4">
+        <v>470</v>
+      </c>
       <c r="N3" s="4"/>
       <c r="P3" s="4">
         <f>285+64</f>
@@ -1250,7 +1252,9 @@
       <c r="L4" s="4">
         <v>159</v>
       </c>
-      <c r="M4" s="4"/>
+      <c r="M4" s="4">
+        <v>165</v>
+      </c>
       <c r="N4" s="4"/>
       <c r="P4" s="4">
         <v>22</v>
@@ -1308,7 +1312,9 @@
       <c r="L5" s="4">
         <v>109</v>
       </c>
-      <c r="M5" s="4"/>
+      <c r="M5" s="4">
+        <v>112</v>
+      </c>
       <c r="N5" s="4"/>
       <c r="P5" s="4">
         <f>29+5+7+4+3</f>
@@ -1370,7 +1376,9 @@
       <c r="L6" s="4">
         <v>49</v>
       </c>
-      <c r="M6" s="4"/>
+      <c r="M6" s="4">
+        <v>49</v>
+      </c>
       <c r="N6" s="4"/>
       <c r="P6" s="4">
         <f>12+5+1+1+1+1</f>
@@ -1431,7 +1439,7 @@
         <v>749</v>
       </c>
       <c r="J7" s="9">
-        <f t="shared" ref="J7:L7" si="1">+SUM(J3:J6)</f>
+        <f t="shared" ref="J7:M7" si="1">+SUM(J3:J6)</f>
         <v>767</v>
       </c>
       <c r="K7" s="9">
@@ -1442,7 +1450,10 @@
         <f t="shared" si="1"/>
         <v>784</v>
       </c>
-      <c r="M7" s="9"/>
+      <c r="M7" s="9">
+        <f t="shared" si="1"/>
+        <v>796</v>
+      </c>
       <c r="N7" s="9"/>
       <c r="O7" s="1"/>
       <c r="P7" s="9">
@@ -1491,7 +1502,7 @@
         <v>1.277253164556962</v>
       </c>
       <c r="F8" s="10">
-        <f t="shared" ref="F8:L8" si="9">+F17/F7</f>
+        <f t="shared" ref="F8:M8" si="9">+F17/F7</f>
         <v>2.3549479606188459</v>
       </c>
       <c r="G8" s="10">
@@ -1518,7 +1529,10 @@
         <f t="shared" si="9"/>
         <v>1.2667002551020408</v>
       </c>
-      <c r="M8" s="10"/>
+      <c r="M8" s="10">
+        <f t="shared" si="9"/>
+        <v>1.3401381909547738</v>
+      </c>
       <c r="N8" s="10"/>
       <c r="P8" s="10">
         <f>+P16/P7</f>
@@ -1606,7 +1620,9 @@
       <c r="L10" s="3">
         <v>1758.2170000000001</v>
       </c>
-      <c r="M10" s="3"/>
+      <c r="M10" s="3">
+        <v>1733.3820000000001</v>
+      </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3">
@@ -1698,7 +1714,9 @@
       <c r="L11" s="3">
         <v>392.89800000000002</v>
       </c>
-      <c r="M11" s="3"/>
+      <c r="M11" s="3">
+        <v>465.36200000000002</v>
+      </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3">
@@ -1786,7 +1804,9 @@
       <c r="L12" s="3">
         <v>374.10399999999998</v>
       </c>
-      <c r="M12" s="3"/>
+      <c r="M12" s="3">
+        <v>367.17599999999999</v>
+      </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3">
@@ -1874,7 +1894,9 @@
       <c r="L13" s="3">
         <v>1547.3209999999999</v>
       </c>
-      <c r="M13" s="3"/>
+      <c r="M13" s="3">
+        <v>1644.952</v>
+      </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3">
@@ -1962,7 +1984,9 @@
       <c r="L14" s="3">
         <v>624.59799999999996</v>
       </c>
-      <c r="M14" s="3"/>
+      <c r="M14" s="3">
+        <v>596.24099999999999</v>
+      </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3">
@@ -2050,7 +2074,9 @@
       <c r="L15" s="3">
         <v>353.3</v>
       </c>
-      <c r="M15" s="3"/>
+      <c r="M15" s="3">
+        <v>324.72699999999998</v>
+      </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3">
@@ -2138,7 +2164,9 @@
       <c r="L16" s="3">
         <v>1254.952</v>
       </c>
-      <c r="M16" s="3"/>
+      <c r="M16" s="3">
+        <v>1206.558</v>
+      </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3">
@@ -2226,7 +2254,9 @@
       <c r="L17" s="3">
         <v>993.09299999999996</v>
       </c>
-      <c r="M17" s="3"/>
+      <c r="M17" s="3">
+        <v>1066.75</v>
+      </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3">
@@ -2314,7 +2344,9 @@
       <c r="L18" s="3">
         <v>277.17399999999998</v>
       </c>
-      <c r="M18" s="3"/>
+      <c r="M18" s="3">
+        <v>292.61200000000002</v>
+      </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3">
@@ -2401,7 +2433,7 @@
         <v>2525.2190000000001</v>
       </c>
       <c r="M19" s="11">
-        <v>2485</v>
+        <v>2565.92</v>
       </c>
       <c r="N19" s="11"/>
       <c r="O19" s="3"/>
@@ -2461,7 +2493,9 @@
       <c r="L20" s="3">
         <v>1048.0170000000001</v>
       </c>
-      <c r="M20" s="3"/>
+      <c r="M20" s="3">
+        <v>1140.0039999999999</v>
+      </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3">
@@ -2511,7 +2545,7 @@
         <v>1275.0680000000002</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" ref="H21:L21" si="14">H19-H20</f>
+        <f t="shared" ref="H21:M21" si="14">H19-H20</f>
         <v>1412.1849999999999</v>
       </c>
       <c r="I21" s="3">
@@ -2530,7 +2564,10 @@
         <f t="shared" si="14"/>
         <v>1477.202</v>
       </c>
-      <c r="M21" s="3"/>
+      <c r="M21" s="3">
+        <f t="shared" si="14"/>
+        <v>1425.9160000000002</v>
+      </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3">
@@ -2596,7 +2633,9 @@
       <c r="L22" s="3">
         <v>951.65800000000002</v>
       </c>
-      <c r="M22" s="3"/>
+      <c r="M22" s="3">
+        <v>988.25400000000002</v>
+      </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3">
@@ -2656,7 +2695,9 @@
       <c r="L23" s="3">
         <v>1.73</v>
       </c>
-      <c r="M23" s="3"/>
+      <c r="M23" s="3">
+        <v>1.776</v>
+      </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3">
@@ -2710,7 +2751,7 @@
         <v>432.64200000000017</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" ref="H24:L24" si="23">H21-SUM(H22:H23)</f>
+        <f t="shared" ref="H24:M24" si="23">H21-SUM(H22:H23)</f>
         <v>540.226</v>
       </c>
       <c r="I24" s="3">
@@ -2729,7 +2770,10 @@
         <f t="shared" si="23"/>
         <v>523.81399999999996</v>
       </c>
-      <c r="M24" s="3"/>
+      <c r="M24" s="3">
+        <f t="shared" si="23"/>
+        <v>435.88600000000019</v>
+      </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3">
@@ -2807,7 +2851,9 @@
       <c r="L25" s="3">
         <v>9.7370000000000001</v>
       </c>
-      <c r="M25" s="3"/>
+      <c r="M25" s="3">
+        <v>5.8540000000000001</v>
+      </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3">
@@ -2857,7 +2903,7 @@
         <v>455.92500000000018</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" ref="H26:L26" si="31">H24+H25</f>
+        <f t="shared" ref="H26:M26" si="31">H24+H25</f>
         <v>558.22</v>
       </c>
       <c r="I26" s="3">
@@ -2876,7 +2922,10 @@
         <f t="shared" si="31"/>
         <v>533.55099999999993</v>
       </c>
-      <c r="M26" s="3"/>
+      <c r="M26" s="3">
+        <f t="shared" si="31"/>
+        <v>441.74000000000018</v>
+      </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3">
@@ -2942,7 +2991,9 @@
       <c r="L27" s="3">
         <v>162.64599999999999</v>
       </c>
-      <c r="M27" s="3"/>
+      <c r="M27" s="3">
+        <v>134.905</v>
+      </c>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3">
@@ -2992,7 +3043,7 @@
         <v>321.42100000000016</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" ref="H28:L28" si="40">H26-H27</f>
+        <f t="shared" ref="H28:M28" si="40">H26-H27</f>
         <v>392.92200000000003</v>
       </c>
       <c r="I28" s="3">
@@ -3011,7 +3062,10 @@
         <f t="shared" si="40"/>
         <v>370.90499999999997</v>
       </c>
-      <c r="M28" s="3"/>
+      <c r="M28" s="3">
+        <f t="shared" si="40"/>
+        <v>306.83500000000015</v>
+      </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3">
@@ -3070,7 +3124,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="14">
-        <f t="shared" ref="C30:L30" si="42">C28/C31</f>
+        <f t="shared" ref="C30:M30" si="42">C28/C31</f>
         <v>2.2822328403250376</v>
       </c>
       <c r="D30" s="14">
@@ -3109,7 +3163,10 @@
         <f t="shared" si="42"/>
         <v>3.1012123745819395</v>
       </c>
-      <c r="M30" s="14"/>
+      <c r="M30" s="14">
+        <f t="shared" si="42"/>
+        <v>2.588560340827605</v>
+      </c>
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
       <c r="P30" s="14">
@@ -3184,7 +3241,9 @@
       <c r="L31" s="3">
         <v>119.6</v>
       </c>
-      <c r="M31" s="3"/>
+      <c r="M31" s="3">
+        <v>118.535</v>
+      </c>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3">
@@ -3258,7 +3317,7 @@
       </c>
       <c r="M33" s="12">
         <f t="shared" si="44"/>
-        <v>3.6859629651264658E-2</v>
+        <v>7.062328407033136E-2</v>
       </c>
       <c r="N33" s="13"/>
       <c r="O33" s="3"/>
@@ -3615,7 +3674,7 @@
       <c r="V38" s="3"/>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="15" t="s">
         <v>65</v>
       </c>
       <c r="C39" s="3"/>
@@ -3644,7 +3703,7 @@
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="15" t="s">
         <v>66</v>
       </c>
       <c r="C40" s="3"/>
@@ -3673,7 +3732,7 @@
       </c>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="15" t="s">
         <v>67</v>
       </c>
       <c r="C41" s="3"/>
@@ -3702,7 +3761,7 @@
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C42" s="3"/>
@@ -3731,7 +3790,7 @@
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C43" s="3"/>
@@ -3760,7 +3819,7 @@
       </c>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="15" t="s">
         <v>70</v>
       </c>
       <c r="C44" s="3"/>
@@ -3797,7 +3856,7 @@
       </c>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="15" t="s">
         <v>71</v>
       </c>
       <c r="C45" s="3"/>
@@ -3826,7 +3885,7 @@
       </c>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="15" t="s">
         <v>72</v>
       </c>
       <c r="C46" s="3"/>
@@ -3855,7 +3914,7 @@
       </c>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C47" s="3"/>
@@ -3884,7 +3943,7 @@
       </c>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="15" t="s">
         <v>74</v>
       </c>
       <c r="C48" s="3"/>
@@ -3913,7 +3972,7 @@
       </c>
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C49" s="3"/>
@@ -3942,7 +4001,7 @@
       </c>
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C50" s="3"/>
@@ -3971,7 +4030,7 @@
       </c>
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="15" t="s">
         <v>76</v>
       </c>
       <c r="C51" s="3"/>
@@ -4039,7 +4098,7 @@
       </c>
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C53" s="3"/>
@@ -4068,7 +4127,7 @@
       </c>
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="15" t="s">
         <v>81</v>
       </c>
       <c r="C54" s="3"/>
@@ -4097,7 +4156,7 @@
       </c>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="15" t="s">
         <v>82</v>
       </c>
       <c r="C55" s="3"/>
@@ -4126,7 +4185,7 @@
       </c>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C56" s="3"/>
@@ -4155,7 +4214,7 @@
       </c>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="15" t="s">
         <v>84</v>
       </c>
       <c r="C57" s="3"/>
@@ -4184,7 +4243,7 @@
       </c>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C58" s="3"/>
@@ -4213,7 +4272,7 @@
       </c>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C59" s="3"/>
@@ -4242,7 +4301,7 @@
       </c>
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="15" t="s">
         <v>86</v>
       </c>
       <c r="C60" s="3"/>
@@ -4276,7 +4335,7 @@
       </c>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C61" s="3"/>
@@ -4305,7 +4364,7 @@
       </c>
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="15" t="s">
         <v>84</v>
       </c>
       <c r="C62" s="3"/>
@@ -4334,7 +4393,7 @@
       </c>
     </row>
     <row r="63" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C63" s="3"/>
@@ -4363,7 +4422,7 @@
       </c>
     </row>
     <row r="64" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C64" s="3"/>
@@ -4392,7 +4451,7 @@
       </c>
     </row>
     <row r="65" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C65" s="3"/>
@@ -4423,7 +4482,7 @@
       </c>
     </row>
     <row r="66" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C66" s="3"/>
@@ -4508,7 +4567,7 @@
       <c r="V68" s="3"/>
     </row>
     <row r="69" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B69" s="16" t="s">
+      <c r="B69" s="15" t="s">
         <v>26</v>
       </c>
       <c r="C69" s="3"/>
@@ -4542,7 +4601,7 @@
       </c>
     </row>
     <row r="70" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="15" t="s">
         <v>89</v>
       </c>
       <c r="C70" s="3"/>
@@ -4573,7 +4632,7 @@
       </c>
     </row>
     <row r="71" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B71" s="16" t="s">
+      <c r="B71" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C71" s="3"/>
@@ -4606,7 +4665,7 @@
       </c>
     </row>
     <row r="72" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="15" t="s">
         <v>91</v>
       </c>
       <c r="C72" s="3"/>
@@ -4637,7 +4696,7 @@
       </c>
     </row>
     <row r="73" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B73" s="16" t="s">
+      <c r="B73" s="15" t="s">
         <v>92</v>
       </c>
       <c r="C73" s="3"/>
@@ -4668,7 +4727,7 @@
       </c>
     </row>
     <row r="74" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="15" t="s">
         <v>93</v>
       </c>
       <c r="C74" s="3"/>
@@ -4699,7 +4758,7 @@
       </c>
     </row>
     <row r="75" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B75" s="16" t="s">
+      <c r="B75" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C75" s="3"/>
@@ -4730,7 +4789,7 @@
       </c>
     </row>
     <row r="76" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="15" t="s">
         <v>94</v>
       </c>
       <c r="C76" s="3"/>
@@ -4761,7 +4820,7 @@
       </c>
     </row>
     <row r="77" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="15" t="s">
         <v>106</v>
       </c>
       <c r="C77" s="3"/>
@@ -4792,7 +4851,7 @@
       </c>
     </row>
     <row r="78" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="15" t="s">
         <v>95</v>
       </c>
       <c r="C78" s="3"/>
@@ -4823,7 +4882,7 @@
       </c>
     </row>
     <row r="79" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="15" t="s">
         <v>96</v>
       </c>
       <c r="C79" s="3"/>
@@ -4854,7 +4913,7 @@
       </c>
     </row>
     <row r="80" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="15" t="s">
         <v>97</v>
       </c>
       <c r="C80" s="3"/>
@@ -4885,7 +4944,7 @@
       </c>
     </row>
     <row r="81" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B81" s="16" t="s">
+      <c r="B81" s="15" t="s">
         <v>98</v>
       </c>
       <c r="C81" s="3"/>
@@ -4916,7 +4975,7 @@
       </c>
     </row>
     <row r="82" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="15" t="s">
         <v>99</v>
       </c>
       <c r="C82" s="3"/>
@@ -4947,7 +5006,7 @@
       </c>
     </row>
     <row r="83" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="15" t="s">
         <v>100</v>
       </c>
       <c r="C83" s="3"/>
@@ -4978,7 +5037,7 @@
       </c>
     </row>
     <row r="84" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="15" t="s">
         <v>101</v>
       </c>
       <c r="C84" s="3"/>
@@ -5009,7 +5068,7 @@
       </c>
     </row>
     <row r="85" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B85" s="16" t="s">
+      <c r="B85" s="15" t="s">
         <v>102</v>
       </c>
       <c r="C85" s="3"/>
@@ -5040,7 +5099,7 @@
       </c>
     </row>
     <row r="86" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B86" s="16" t="s">
+      <c r="B86" s="15" t="s">
         <v>103</v>
       </c>
       <c r="C86" s="3"/>
@@ -5071,7 +5130,7 @@
       </c>
     </row>
     <row r="87" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B87" s="16" t="s">
+      <c r="B87" s="15" t="s">
         <v>104</v>
       </c>
       <c r="C87" s="3"/>
@@ -5102,7 +5161,7 @@
       </c>
     </row>
     <row r="88" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B88" s="16" t="s">
+      <c r="B88" s="15" t="s">
         <v>105</v>
       </c>
       <c r="C88" s="3"/>
@@ -5185,7 +5244,7 @@
       </c>
     </row>
     <row r="90" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B90" s="16" t="s">
+      <c r="B90" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C90" s="3"/>
@@ -5216,7 +5275,7 @@
       </c>
     </row>
     <row r="91" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B91" s="16" t="s">
+      <c r="B91" s="15" t="s">
         <v>109</v>
       </c>
       <c r="C91" s="3"/>
@@ -5247,7 +5306,7 @@
       </c>
     </row>
     <row r="92" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B92" s="16" t="s">
+      <c r="B92" s="15" t="s">
         <v>110</v>
       </c>
       <c r="C92" s="3"/>
@@ -5278,7 +5337,7 @@
       </c>
     </row>
     <row r="93" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B93" s="16" t="s">
+      <c r="B93" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C93" s="3"/>
@@ -5346,7 +5405,7 @@
       </c>
     </row>
     <row r="95" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B95" s="16" t="s">
+      <c r="B95" s="15" t="s">
         <v>111</v>
       </c>
       <c r="C95" s="3"/>
@@ -5377,7 +5436,7 @@
       </c>
     </row>
     <row r="96" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B96" s="16" t="s">
+      <c r="B96" s="15" t="s">
         <v>112</v>
       </c>
       <c r="C96" s="3"/>
@@ -5408,7 +5467,7 @@
       </c>
     </row>
     <row r="97" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B97" s="16" t="s">
+      <c r="B97" s="15" t="s">
         <v>113</v>
       </c>
       <c r="C97" s="3"/>
@@ -5439,7 +5498,7 @@
       </c>
     </row>
     <row r="98" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B98" s="16" t="s">
+      <c r="B98" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C98" s="3"/>
@@ -5507,7 +5566,7 @@
       </c>
     </row>
     <row r="100" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B100" s="16" t="s">
+      <c r="B100" s="15" t="s">
         <v>115</v>
       </c>
       <c r="C100" s="3"/>
@@ -5538,7 +5597,7 @@
       </c>
     </row>
     <row r="101" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B101" s="16" t="s">
+      <c r="B101" s="15" t="s">
         <v>116</v>
       </c>
       <c r="C101" s="3"/>
@@ -5575,7 +5634,7 @@
       </c>
     </row>
     <row r="102" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B102" s="16" t="s">
+      <c r="B102" s="15" t="s">
         <v>117</v>
       </c>
       <c r="C102" s="3"/>
@@ -5606,7 +5665,7 @@
       </c>
     </row>
     <row r="103" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B103" s="16" t="s">
+      <c r="B103" s="15" t="s">
         <v>118</v>
       </c>
       <c r="C103" s="3"/>
